--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC2A88-150D-4C7F-93BC-B1E93E1FE44A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E7F36A-3628-4B16-945A-4FAB6A5FF871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4713,161 +4713,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4877,113 +4730,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5094,11 +4840,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5121,39 +4897,235 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5209,19 +5181,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5245,11 +5235,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5289,19 +5305,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5313,24 +5317,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31042,38 +31042,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="229"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="227" t="s">
+      <c r="E1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="229"/>
+      <c r="F1" s="145"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="224" t="s">
+      <c r="H1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="226"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="142"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="221" t="s">
+      <c r="N1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="223"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="136"/>
     </row>
     <row r="2" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="237"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31084,21 +31084,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="233"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="252" t="s">
+      <c r="J3" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="253"/>
+      <c r="K3" s="169"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31116,43 +31116,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="246"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="248"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="164"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="156" t="s">
+      <c r="N4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
     </row>
     <row r="5" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="245"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="240"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="158"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="161"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="175"/>
     </row>
     <row r="6" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31177,16 +31177,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="175"/>
     </row>
     <row r="7" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31199,9 +31199,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31210,9 +31210,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="161"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="175"/>
     </row>
     <row r="8" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31225,17 +31225,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="154" t="s">
+      <c r="L8" s="181" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="164"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
     </row>
     <row r="9" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31251,7 +31251,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="256"/>
+      <c r="L9" s="182"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31313,11 +31313,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="134" t="s">
+      <c r="N11" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="224"/>
     </row>
     <row r="12" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31345,9 +31345,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="227"/>
     </row>
     <row r="13" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31375,9 +31375,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="139"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="226"/>
+      <c r="P13" s="227"/>
     </row>
     <row r="14" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31405,9 +31405,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="226"/>
+      <c r="P14" s="227"/>
     </row>
     <row r="15" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31435,9 +31435,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="227"/>
     </row>
     <row r="16" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31465,9 +31465,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="139"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="227"/>
     </row>
     <row r="17" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31495,9 +31495,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="227"/>
     </row>
     <row r="18" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31525,9 +31525,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="227"/>
     </row>
     <row r="19" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31555,9 +31555,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="227"/>
     </row>
     <row r="20" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31585,9 +31585,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="139"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="227"/>
     </row>
     <row r="21" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31613,9 +31613,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
+      <c r="N21" s="228"/>
+      <c r="O21" s="229"/>
+      <c r="P21" s="230"/>
     </row>
     <row r="22" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31628,11 +31628,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="198" t="s">
+      <c r="H22" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31641,11 +31641,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="152" t="s">
+      <c r="N22" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
     </row>
     <row r="23" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31658,17 +31658,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154" t="s">
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
     </row>
     <row r="24" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31684,8 +31684,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
+      <c r="K24" s="206"/>
+      <c r="L24" s="206"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31712,11 +31712,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="134" t="s">
+      <c r="N25" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="224"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14" customHeight="1" thickBot="1">
@@ -31747,9 +31747,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="139"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="262"/>
+      <c r="P26" s="227"/>
     </row>
     <row r="27" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31778,9 +31778,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="185"/>
-      <c r="P27" s="139"/>
+      <c r="N27" s="225"/>
+      <c r="O27" s="262"/>
+      <c r="P27" s="227"/>
     </row>
     <row r="28" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31809,9 +31809,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="139"/>
+      <c r="N28" s="225"/>
+      <c r="O28" s="262"/>
+      <c r="P28" s="227"/>
     </row>
     <row r="29" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31840,9 +31840,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="139"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="262"/>
+      <c r="P29" s="227"/>
     </row>
     <row r="30" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31871,9 +31871,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="185"/>
-      <c r="P30" s="139"/>
+      <c r="N30" s="225"/>
+      <c r="O30" s="262"/>
+      <c r="P30" s="227"/>
     </row>
     <row r="31" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31897,9 +31897,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="229"/>
+      <c r="P31" s="230"/>
     </row>
     <row r="32" spans="1:19" ht="14" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31912,10 +31912,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="167" t="s">
+      <c r="H32" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="167"/>
+      <c r="I32" s="244"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31928,20 +31928,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="203"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="212"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
+      <c r="H33" s="245"/>
+      <c r="I33" s="245"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="154" t="s">
+      <c r="L33" s="181" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -31958,19 +31958,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="155"/>
+      <c r="L34" s="206"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="206"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -31986,21 +31986,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="156" t="s">
+      <c r="N35" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="157"/>
-      <c r="P35" s="158"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="172"/>
     </row>
     <row r="36" spans="1:16" ht="14" customHeight="1">
-      <c r="A36" s="257" t="s">
+      <c r="A36" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="259"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="185"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32014,17 +32014,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="161"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="175"/>
     </row>
     <row r="37" spans="1:16" ht="14" customHeight="1">
-      <c r="A37" s="260"/>
-      <c r="B37" s="261"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="261"/>
-      <c r="F37" s="262"/>
+      <c r="A37" s="186"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="188"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32038,19 +32038,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="161"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="175"/>
     </row>
     <row r="38" spans="1:16" ht="16.149999999999999" thickBot="1">
-      <c r="A38" s="186" t="s">
+      <c r="A38" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="188"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="139"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32064,74 +32064,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="161"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="175"/>
     </row>
     <row r="39" spans="1:16" ht="14" customHeight="1">
-      <c r="A39" s="186" t="s">
+      <c r="A39" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="188"/>
-      <c r="H39" s="178" t="s">
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="139"/>
+      <c r="H39" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="178"/>
-      <c r="J39" s="165" t="s">
+      <c r="I39" s="255"/>
+      <c r="J39" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="165"/>
+      <c r="K39" s="242"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="164"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="178"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="188"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="139"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="243"/>
+      <c r="K40" s="243"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="188"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="139"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="188"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="139"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32145,19 +32145,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="169" t="s">
+      <c r="N42" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="180"/>
-      <c r="P42" s="181"/>
+      <c r="O42" s="257"/>
+      <c r="P42" s="258"/>
     </row>
     <row r="43" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="189"/>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="191"/>
+      <c r="A43" s="200"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="202"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32171,94 +32171,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="182"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="184"/>
+      <c r="N43" s="259"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="261"/>
     </row>
     <row r="44" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="L44" s="154" t="s">
+      <c r="L44" s="181" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="215" t="s">
+      <c r="A45" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="217"/>
-      <c r="L45" s="155"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="193"/>
+      <c r="L45" s="206"/>
     </row>
     <row r="46" spans="1:16" ht="14" customHeight="1">
-      <c r="A46" s="192" t="s">
+      <c r="A46" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="193"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="194"/>
-      <c r="H46" s="143" t="s">
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
+      <c r="H46" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="207">
+      <c r="I46" s="232"/>
+      <c r="J46" s="233"/>
+      <c r="K46" s="216">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="208"/>
-      <c r="N46" s="169" t="s">
+      <c r="L46" s="217"/>
+      <c r="N46" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="170"/>
-      <c r="P46" s="171"/>
+      <c r="O46" s="247"/>
+      <c r="P46" s="248"/>
     </row>
     <row r="47" spans="1:16" ht="14" customHeight="1">
-      <c r="A47" s="195"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="197"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="210"/>
-      <c r="N47" s="172"/>
-      <c r="O47" s="173"/>
-      <c r="P47" s="174"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="204"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="205"/>
+      <c r="H47" s="234"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="218"/>
+      <c r="L47" s="219"/>
+      <c r="N47" s="249"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="251"/>
     </row>
     <row r="48" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A48" s="192" t="s">
+      <c r="A48" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="194"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="211"/>
-      <c r="L48" s="212"/>
-      <c r="N48" s="175"/>
-      <c r="O48" s="176"/>
-      <c r="P48" s="177"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="221"/>
+      <c r="N48" s="252"/>
+      <c r="O48" s="253"/>
+      <c r="P48" s="254"/>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1">
-      <c r="A49" s="192" t="s">
+      <c r="A49" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="194"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32266,14 +32266,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="194"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="196"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32281,14 +32281,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14" customHeight="1" thickBot="1">
-      <c r="A51" s="218" t="s">
+      <c r="A51" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="220"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="199"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32296,14 +32296,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="213" t="s">
+      <c r="A52" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213"/>
-      <c r="F52" s="213"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="189"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32311,12 +32311,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1">
-      <c r="A53" s="214"/>
-      <c r="B53" s="214"/>
-      <c r="C53" s="214"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="214"/>
-      <c r="F53" s="214"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32335,6 +32335,37 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32351,37 +32382,6 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32432,11 +32432,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32453,11 +32453,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32466,14 +32466,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32482,12 +32482,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32496,12 +32496,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32510,12 +32510,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="280"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32524,18 +32524,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+      <c r="A7" s="275"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="274"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="267"/>
     </row>
     <row r="8" spans="1:7" ht="8" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32547,10 +32547,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32573,10 +32573,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32585,10 +32585,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32602,10 +32602,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32619,10 +32619,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32639,10 +32639,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32651,10 +32651,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32668,10 +32668,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32685,10 +32685,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32705,10 +32705,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32717,10 +32717,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32734,10 +32734,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32751,10 +32751,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32771,10 +32771,10 @@
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="263" t="s">
+      <c r="E26" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="264"/>
+      <c r="F26" s="279"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32783,10 +32783,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="266"/>
+      <c r="C27" s="264"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32800,10 +32800,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32817,10 +32817,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32837,10 +32837,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="264"/>
+      <c r="F31" s="279"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32849,10 +32849,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32866,10 +32866,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32883,10 +32883,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="266"/>
+      <c r="C34" s="264"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32900,10 +32900,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32920,10 +32920,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="263" t="s">
+      <c r="E37" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="264"/>
+      <c r="F37" s="279"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32932,10 +32932,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="263" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="264"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32949,10 +32949,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="266"/>
+      <c r="C39" s="264"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -32969,10 +32969,10 @@
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="263" t="s">
+      <c r="E41" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="264"/>
+      <c r="F41" s="279"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -32981,10 +32981,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="265" t="s">
+      <c r="B42" s="263" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="266"/>
+      <c r="C42" s="264"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -32998,10 +32998,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="265" t="s">
+      <c r="B43" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="266"/>
+      <c r="C43" s="264"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33015,10 +33015,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="263" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="266"/>
+      <c r="C44" s="264"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33032,10 +33032,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="265" t="s">
+      <c r="B45" s="263" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="266"/>
+      <c r="C45" s="264"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33047,14 +33047,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33066,21 +33073,14 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34943,11 +34943,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -34964,11 +34964,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -34977,14 +34977,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -34993,12 +34993,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="279"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35007,12 +35007,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35021,12 +35021,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="280"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35035,18 +35035,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
+      <c r="A7" s="289"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="291"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="289"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="294"/>
     </row>
     <row r="8" spans="1:7" ht="8" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35058,11 +35058,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="286"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35083,10 +35083,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35095,10 +35095,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35115,10 +35115,10 @@
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="263" t="s">
+      <c r="E14" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="264"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35127,10 +35127,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="263" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35144,10 +35144,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="287" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="266"/>
+      <c r="C16" s="264"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35161,10 +35161,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="287" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35181,10 +35181,10 @@
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="263" t="s">
+      <c r="E19" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="264"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35193,10 +35193,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="290" t="s">
+      <c r="B20" s="287" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35210,10 +35210,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="287" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35230,10 +35230,10 @@
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="263" t="s">
+      <c r="E23" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="264"/>
+      <c r="F23" s="279"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35242,10 +35242,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35259,10 +35259,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="287" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35279,10 +35279,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="263" t="s">
+      <c r="E27" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35291,10 +35291,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35308,10 +35308,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="287" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35328,10 +35328,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="264"/>
+      <c r="F31" s="279"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35340,10 +35340,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="290" t="s">
+      <c r="B32" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35360,10 +35360,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="263" t="s">
+      <c r="E34" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="264"/>
+      <c r="F34" s="279"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35372,10 +35372,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="290" t="s">
+      <c r="B35" s="287" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35392,10 +35392,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="263" t="s">
+      <c r="E37" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="264"/>
+      <c r="F37" s="279"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35404,10 +35404,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="264"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35690,12 +35690,16 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B17:C17"/>
@@ -35706,16 +35710,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37129,11 +37129,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37150,11 +37150,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37163,14 +37163,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37179,12 +37179,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37193,12 +37193,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37207,12 +37207,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="280"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37221,18 +37221,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+      <c r="A7" s="275"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="274"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="267"/>
     </row>
     <row r="8" spans="1:7" ht="8" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37244,11 +37244,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="286"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37270,10 +37270,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37282,10 +37282,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37299,10 +37299,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37316,10 +37316,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37337,10 +37337,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37349,10 +37349,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37366,10 +37366,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="263" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37383,10 +37383,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37404,10 +37404,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37416,10 +37416,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="263" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37433,10 +37433,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="263" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37450,10 +37450,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="263" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37467,10 +37467,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="263" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37488,10 +37488,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="263" t="s">
+      <c r="E27" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37500,10 +37500,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="263" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37521,10 +37521,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="263" t="s">
+      <c r="E30" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="264"/>
+      <c r="F30" s="279"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37533,10 +37533,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="263" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="266"/>
+      <c r="C31" s="264"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37550,10 +37550,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37571,10 +37571,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="263" t="s">
+      <c r="E34" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="264"/>
+      <c r="F34" s="279"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37583,10 +37583,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="263" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37615,6 +37615,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37625,22 +37641,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38576,8 +38576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
@@ -38592,17 +38592,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="76" t="str">
         <f>""&amp;COUNTIF(E$9:E$122,"Untested")&amp;" Untested"</f>
-        <v>25 Untested</v>
+        <v>23 Untested</v>
       </c>
       <c r="F1" s="76" t="str">
         <f>""&amp;COUNTIF(F$9:F$122,"Untested")&amp;" Untested"</f>
@@ -38613,11 +38613,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="301" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="299"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="303"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38626,14 +38626,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="300"/>
-      <c r="B3" s="301"/>
-      <c r="C3" s="302"/>
+      <c r="A3" s="304"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="306"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38642,12 +38642,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="302"/>
+      <c r="A4" s="304"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="306"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38656,12 +38656,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="300"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="302"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="305"/>
+      <c r="C5" s="306"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38670,12 +38670,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
+      <c r="A6" s="307"/>
+      <c r="B6" s="308"/>
+      <c r="C6" s="309"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38684,7 +38684,7 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A7" s="129"/>
@@ -38693,8 +38693,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38707,10 +38707,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38732,10 +38732,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38744,10 +38744,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>453</v>
@@ -38763,10 +38763,10 @@
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>453</v>
@@ -38782,10 +38782,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>453</v>
@@ -38801,10 +38801,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="263" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38818,10 +38818,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="265" t="s">
+      <c r="B16" s="263" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="266"/>
+      <c r="C16" s="264"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38835,10 +38835,10 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -38852,10 +38852,10 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="263" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -38869,10 +38869,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38886,10 +38886,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="263" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38903,10 +38903,10 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="308" t="s">
+      <c r="B21" s="299" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="309"/>
+      <c r="C21" s="300"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -38922,10 +38922,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="263" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38939,10 +38939,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="263" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -38956,10 +38956,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="263" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -38973,10 +38973,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="263" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -38990,13 +38990,13 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="265" t="s">
+      <c r="B26" s="263" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="266"/>
+      <c r="C26" s="264"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>100</v>
@@ -39007,13 +39007,13 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="263" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="266"/>
+      <c r="C27" s="264"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>100</v>
@@ -39024,10 +39024,10 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="263" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -39044,10 +39044,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="263" t="s">
+      <c r="E30" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="264"/>
+      <c r="F30" s="279"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39056,10 +39056,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="297" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="307"/>
+      <c r="C31" s="298"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>453</v>
@@ -39073,10 +39073,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -39090,10 +39090,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="263" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -39107,10 +39107,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="263" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="266"/>
+      <c r="C34" s="264"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -39124,10 +39124,10 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="263" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -39141,10 +39141,10 @@
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="263" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="266"/>
+      <c r="C36" s="264"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -39158,10 +39158,10 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="265" t="s">
+      <c r="B37" s="263" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="266"/>
+      <c r="C37" s="264"/>
       <c r="D37" s="70"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -39175,10 +39175,10 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="263" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="264"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -39195,10 +39195,10 @@
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="263" t="s">
+      <c r="E40" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="264"/>
+      <c r="F40" s="279"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
@@ -39207,10 +39207,10 @@
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="306" t="s">
+      <c r="B41" s="297" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="307"/>
+      <c r="C41" s="298"/>
       <c r="D41" s="70"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -39224,10 +39224,10 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="306" t="s">
+      <c r="B42" s="297" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="307"/>
+      <c r="C42" s="298"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -39241,10 +39241,10 @@
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="306" t="s">
+      <c r="B43" s="297" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="307"/>
+      <c r="C43" s="298"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -39258,10 +39258,10 @@
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="306" t="s">
+      <c r="B44" s="297" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="307"/>
+      <c r="C44" s="298"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -39278,10 +39278,10 @@
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="263" t="s">
+      <c r="E46" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="264"/>
+      <c r="F46" s="279"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39290,10 +39290,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="265" t="s">
+      <c r="B47" s="263" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="266"/>
+      <c r="C47" s="264"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39307,10 +39307,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="265" t="s">
+      <c r="B48" s="263" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="266"/>
+      <c r="C48" s="264"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39324,10 +39324,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="265" t="s">
+      <c r="B49" s="263" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="266"/>
+      <c r="C49" s="264"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39341,10 +39341,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="265" t="s">
+      <c r="B50" s="263" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="266"/>
+      <c r="C50" s="264"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39358,10 +39358,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="265" t="s">
+      <c r="B51" s="263" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="266"/>
+      <c r="C51" s="264"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39378,10 +39378,10 @@
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="263" t="s">
+      <c r="E53" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="264"/>
+      <c r="F53" s="279"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39390,10 +39390,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="265" t="s">
+      <c r="B54" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="266"/>
+      <c r="C54" s="264"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39406,19 +39406,22 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
@@ -39435,22 +39438,19 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40452,11 +40452,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40473,11 +40473,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40486,14 +40486,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40502,12 +40502,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40516,12 +40516,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40530,12 +40530,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="282"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="284"/>
+      <c r="A6" s="275"/>
+      <c r="B6" s="276"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40544,7 +40544,7 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A7" s="128"/>
@@ -40553,8 +40553,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40567,10 +40567,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40592,10 +40592,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40604,10 +40604,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40621,10 +40621,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40638,10 +40638,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40658,10 +40658,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40670,10 +40670,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40687,10 +40687,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="306" t="s">
+      <c r="B18" s="297" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="307"/>
+      <c r="C18" s="298"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40704,10 +40704,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40724,10 +40724,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40736,10 +40736,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="306" t="s">
+      <c r="B22" s="297" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="307"/>
+      <c r="C22" s="298"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40753,10 +40753,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="297" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="307"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40770,10 +40770,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="306" t="s">
+      <c r="B24" s="297" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="307"/>
+      <c r="C24" s="298"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40787,10 +40787,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="307"/>
+      <c r="C25" s="298"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40804,10 +40804,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="306" t="s">
+      <c r="B26" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="307"/>
+      <c r="C26" s="298"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40824,10 +40824,10 @@
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="263" t="s">
+      <c r="E28" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="264"/>
+      <c r="F28" s="279"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40836,10 +40836,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="263" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40853,10 +40853,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="265" t="s">
+      <c r="B30" s="263" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="266"/>
+      <c r="C30" s="264"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40870,10 +40870,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="266"/>
+      <c r="C31" s="264"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40887,10 +40887,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40904,10 +40904,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="263" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40924,10 +40924,10 @@
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="263" t="s">
+      <c r="E35" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="264"/>
+      <c r="F35" s="279"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -40936,10 +40936,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="266"/>
+      <c r="C36" s="264"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -40952,6 +40952,20 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -40965,20 +40979,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41640,11 +41640,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41661,11 +41661,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41677,14 +41677,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="284"/>
+      <c r="A3" s="275"/>
+      <c r="B3" s="276"/>
+      <c r="C3" s="277"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41696,7 +41696,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41728,8 +41728,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="266"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="264"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41741,8 +41741,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41754,8 +41754,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="266"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41767,8 +41767,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="266"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41780,8 +41780,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="266"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41793,8 +41793,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="266"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="264"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42155,11 +42155,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42176,11 +42176,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42192,14 +42192,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42211,12 +42211,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42228,12 +42228,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
+      <c r="A5" s="275"/>
+      <c r="B5" s="276"/>
+      <c r="C5" s="277"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42245,7 +42245,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="8" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42257,10 +42257,10 @@
       <c r="G6" s="71"/>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="270" t="s">
+      <c r="A7" s="285" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="271"/>
+      <c r="B7" s="286"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42279,10 +42279,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="263" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="266"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42341,10 +42341,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42358,10 +42358,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42375,10 +42375,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42392,10 +42392,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="313" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="316"/>
+      <c r="C15" s="314"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42409,10 +42409,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="315" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="314"/>
+      <c r="C16" s="315"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42426,10 +42426,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="314" t="s">
+      <c r="B17" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="314"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42449,10 +42449,10 @@
       <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A19" s="270" t="s">
+      <c r="A19" s="285" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="271"/>
+      <c r="B19" s="286"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42471,10 +42471,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="263" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42488,10 +42488,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="265" t="s">
+      <c r="B21" s="263" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42505,10 +42505,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="314" t="s">
+      <c r="B22" s="315" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="314"/>
+      <c r="C22" s="315"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42522,10 +42522,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="314" t="s">
+      <c r="B23" s="315" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="314"/>
+      <c r="C23" s="315"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42539,10 +42539,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="314" t="s">
+      <c r="B24" s="315" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="314"/>
+      <c r="C24" s="315"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42556,10 +42556,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="315" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="314"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42573,10 +42573,10 @@
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="314" t="s">
+      <c r="B26" s="315" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="314"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42590,10 +42590,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="314" t="s">
+      <c r="B27" s="315" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="314"/>
+      <c r="C27" s="315"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42607,10 +42607,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="314" t="s">
+      <c r="B28" s="315" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="314"/>
+      <c r="C28" s="315"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42624,10 +42624,10 @@
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="314" t="s">
+      <c r="B29" s="315" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="314"/>
+      <c r="C29" s="315"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42641,10 +42641,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="314" t="s">
+      <c r="B30" s="315" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="314"/>
+      <c r="C30" s="315"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42658,10 +42658,10 @@
       <c r="A31" s="89"/>
     </row>
     <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A32" s="270" t="s">
+      <c r="A32" s="285" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="271"/>
+      <c r="B32" s="286"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42680,10 +42680,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="312" t="s">
+      <c r="B33" s="310" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="312"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42697,10 +42697,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="313" t="s">
+      <c r="B34" s="316" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="316"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42714,10 +42714,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="312" t="s">
+      <c r="B35" s="310" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="312"/>
+      <c r="C35" s="310"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42731,10 +42731,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="310" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="312"/>
+      <c r="C36" s="310"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42748,10 +42748,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="312" t="s">
+      <c r="B37" s="310" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="312"/>
+      <c r="C37" s="310"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42765,10 +42765,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="311" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="311"/>
+      <c r="C38" s="312"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42782,10 +42782,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="312" t="s">
+      <c r="B39" s="310" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="312"/>
+      <c r="C39" s="310"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42799,10 +42799,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="310" t="s">
+      <c r="B40" s="311" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="311"/>
+      <c r="C40" s="312"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42816,10 +42816,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="312" t="s">
+      <c r="B41" s="310" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="312"/>
+      <c r="C41" s="310"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42833,10 +42833,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="312" t="s">
+      <c r="B42" s="310" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="312"/>
+      <c r="C42" s="310"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42850,10 +42850,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="312" t="s">
+      <c r="B43" s="310" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="312"/>
+      <c r="C43" s="310"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42867,10 +42867,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="312" t="s">
+      <c r="B44" s="310" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="312"/>
+      <c r="C44" s="310"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42884,10 +42884,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="312" t="s">
+      <c r="B45" s="310" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="312"/>
+      <c r="C45" s="310"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42901,10 +42901,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="310" t="s">
+      <c r="B46" s="311" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="311"/>
+      <c r="C46" s="312"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42918,10 +42918,10 @@
       <c r="A47" s="89"/>
     </row>
     <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A48" s="270" t="s">
+      <c r="A48" s="285" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="271"/>
+      <c r="B48" s="286"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -42940,10 +42940,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="310" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="312"/>
+      <c r="C49" s="310"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -42957,10 +42957,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="310" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="312"/>
+      <c r="C50" s="310"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -42974,10 +42974,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="312" t="s">
+      <c r="B51" s="310" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="312"/>
+      <c r="C51" s="310"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -42991,10 +42991,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="311" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="311"/>
+      <c r="C52" s="312"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43008,10 +43008,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="311" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="311"/>
+      <c r="C53" s="312"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43025,10 +43025,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="310" t="s">
+      <c r="B54" s="311" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="311"/>
+      <c r="C54" s="312"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43042,10 +43042,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="310" t="s">
+      <c r="B55" s="311" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="311"/>
+      <c r="C55" s="312"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43059,10 +43059,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="310" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="312"/>
+      <c r="C56" s="310"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43076,10 +43076,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="310" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="312"/>
+      <c r="C57" s="310"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43093,10 +43093,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="310" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="312"/>
+      <c r="C58" s="310"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43110,10 +43110,10 @@
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="310" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="312"/>
+      <c r="C59" s="310"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43127,10 +43127,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="312" t="s">
+      <c r="B60" s="310" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="312"/>
+      <c r="C60" s="310"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43144,10 +43144,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="312" t="s">
+      <c r="B61" s="310" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="312"/>
+      <c r="C61" s="310"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43161,10 +43161,10 @@
       <c r="A62" s="89"/>
     </row>
     <row r="63" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A63" s="270" t="s">
+      <c r="A63" s="285" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="271"/>
+      <c r="B63" s="286"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43183,10 +43183,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="312" t="s">
+      <c r="B64" s="310" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="312"/>
+      <c r="C64" s="310"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43200,10 +43200,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="312" t="s">
+      <c r="B65" s="310" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="312"/>
+      <c r="C65" s="310"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43217,10 +43217,10 @@
       <c r="A66" s="89"/>
     </row>
     <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A67" s="270" t="s">
+      <c r="A67" s="285" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="271"/>
+      <c r="B67" s="286"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43239,10 +43239,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="310" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="312"/>
+      <c r="C68" s="310"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43254,6 +43254,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="B68:C68"/>
@@ -43270,48 +43312,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44264,12 +44264,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44486,6 +44480,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
   <ds:schemaRefs>
@@ -44495,15 +44495,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44520,4 +44511,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E7F36A-3628-4B16-945A-4FAB6A5FF871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B61BDA-07B0-4BB3-9970-AC5033128AC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team &amp; Grade" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="489">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -2560,6 +2560,30 @@
   </si>
   <si>
     <t>Multiple folders for each system/subsystem</t>
+  </si>
+  <si>
+    <t>Image Based Lighting implemented. The skybox is another light sources now and it mimics a complete irradiance lighting effect</t>
+  </si>
+  <si>
+    <t>Moment Shadow Map implemented, moment shadow map adds softness to the hard shadow edges</t>
+  </si>
+  <si>
+    <t>We have MSAA with custom shader resolve instead of using Directx11 standard box sub resolve, this gives a better result with lesser MSAA sample count</t>
+  </si>
+  <si>
+    <t>We have keyframe animation working, and the animation can also work from scripts</t>
+  </si>
+  <si>
+    <t>We have normal mapping &amp; parallax mapping implemented</t>
+  </si>
+  <si>
+    <t>We have halo light effect, a halo light effect  convey the intensity of the light sources in a more realistic scene</t>
+  </si>
+  <si>
+    <t>We have GPU based particle system that uses the geometry shader to manage the lifetime of the particles.</t>
+  </si>
+  <si>
+    <t>So far it renders any 3D models perfectly fine. Regarding the procedular 3D models, it only drwas box &amp; sphere for now, will add more.</t>
   </si>
 </sst>
 </file>
@@ -4713,14 +4737,161 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4730,6 +4901,113 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4840,41 +5118,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4897,235 +5145,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5181,37 +5233,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5235,37 +5269,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5305,7 +5313,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5317,20 +5337,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31022,58 +31046,58 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.8125" style="24"/>
-    <col min="5" max="5" width="26.3125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.6875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="3.6875" style="24" customWidth="1"/>
+    <col min="1" max="4" width="10.875" style="24"/>
+    <col min="5" max="5" width="26.375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="24" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="24" customWidth="1"/>
-    <col min="9" max="9" width="15.1875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="24" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="24" customWidth="1"/>
-    <col min="11" max="11" width="7.8125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="7.8125" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6875" style="24" customWidth="1"/>
-    <col min="14" max="15" width="10.8125" style="24"/>
-    <col min="16" max="16" width="11.1875" style="24" customWidth="1"/>
-    <col min="17" max="17" width="10.8125" style="24"/>
-    <col min="18" max="18" width="11.1875" style="24" customWidth="1"/>
-    <col min="19" max="16384" width="10.8125" style="24"/>
+    <col min="11" max="11" width="7.875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.75" style="24" customWidth="1"/>
+    <col min="14" max="15" width="10.875" style="24"/>
+    <col min="16" max="16" width="11.25" style="24" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="24"/>
+    <col min="18" max="18" width="11.25" style="24" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="229"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="145"/>
+      <c r="F1" s="229"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="142"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="226"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="134" t="s">
+      <c r="N1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="135"/>
-      <c r="P1" s="136"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="223"/>
     </row>
-    <row r="2" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+    <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A2" s="230"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="232"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="237"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31083,29 +31107,29 @@
       <c r="M2" s="23"/>
       <c r="N2" s="121"/>
     </row>
-    <row r="3" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
+    <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A3" s="233"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="239"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="168" t="s">
+      <c r="J3" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="169"/>
+      <c r="K3" s="253"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="121"/>
     </row>
-    <row r="4" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="4" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -31116,45 +31140,45 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
+      <c r="I4" s="246"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="248"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="170" t="s">
+      <c r="N4" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="171"/>
-      <c r="P4" s="172"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="158"/>
     </row>
-    <row r="5" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="159" t="s">
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A5" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="161"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="245"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="158"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="242"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="175"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="161"/>
     </row>
-    <row r="6" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
         <v>11</v>
       </c>
@@ -31177,18 +31201,18 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="167"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="175"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
     </row>
-    <row r="7" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
       <c r="B7" s="102"/>
       <c r="C7" s="123"/>
@@ -31199,9 +31223,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31210,11 +31234,11 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="175"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="161"/>
     </row>
-    <row r="8" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
       <c r="B8" s="102"/>
       <c r="C8" s="123"/>
@@ -31225,19 +31249,19 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="255"/>
+      <c r="J8" s="255"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="181" t="s">
+      <c r="L8" s="154" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="178"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="164"/>
     </row>
-    <row r="9" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
       <c r="B9" s="102"/>
       <c r="C9" s="123"/>
@@ -31251,11 +31275,11 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="182"/>
+      <c r="L9" s="256"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
-    <row r="10" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A10" s="102"/>
       <c r="B10" s="102"/>
       <c r="C10" s="123"/>
@@ -31287,7 +31311,7 @@
       <c r="O10" s="38"/>
       <c r="P10" s="39"/>
     </row>
-    <row r="11" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A11" s="102"/>
       <c r="B11" s="102"/>
       <c r="C11" s="123"/>
@@ -31313,13 +31337,13 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="222" t="s">
+      <c r="N11" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="223"/>
-      <c r="P11" s="224"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
     </row>
-    <row r="12" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
       <c r="B12" s="102"/>
       <c r="C12" s="123"/>
@@ -31345,11 +31369,11 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="226"/>
-      <c r="P12" s="227"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
     </row>
-    <row r="13" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
       <c r="B13" s="102"/>
       <c r="C13" s="123"/>
@@ -31375,11 +31399,11 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="225"/>
-      <c r="O13" s="226"/>
-      <c r="P13" s="227"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
-    <row r="14" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
       <c r="B14" s="102"/>
       <c r="C14" s="123"/>
@@ -31405,11 +31429,11 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="225"/>
-      <c r="O14" s="226"/>
-      <c r="P14" s="227"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
-    <row r="15" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
       <c r="B15" s="102"/>
       <c r="C15" s="123"/>
@@ -31435,11 +31459,11 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="227"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
-    <row r="16" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
       <c r="B16" s="102"/>
       <c r="C16" s="123"/>
@@ -31465,11 +31489,11 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="225"/>
-      <c r="O16" s="226"/>
-      <c r="P16" s="227"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
-    <row r="17" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
       <c r="B17" s="102"/>
       <c r="C17" s="123"/>
@@ -31495,11 +31519,11 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="225"/>
-      <c r="O17" s="226"/>
-      <c r="P17" s="227"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
-    <row r="18" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
       <c r="B18" s="102"/>
       <c r="C18" s="123"/>
@@ -31525,11 +31549,11 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="226"/>
-      <c r="P18" s="227"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
-    <row r="19" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
       <c r="B19" s="102"/>
       <c r="C19" s="123"/>
@@ -31555,11 +31579,11 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="225"/>
-      <c r="O19" s="226"/>
-      <c r="P19" s="227"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
-    <row r="20" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
       <c r="B20" s="102"/>
       <c r="C20" s="123"/>
@@ -31585,11 +31609,11 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="226"/>
-      <c r="P20" s="227"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
-    <row r="21" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
       <c r="B21" s="102"/>
       <c r="C21" s="123"/>
@@ -31613,11 +31637,11 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="228"/>
-      <c r="O21" s="229"/>
-      <c r="P21" s="230"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="142"/>
     </row>
-    <row r="22" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
       <c r="B22" s="102"/>
       <c r="C22" s="123"/>
@@ -31628,11 +31652,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="207" t="s">
+      <c r="H22" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31641,13 +31665,13 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="240" t="s">
+      <c r="N22" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="240"/>
-      <c r="P22" s="240"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
     </row>
-    <row r="23" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
       <c r="B23" s="102"/>
       <c r="C23" s="123"/>
@@ -31658,19 +31682,19 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181" t="s">
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
     </row>
-    <row r="24" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
       <c r="B24" s="102"/>
       <c r="C24" s="123"/>
@@ -31684,12 +31708,12 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="206"/>
-      <c r="L24" s="206"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A25" s="102"/>
       <c r="B25" s="102"/>
       <c r="C25" s="123"/>
@@ -31712,14 +31736,14 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="222" t="s">
+      <c r="N25" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="223"/>
-      <c r="P25" s="224"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
       <c r="S25" s="111"/>
     </row>
-    <row r="26" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A26" s="102"/>
       <c r="B26" s="102"/>
       <c r="C26" s="123"/>
@@ -31747,11 +31771,11 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="225"/>
-      <c r="O26" s="262"/>
-      <c r="P26" s="227"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="139"/>
     </row>
-    <row r="27" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
       <c r="B27" s="102"/>
       <c r="C27" s="123"/>
@@ -31778,11 +31802,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="225"/>
-      <c r="O27" s="262"/>
-      <c r="P27" s="227"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="139"/>
     </row>
-    <row r="28" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
       <c r="B28" s="102"/>
       <c r="C28" s="123"/>
@@ -31809,11 +31833,11 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="225"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="227"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="139"/>
     </row>
-    <row r="29" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
       <c r="B29" s="102"/>
       <c r="C29" s="123"/>
@@ -31840,11 +31864,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="262"/>
-      <c r="P29" s="227"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="139"/>
     </row>
-    <row r="30" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
       <c r="B30" s="102"/>
       <c r="C30" s="123"/>
@@ -31871,11 +31895,11 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="225"/>
-      <c r="O30" s="262"/>
-      <c r="P30" s="227"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="139"/>
     </row>
-    <row r="31" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
       <c r="B31" s="102"/>
       <c r="C31" s="123"/>
@@ -31897,11 +31921,11 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="228"/>
-      <c r="O31" s="229"/>
-      <c r="P31" s="230"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="142"/>
     </row>
-    <row r="32" spans="1:19" ht="14" customHeight="1" thickBot="1">
+    <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
       <c r="B32" s="102"/>
       <c r="C32" s="123"/>
@@ -31912,10 +31936,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="244" t="s">
+      <c r="H32" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="244"/>
+      <c r="I32" s="167"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31927,27 +31951,27 @@
       <c r="M32" s="23"/>
       <c r="N32" s="121"/>
     </row>
-    <row r="33" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A33" s="208" t="s">
+    <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A33" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="200"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="245"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="181" t="s">
+      <c r="L33" s="154" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="121"/>
     </row>
-    <row r="34" spans="1:16" ht="14" customHeight="1" thickBot="1">
+    <row r="34" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -31958,19 +31982,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="206"/>
+      <c r="L34" s="155"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
-    <row r="35" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A35" s="213" t="s">
+    <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A35" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="214"/>
-      <c r="C35" s="214"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -31986,21 +32010,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="170" t="s">
+      <c r="N35" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="171"/>
-      <c r="P35" s="172"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="158"/>
     </row>
-    <row r="36" spans="1:16" ht="14" customHeight="1">
-      <c r="A36" s="183" t="s">
+    <row r="36" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A36" s="257" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="259"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32014,17 +32038,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="175"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="161"/>
     </row>
-    <row r="37" spans="1:16" ht="14" customHeight="1">
-      <c r="A37" s="186"/>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="188"/>
+    <row r="37" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A37" s="260"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="261"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32038,19 +32062,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="175"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="161"/>
     </row>
-    <row r="38" spans="1:16" ht="16.149999999999999" thickBot="1">
-      <c r="A38" s="137" t="s">
+    <row r="38" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A38" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="139"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="188"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32064,74 +32088,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="175"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="161"/>
     </row>
-    <row r="39" spans="1:16" ht="14" customHeight="1">
-      <c r="A39" s="137" t="s">
+    <row r="39" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A39" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="139"/>
-      <c r="H39" s="255" t="s">
+      <c r="B39" s="187"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="188"/>
+      <c r="H39" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="255"/>
-      <c r="J39" s="242" t="s">
+      <c r="I39" s="178"/>
+      <c r="J39" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="242"/>
+      <c r="K39" s="165"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="178"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="163"/>
+      <c r="P39" s="164"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="139"/>
-      <c r="H40" s="256"/>
-      <c r="I40" s="256"/>
-      <c r="J40" s="243"/>
-      <c r="K40" s="243"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="188"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
       <c r="M40" s="23"/>
     </row>
-    <row r="41" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A41" s="137" t="s">
+    <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A41" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="139"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="188"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
-    <row r="42" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A42" s="137" t="s">
+    <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A42" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="139"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="188"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32145,19 +32169,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="246" t="s">
+      <c r="N42" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="257"/>
-      <c r="P42" s="258"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="181"/>
     </row>
-    <row r="43" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="200"/>
-      <c r="B43" s="201"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="201"/>
-      <c r="E43" s="201"/>
-      <c r="F43" s="202"/>
+    <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A43" s="189"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="191"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32171,124 +32195,124 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="259"/>
-      <c r="O43" s="260"/>
-      <c r="P43" s="261"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="184"/>
     </row>
-    <row r="44" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="L44" s="181" t="s">
+    <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="L44" s="154" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="191" t="s">
+      <c r="A45" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="193"/>
-      <c r="L45" s="206"/>
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="217"/>
+      <c r="L45" s="155"/>
     </row>
-    <row r="46" spans="1:16" ht="14" customHeight="1">
-      <c r="A46" s="194" t="s">
+    <row r="46" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A46" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="196"/>
-      <c r="H46" s="231" t="s">
+      <c r="B46" s="193"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="194"/>
+      <c r="H46" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="232"/>
-      <c r="J46" s="233"/>
-      <c r="K46" s="216">
+      <c r="I46" s="144"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="207">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="217"/>
-      <c r="N46" s="246" t="s">
+      <c r="L46" s="208"/>
+      <c r="N46" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="247"/>
-      <c r="P46" s="248"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="171"/>
     </row>
-    <row r="47" spans="1:16" ht="14" customHeight="1">
-      <c r="A47" s="203"/>
-      <c r="B47" s="204"/>
-      <c r="C47" s="204"/>
-      <c r="D47" s="204"/>
-      <c r="E47" s="204"/>
-      <c r="F47" s="205"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="218"/>
-      <c r="L47" s="219"/>
-      <c r="N47" s="249"/>
-      <c r="O47" s="250"/>
-      <c r="P47" s="251"/>
+    <row r="47" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A47" s="195"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="197"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="210"/>
+      <c r="N47" s="172"/>
+      <c r="O47" s="173"/>
+      <c r="P47" s="174"/>
     </row>
-    <row r="48" spans="1:16" ht="14" customHeight="1" thickBot="1">
-      <c r="A48" s="194" t="s">
+    <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A48" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="195"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="196"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="220"/>
-      <c r="L48" s="221"/>
-      <c r="N48" s="252"/>
-      <c r="O48" s="253"/>
-      <c r="P48" s="254"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="194"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="212"/>
+      <c r="N48" s="175"/>
+      <c r="O48" s="176"/>
+      <c r="P48" s="177"/>
     </row>
-    <row r="49" spans="1:12" ht="14" customHeight="1">
-      <c r="A49" s="194" t="s">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1">
+      <c r="A49" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="195"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="196"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="194"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
       <c r="K49" s="122"/>
       <c r="L49" s="122"/>
     </row>
-    <row r="50" spans="1:12" ht="14" customHeight="1">
-      <c r="A50" s="194" t="s">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1">
+      <c r="A50" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="195"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="196"/>
+      <c r="B50" s="193"/>
+      <c r="C50" s="193"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="194"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
       <c r="K50" s="62"/>
       <c r="L50" s="63"/>
     </row>
-    <row r="51" spans="1:12" ht="14" customHeight="1" thickBot="1">
-      <c r="A51" s="197" t="s">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A51" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="198"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="199"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="220"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32296,34 +32320,34 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="189" t="s">
+      <c r="A52" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="189"/>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
+      <c r="B52" s="213"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="213"/>
+      <c r="E52" s="213"/>
+      <c r="F52" s="213"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
       <c r="K52" s="62"/>
       <c r="L52" s="63"/>
     </row>
-    <row r="53" spans="1:12" ht="14" customHeight="1">
-      <c r="A53" s="190"/>
-      <c r="B53" s="190"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="190"/>
-      <c r="F53" s="190"/>
+    <row r="53" spans="1:12" ht="14.1" customHeight="1">
+      <c r="A53" s="214"/>
+      <c r="B53" s="214"/>
+      <c r="C53" s="214"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="214"/>
+      <c r="F53" s="214"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
       <c r="K53" s="64"/>
       <c r="L53" s="63"/>
     </row>
-    <row r="54" spans="1:12" ht="14" customHeight="1">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1">
       <c r="H54" s="65"/>
       <c r="I54" s="65"/>
       <c r="J54" s="65"/>
@@ -32335,37 +32359,6 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32382,6 +32375,37 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32420,23 +32444,23 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="7" max="7" width="27.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32452,12 +32476,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="275" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32466,14 +32490,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32482,12 +32506,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32496,12 +32520,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="273"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="278"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32510,12 +32534,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="271"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="273"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="278"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="280"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32524,20 +32548,20 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="275"/>
-      <c r="B7" s="276"/>
-      <c r="C7" s="277"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="267"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="274"/>
     </row>
-    <row r="8" spans="1:7" ht="8" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
@@ -32546,11 +32570,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="285" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="270" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="286"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32565,30 +32589,30 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1"/>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="71" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32598,14 +32622,14 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="13" spans="1:7" ht="71" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32615,14 +32639,14 @@
       </c>
       <c r="G13" s="127"/>
     </row>
-    <row r="14" spans="1:7" ht="71" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32632,29 +32656,29 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="278" t="s">
+      <c r="E16" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="279"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="73.05" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="73.150000000000006" customHeight="1" thickBot="1">
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32668,10 +32692,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="266"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32681,14 +32705,14 @@
       </c>
       <c r="G18" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="74" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="74.099999999999994" customHeight="1" thickBot="1">
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32698,17 +32722,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="278" t="s">
+      <c r="E21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="279"/>
+      <c r="F21" s="264"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32717,10 +32741,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="265" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="264"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32734,10 +32758,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="264"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32751,10 +32775,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32764,29 +32788,29 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="19.5" thickBot="1">
       <c r="A26" s="108" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="278" t="s">
+      <c r="E26" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="279"/>
+      <c r="F26" s="264"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32" customHeight="1" thickBot="1">
+    <row r="27" spans="1:7" ht="32.1" customHeight="1" thickBot="1">
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="265" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="264"/>
+      <c r="C27" s="266"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32800,10 +32824,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32817,10 +32841,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="266"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32830,17 +32854,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="279"/>
+      <c r="F31" s="264"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32849,10 +32873,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32866,10 +32890,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="265" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="264"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32879,14 +32903,14 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="71" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="263" t="s">
+      <c r="B34" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="264"/>
+      <c r="C34" s="266"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32896,14 +32920,14 @@
       </c>
       <c r="G34" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="71" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32913,17 +32937,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="278" t="s">
+      <c r="E37" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="279"/>
+      <c r="F37" s="264"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32932,10 +32956,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="265" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="264"/>
+      <c r="C38" s="266"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32949,10 +32973,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="263" t="s">
+      <c r="B39" s="265" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="264"/>
+      <c r="C39" s="266"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -32962,17 +32986,17 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="41" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="41" spans="1:7" ht="19.5" thickBot="1">
       <c r="A41" s="108" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="278" t="s">
+      <c r="E41" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="279"/>
+      <c r="F41" s="264"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -32981,10 +33005,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="263" t="s">
+      <c r="B42" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="264"/>
+      <c r="C42" s="266"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -32994,14 +33018,14 @@
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="1:7" ht="73.05" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="73.150000000000006" customHeight="1" thickBot="1">
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="263" t="s">
+      <c r="B43" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="264"/>
+      <c r="C43" s="266"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33011,14 +33035,14 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="59" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="263" t="s">
+      <c r="B44" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="264"/>
+      <c r="C44" s="266"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33028,14 +33052,14 @@
       </c>
       <c r="G44" s="70"/>
     </row>
-    <row r="45" spans="1:7" ht="46.05" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="46.15" customHeight="1" thickBot="1">
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="265" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="264"/>
+      <c r="C45" s="266"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33047,21 +33071,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33073,14 +33090,21 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34931,23 +34955,23 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.3125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -34963,12 +34987,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="275" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -34977,14 +35001,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -34993,12 +35017,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="272"/>
-      <c r="C4" s="273"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="278"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35007,12 +35031,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="272"/>
-      <c r="C5" s="273"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="278"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35021,12 +35045,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="271"/>
-      <c r="B6" s="272"/>
-      <c r="C6" s="273"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="278"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="280"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35035,20 +35059,20 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="273"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="289"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="291"/>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="292"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="292"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="294"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="289"/>
     </row>
-    <row r="8" spans="1:7" ht="8" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
@@ -35057,12 +35081,12 @@
       <c r="F8" s="118"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="285" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="270" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="286"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="271"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35076,29 +35100,29 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="59" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35108,17 +35132,17 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1">
       <c r="A14" s="108" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="278" t="s">
+      <c r="E14" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="279"/>
+      <c r="F14" s="264"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35127,10 +35151,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="264"/>
+      <c r="C15" s="266"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35140,14 +35164,14 @@
       </c>
       <c r="G15" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="112.05" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="112.15" customHeight="1" thickBot="1">
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="287" t="s">
+      <c r="B16" s="290" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="264"/>
+      <c r="C16" s="266"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35157,14 +35181,14 @@
       </c>
       <c r="G16" s="70"/>
     </row>
-    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="40.15" customHeight="1" thickBot="1">
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="287" t="s">
+      <c r="B17" s="290" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35174,29 +35198,29 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1">
       <c r="A19" s="108" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="278" t="s">
+      <c r="E19" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="279"/>
+      <c r="F19" s="264"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="107" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="107.1" customHeight="1" thickBot="1">
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="287" t="s">
+      <c r="B20" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="264"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35206,14 +35230,14 @@
       </c>
       <c r="G20" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="119" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="119.1" customHeight="1" thickBot="1">
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="287" t="s">
+      <c r="B21" s="290" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="264"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35223,29 +35247,29 @@
       </c>
       <c r="G21" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="19.5" thickBot="1">
       <c r="A23" s="108" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="278" t="s">
+      <c r="E23" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="279"/>
+      <c r="F23" s="264"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="128" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="128.1" customHeight="1" thickBot="1">
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="287" t="s">
+      <c r="B24" s="290" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35259,10 +35283,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="287" t="s">
+      <c r="B25" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="264"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35272,29 +35296,29 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="278" t="s">
+      <c r="E27" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="279"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="98" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="98.1" customHeight="1" thickBot="1">
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="287" t="s">
+      <c r="B28" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35304,14 +35328,14 @@
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="29" spans="1:7" ht="104" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="104.1" customHeight="1" thickBot="1">
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="266"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35321,29 +35345,29 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="279"/>
+      <c r="F31" s="264"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="97.05" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="97.15" customHeight="1" thickBot="1">
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35353,29 +35377,29 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="278" t="s">
+      <c r="E34" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="279"/>
+      <c r="F34" s="264"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="67.05" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="67.150000000000006" customHeight="1" thickBot="1">
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35385,17 +35409,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="278" t="s">
+      <c r="E37" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="279"/>
+      <c r="F37" s="264"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35404,10 +35428,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="265" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="264"/>
+      <c r="C38" s="266"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35417,9 +35441,9 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="45" spans="1:7" ht="17" customHeight="1"/>
-    <row r="62" ht="17" customHeight="1"/>
-    <row r="71" ht="17" customHeight="1"/>
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="62" ht="17.100000000000001" customHeight="1"/>
+    <row r="71" ht="17.100000000000001" customHeight="1"/>
     <row r="86" spans="1:8" s="81" customFormat="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
@@ -35690,6 +35714,22 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E7:F7"/>
@@ -35700,22 +35740,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37117,23 +37141,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37149,12 +37173,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="275" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37163,14 +37187,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="273"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="278"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37179,12 +37203,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37193,12 +37217,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="273"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="278"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37207,12 +37231,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="271"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="273"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="278"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="280"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37221,20 +37245,20 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="273"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="275"/>
-      <c r="B7" s="276"/>
-      <c r="C7" s="277"/>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="282"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="267"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="274"/>
     </row>
-    <row r="8" spans="1:7" ht="8" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
@@ -37243,12 +37267,12 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A9" s="285" t="s">
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A9" s="270" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="286"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="271"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37262,18 +37286,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1"/>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37282,10 +37306,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37299,10 +37323,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37312,14 +37336,14 @@
       </c>
       <c r="G13" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="58.05" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="58.15" customHeight="1" thickBot="1">
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37329,30 +37353,30 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1"/>
-    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="278" t="s">
+      <c r="E16" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="279"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="115.05" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="115.15" customHeight="1" thickBot="1">
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37362,14 +37386,14 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="18" spans="1:7" ht="46.05" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="46.15" customHeight="1" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="266"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37379,14 +37403,14 @@
       </c>
       <c r="G18" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="31.05" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1">
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37396,30 +37420,30 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1"/>
-    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="278" t="s">
+      <c r="E21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="279"/>
+      <c r="F21" s="264"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="53" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="53.1" customHeight="1" thickBot="1">
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="264"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37429,14 +37453,14 @@
       </c>
       <c r="G22" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="52.05" customHeight="1" thickBot="1">
+    <row r="23" spans="1:7" ht="52.15" customHeight="1" thickBot="1">
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="265" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="264"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37446,14 +37470,14 @@
       </c>
       <c r="G23" s="70"/>
     </row>
-    <row r="24" spans="1:7" ht="47" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="47.1" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37463,14 +37487,14 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="25" spans="1:7" ht="170" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="170.1" customHeight="1" thickBot="1">
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="265" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="264"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37480,30 +37504,30 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="17" customHeight="1"/>
-    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="278" t="s">
+      <c r="E27" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="279"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="74" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="74.099999999999994" customHeight="1" thickBot="1">
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37513,18 +37537,18 @@
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="29" spans="1:7" ht="17" customHeight="1"/>
-    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="278" t="s">
+      <c r="E30" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="279"/>
+      <c r="F30" s="264"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37533,10 +37557,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="265" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="264"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37550,10 +37574,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37563,30 +37587,30 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="33" spans="1:7" ht="17" customHeight="1"/>
-    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>215</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="278" t="s">
+      <c r="E34" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="279"/>
+      <c r="F34" s="264"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="59" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37615,22 +37639,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37641,6 +37649,22 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38576,33 +38600,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="76" t="str">
         <f>""&amp;COUNTIF(E$9:E$122,"Untested")&amp;" Untested"</f>
-        <v>23 Untested</v>
+        <v>16 Untested</v>
       </c>
       <c r="F1" s="76" t="str">
         <f>""&amp;COUNTIF(F$9:F$122,"Untested")&amp;" Untested"</f>
@@ -38612,12 +38636,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="301" t="s">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="297" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="302"/>
-      <c r="C2" s="303"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="299"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38626,14 +38650,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="304"/>
-      <c r="B3" s="305"/>
-      <c r="C3" s="306"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="300"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="302"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38642,12 +38666,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="304"/>
-      <c r="B4" s="305"/>
-      <c r="C4" s="306"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="300"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="302"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38656,12 +38680,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="304"/>
-      <c r="B5" s="305"/>
-      <c r="C5" s="306"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="300"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="302"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38670,12 +38694,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="307"/>
-      <c r="B6" s="308"/>
-      <c r="C6" s="309"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="303"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="305"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38684,17 +38708,17 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="129"/>
       <c r="B7" s="129"/>
       <c r="C7" s="129"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38706,11 +38730,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="285" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="270" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="286"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38725,29 +38749,29 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="181.05" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="181.15" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>453</v>
@@ -38759,14 +38783,14 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="104" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="104.1" customHeight="1" thickBot="1">
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>453</v>
@@ -38782,10 +38806,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>453</v>
@@ -38801,10 +38825,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="265" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="264"/>
+      <c r="C15" s="266"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38818,10 +38842,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="263" t="s">
+      <c r="B16" s="265" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="264"/>
+      <c r="C16" s="266"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38831,14 +38855,14 @@
       </c>
       <c r="G16" s="70"/>
     </row>
-    <row r="17" spans="1:7" ht="71" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -38848,14 +38872,14 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="18" spans="1:7" ht="88.05" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="88.15" customHeight="1" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="266"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -38869,10 +38893,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38882,14 +38906,14 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="20" spans="1:7" ht="38" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="38.1" customHeight="1" thickBot="1">
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="265" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="264"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38899,14 +38923,14 @@
       </c>
       <c r="G20" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="85.05" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="85.15" customHeight="1" thickBot="1">
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="299" t="s">
+      <c r="B21" s="308" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="300"/>
+      <c r="C21" s="309"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -38922,10 +38946,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="265" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="264"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38935,14 +38959,14 @@
       </c>
       <c r="G22" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="61.05" customHeight="1" thickBot="1">
+    <row r="23" spans="1:7" ht="61.15" customHeight="1" thickBot="1">
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="265" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="264"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -38956,10 +38980,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -38973,10 +38997,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="265" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="264"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -38990,10 +39014,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="263" t="s">
+      <c r="B26" s="265" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="264"/>
+      <c r="C26" s="266"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39007,10 +39031,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="265" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="264"/>
+      <c r="C27" s="266"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39024,10 +39048,10 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="265" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -39037,17 +39061,17 @@
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>397</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="278" t="s">
+      <c r="E30" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="279"/>
+      <c r="F30" s="264"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39056,30 +39080,34 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="297" t="s">
+      <c r="B31" s="306" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="298"/>
-      <c r="D31" s="70"/>
+      <c r="C31" s="307"/>
+      <c r="D31" s="70" t="s">
+        <v>488</v>
+      </c>
       <c r="E31" s="68" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="70"/>
     </row>
-    <row r="32" spans="1:7" ht="91.05" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="91.15" customHeight="1" thickBot="1">
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="264"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="70" t="s">
+        <v>485</v>
+      </c>
       <c r="E32" s="68" t="s">
-        <v>100</v>
+        <v>451</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>100</v>
@@ -39090,64 +39118,72 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="265" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="264"/>
-      <c r="D33" s="70"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="70" t="s">
+        <v>481</v>
+      </c>
       <c r="E33" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F33" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="47" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="47.1" customHeight="1" thickBot="1">
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="263" t="s">
+      <c r="B34" s="265" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="264"/>
-      <c r="D34" s="70"/>
+      <c r="C34" s="266"/>
+      <c r="D34" s="70" t="s">
+        <v>482</v>
+      </c>
       <c r="E34" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F34" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G34" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="79.05" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="79.150000000000006" customHeight="1" thickBot="1">
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="264"/>
-      <c r="D35" s="70"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="70" t="s">
+        <v>487</v>
+      </c>
       <c r="E35" s="68" t="s">
-        <v>100</v>
+        <v>453</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="36" spans="1:7" ht="59" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="263" t="s">
+      <c r="B36" s="265" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="264"/>
-      <c r="D36" s="70"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="70" t="s">
+        <v>483</v>
+      </c>
       <c r="E36" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>100</v>
@@ -39158,59 +39194,63 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="265" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="70"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="70" t="s">
+        <v>484</v>
+      </c>
       <c r="E37" s="68" t="s">
-        <v>100</v>
+        <v>453</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G37" s="70"/>
     </row>
-    <row r="38" spans="1:7" ht="59" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="265" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="264"/>
-      <c r="D38" s="70"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="70" t="s">
+        <v>486</v>
+      </c>
       <c r="E38" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="40" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="19.5" thickBot="1">
       <c r="A40" s="108" t="s">
         <v>445</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="278" t="s">
+      <c r="E40" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="279"/>
+      <c r="F40" s="264"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="297" t="s">
+      <c r="B41" s="306" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="298"/>
+      <c r="C41" s="307"/>
       <c r="D41" s="70"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -39220,14 +39260,14 @@
       </c>
       <c r="G41" s="70"/>
     </row>
-    <row r="42" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="297" t="s">
+      <c r="B42" s="306" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="298"/>
+      <c r="C42" s="307"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -39237,14 +39277,14 @@
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="297" t="s">
+      <c r="B43" s="306" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="298"/>
+      <c r="C43" s="307"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -39254,14 +39294,14 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="297" t="s">
+      <c r="B44" s="306" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="298"/>
+      <c r="C44" s="307"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -39271,29 +39311,29 @@
       </c>
       <c r="G44" s="70"/>
     </row>
-    <row r="46" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="19.5" thickBot="1">
       <c r="A46" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="278" t="s">
+      <c r="E46" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="279"/>
+      <c r="F46" s="264"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="47" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="263" t="s">
+      <c r="B47" s="265" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="264"/>
+      <c r="C47" s="266"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39303,14 +39343,14 @@
       </c>
       <c r="G47" s="70"/>
     </row>
-    <row r="48" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="48" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="263" t="s">
+      <c r="B48" s="265" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="264"/>
+      <c r="C48" s="266"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39320,14 +39360,14 @@
       </c>
       <c r="G48" s="70"/>
     </row>
-    <row r="49" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="49" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="263" t="s">
+      <c r="B49" s="265" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="264"/>
+      <c r="C49" s="266"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39337,14 +39377,14 @@
       </c>
       <c r="G49" s="70"/>
     </row>
-    <row r="50" spans="1:7" ht="62" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="62.1" customHeight="1" thickBot="1">
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="263" t="s">
+      <c r="B50" s="265" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="264"/>
+      <c r="C50" s="266"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39354,14 +39394,14 @@
       </c>
       <c r="G50" s="70"/>
     </row>
-    <row r="51" spans="1:7" ht="62" customHeight="1" thickBot="1">
+    <row r="51" spans="1:7" ht="62.1" customHeight="1" thickBot="1">
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="263" t="s">
+      <c r="B51" s="265" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="264"/>
+      <c r="C51" s="266"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39371,17 +39411,17 @@
       </c>
       <c r="G51" s="70"/>
     </row>
-    <row r="53" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="53" spans="1:7" ht="19.5" thickBot="1">
       <c r="A53" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="278" t="s">
+      <c r="E53" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="279"/>
+      <c r="F53" s="264"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39390,10 +39430,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="263" t="s">
+      <c r="B54" s="265" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="264"/>
+      <c r="C54" s="266"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39406,6 +39446,35 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:C1"/>
@@ -39422,35 +39491,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40440,23 +40480,23 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40472,12 +40512,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="275" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40486,14 +40526,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="273"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="278"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40502,12 +40542,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40516,12 +40556,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="273"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="278"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40530,12 +40570,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="275"/>
-      <c r="B6" s="276"/>
-      <c r="C6" s="277"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="282"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="284"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40544,17 +40584,17 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40567,10 +40607,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="270" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="286"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40585,29 +40625,29 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="70.05" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="70.150000000000006" customHeight="1" thickBot="1">
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40621,10 +40661,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40634,14 +40674,14 @@
       </c>
       <c r="G13" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="71" customHeight="1">
+    <row r="14" spans="1:7" ht="71.099999999999994" customHeight="1">
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40651,29 +40691,29 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16" s="108" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="278" t="s">
+      <c r="E16" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="279"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="59" customHeight="1">
+    <row r="17" spans="1:7" ht="59.1" customHeight="1">
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40683,14 +40723,14 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="18" spans="1:7" ht="59" customHeight="1">
+    <row r="18" spans="1:7" ht="59.1" customHeight="1">
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="297" t="s">
+      <c r="B18" s="306" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="298"/>
+      <c r="C18" s="307"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40700,14 +40740,14 @@
       </c>
       <c r="G18" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="59" customHeight="1">
+    <row r="19" spans="1:7" ht="59.1" customHeight="1">
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40717,29 +40757,29 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:7" ht="18.75">
       <c r="A21" s="108" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="278" t="s">
+      <c r="E21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="279"/>
+      <c r="F21" s="264"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43.05" customHeight="1">
+    <row r="22" spans="1:7" ht="43.15" customHeight="1">
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="297" t="s">
+      <c r="B22" s="306" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="298"/>
+      <c r="C22" s="307"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40749,14 +40789,14 @@
       </c>
       <c r="G22" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="23" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="297" t="s">
+      <c r="B23" s="306" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="298"/>
+      <c r="C23" s="307"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40766,14 +40806,14 @@
       </c>
       <c r="G23" s="70"/>
     </row>
-    <row r="24" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="297" t="s">
+      <c r="B24" s="306" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="298"/>
+      <c r="C24" s="307"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40783,14 +40823,14 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="25" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="297" t="s">
+      <c r="B25" s="306" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="298"/>
+      <c r="C25" s="307"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40800,14 +40840,14 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="43.05" customHeight="1">
+    <row r="26" spans="1:7" ht="43.15" customHeight="1">
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="306" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="298"/>
+      <c r="C26" s="307"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40817,29 +40857,29 @@
       </c>
       <c r="G26" s="70"/>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row r="28" spans="1:7" ht="18.75">
       <c r="A28" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="278" t="s">
+      <c r="E28" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="279"/>
+      <c r="F28" s="264"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="265" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="266"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40849,14 +40889,14 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="30" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="265" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="264"/>
+      <c r="C30" s="266"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40866,14 +40906,14 @@
       </c>
       <c r="G30" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="31" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="265" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="264"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40883,14 +40923,14 @@
       </c>
       <c r="G31" s="70"/>
     </row>
-    <row r="32" spans="1:7" ht="56" customHeight="1">
+    <row r="32" spans="1:7" ht="56.1" customHeight="1">
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40900,14 +40940,14 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="33" spans="1:7" ht="56" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="56.1" customHeight="1" thickBot="1">
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="265" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="264"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40917,17 +40957,17 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="278" t="s">
+      <c r="E35" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="279"/>
+      <c r="F35" s="264"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -40936,10 +40976,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="263" t="s">
+      <c r="B36" s="265" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="264"/>
+      <c r="C36" s="266"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -40952,20 +40992,6 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -40979,6 +41005,20 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41628,23 +41668,23 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.6875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41661,11 +41701,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41677,14 +41717,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="276"/>
-      <c r="C3" s="277"/>
+      <c r="A3" s="282"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="284"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41696,7 +41736,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41707,7 +41747,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="A5" s="124" t="s">
         <v>264</v>
       </c>
@@ -41726,10 +41766,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="263"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="266"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41739,10 +41779,10 @@
       </c>
       <c r="G6" s="70"/>
     </row>
-    <row r="7" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="264"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="266"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41752,10 +41792,10 @@
       </c>
       <c r="G7" s="70"/>
     </row>
-    <row r="8" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41765,10 +41805,10 @@
       </c>
       <c r="G8" s="70"/>
     </row>
-    <row r="9" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="264"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="266"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41778,10 +41818,10 @@
       </c>
       <c r="G9" s="70"/>
     </row>
-    <row r="10" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="264"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="266"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41791,10 +41831,10 @@
       </c>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="263"/>
-      <c r="C11" s="264"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="266"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42143,23 +42183,23 @@
       <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.6875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42175,12 +42215,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="275" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42192,14 +42232,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="273"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="278"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42211,12 +42251,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42228,12 +42268,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="275"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="277"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="282"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="284"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42245,9 +42285,9 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="8" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
@@ -42256,11 +42296,11 @@
       <c r="F6" s="73"/>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="285" t="s">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="270" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="286"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42275,14 +42315,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="65" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="65.099999999999994" customHeight="1" thickBot="1">
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="265" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="264"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42309,7 +42349,7 @@
       </c>
       <c r="G9" s="70"/>
     </row>
-    <row r="10" spans="1:7" ht="8" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -42318,7 +42358,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="100" t="s">
         <v>276</v>
       </c>
@@ -42337,14 +42377,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="62" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="62.1" customHeight="1" thickBot="1">
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42354,14 +42394,14 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="13" spans="1:7" ht="62" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="62.1" customHeight="1" thickBot="1">
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42371,14 +42411,14 @@
       </c>
       <c r="G13" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="31.05" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="31.15" customHeight="1" thickBot="1">
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42388,14 +42428,14 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="15" spans="1:7" ht="244.05" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="244.15" customHeight="1" thickBot="1">
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="313" t="s">
+      <c r="B15" s="315" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="314"/>
+      <c r="C15" s="316"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42405,14 +42445,14 @@
       </c>
       <c r="G15" s="126"/>
     </row>
-    <row r="16" spans="1:7" ht="82.05" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="82.15" customHeight="1" thickBot="1">
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="314" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="315"/>
+      <c r="C16" s="314"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42426,10 +42466,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="314" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="315"/>
+      <c r="C17" s="314"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42439,7 +42479,7 @@
       </c>
       <c r="G17" s="86"/>
     </row>
-    <row r="18" spans="1:7" ht="8" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A18" s="71"/>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -42448,11 +42488,11 @@
       <c r="F18" s="73"/>
       <c r="G18" s="71"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A19" s="285" t="s">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A19" s="270" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="286"/>
+      <c r="B19" s="271"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42467,14 +42507,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="100.05" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="100.15" customHeight="1" thickBot="1">
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="264"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42484,14 +42524,14 @@
       </c>
       <c r="G20" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="182" customHeight="1" thickBot="1">
+    <row r="21" spans="1:7" ht="182.1" customHeight="1" thickBot="1">
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="263" t="s">
+      <c r="B21" s="265" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="264"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42505,10 +42545,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="314" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="315"/>
+      <c r="C22" s="314"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42518,14 +42558,14 @@
       </c>
       <c r="G22" s="86"/>
     </row>
-    <row r="23" spans="1:7" ht="281" customHeight="1" thickBot="1">
+    <row r="23" spans="1:7" ht="281.10000000000002" customHeight="1" thickBot="1">
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="314" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="315"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42539,10 +42579,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="314" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="315"/>
+      <c r="C24" s="314"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42552,14 +42592,14 @@
       </c>
       <c r="G24" s="86"/>
     </row>
-    <row r="25" spans="1:7" ht="29" customHeight="1" thickBot="1">
+    <row r="25" spans="1:7" ht="29.1" customHeight="1" thickBot="1">
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="314" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="315"/>
+      <c r="C25" s="314"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42569,14 +42609,14 @@
       </c>
       <c r="G25" s="86"/>
     </row>
-    <row r="26" spans="1:7" ht="39.75" thickBot="1">
+    <row r="26" spans="1:7" ht="39" thickBot="1">
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="315" t="s">
+      <c r="B26" s="314" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="315"/>
+      <c r="C26" s="314"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42586,14 +42626,14 @@
       </c>
       <c r="G26" s="86"/>
     </row>
-    <row r="27" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="27" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="314" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="315"/>
+      <c r="C27" s="314"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42603,14 +42643,14 @@
       </c>
       <c r="G27" s="86"/>
     </row>
-    <row r="28" spans="1:7" ht="29" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="29.1" customHeight="1" thickBot="1">
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="314" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="315"/>
+      <c r="C28" s="314"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42620,14 +42660,14 @@
       </c>
       <c r="G28" s="86"/>
     </row>
-    <row r="29" spans="1:7" ht="39.75" thickBot="1">
+    <row r="29" spans="1:7" ht="39" thickBot="1">
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="314" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="315"/>
+      <c r="C29" s="314"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42637,14 +42677,14 @@
       </c>
       <c r="G29" s="86"/>
     </row>
-    <row r="30" spans="1:7" ht="44" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="44.1" customHeight="1" thickBot="1">
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="315" t="s">
+      <c r="B30" s="314" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="315"/>
+      <c r="C30" s="314"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42657,11 +42697,11 @@
     <row r="31" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A31" s="89"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A32" s="285" t="s">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A32" s="270" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="286"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42680,10 +42720,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="310" t="s">
+      <c r="B33" s="312" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="310"/>
+      <c r="C33" s="312"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42697,10 +42737,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="316" t="s">
+      <c r="B34" s="313" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="316"/>
+      <c r="C34" s="313"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42710,14 +42750,14 @@
       </c>
       <c r="G34" s="90"/>
     </row>
-    <row r="35" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="312" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="310"/>
+      <c r="C35" s="312"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42727,14 +42767,14 @@
       </c>
       <c r="G35" s="90"/>
     </row>
-    <row r="36" spans="1:7" ht="29" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="29.1" customHeight="1" thickBot="1">
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="312" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="310"/>
+      <c r="C36" s="312"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42744,14 +42784,14 @@
       </c>
       <c r="G36" s="90"/>
     </row>
-    <row r="37" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="310" t="s">
+      <c r="B37" s="312" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="310"/>
+      <c r="C37" s="312"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42761,14 +42801,14 @@
       </c>
       <c r="G37" s="90"/>
     </row>
-    <row r="38" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="311" t="s">
+      <c r="B38" s="310" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="312"/>
+      <c r="C38" s="311"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42778,14 +42818,14 @@
       </c>
       <c r="G38" s="90"/>
     </row>
-    <row r="39" spans="1:7" ht="16.05" customHeight="1" thickBot="1">
+    <row r="39" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="310" t="s">
+      <c r="B39" s="312" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="310"/>
+      <c r="C39" s="312"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42795,14 +42835,14 @@
       </c>
       <c r="G39" s="90"/>
     </row>
-    <row r="40" spans="1:7" ht="46.05" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="46.15" customHeight="1" thickBot="1">
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="311" t="s">
+      <c r="B40" s="310" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="312"/>
+      <c r="C40" s="311"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42812,14 +42852,14 @@
       </c>
       <c r="G40" s="90"/>
     </row>
-    <row r="41" spans="1:7" ht="17" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="310" t="s">
+      <c r="B41" s="312" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="310"/>
+      <c r="C41" s="312"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42829,14 +42869,14 @@
       </c>
       <c r="G41" s="90"/>
     </row>
-    <row r="42" spans="1:7" ht="29" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="29.1" customHeight="1" thickBot="1">
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="310" t="s">
+      <c r="B42" s="312" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="310"/>
+      <c r="C42" s="312"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42850,10 +42890,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="310" t="s">
+      <c r="B43" s="312" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="310"/>
+      <c r="C43" s="312"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42867,10 +42907,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="310" t="s">
+      <c r="B44" s="312" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="310"/>
+      <c r="C44" s="312"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42884,10 +42924,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="310" t="s">
+      <c r="B45" s="312" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="310"/>
+      <c r="C45" s="312"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42901,10 +42941,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="311" t="s">
+      <c r="B46" s="310" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="312"/>
+      <c r="C46" s="311"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42917,11 +42957,11 @@
     <row r="47" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A47" s="89"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A48" s="285" t="s">
+    <row r="48" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A48" s="270" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="286"/>
+      <c r="B48" s="271"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -42940,10 +42980,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="310" t="s">
+      <c r="B49" s="312" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="310"/>
+      <c r="C49" s="312"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -42953,14 +42993,14 @@
       </c>
       <c r="G49" s="90"/>
     </row>
-    <row r="50" spans="1:7" ht="43.05" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="310" t="s">
+      <c r="B50" s="312" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="310"/>
+      <c r="C50" s="312"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -42974,10 +43014,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="312" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="310"/>
+      <c r="C51" s="312"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -42991,10 +43031,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="310" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="312"/>
+      <c r="C52" s="311"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43004,14 +43044,14 @@
       </c>
       <c r="G52" s="90"/>
     </row>
-    <row r="53" spans="1:7" ht="101" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="101.1" customHeight="1" thickBot="1">
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="311" t="s">
+      <c r="B53" s="310" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="312"/>
+      <c r="C53" s="311"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43025,10 +43065,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="310" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="312"/>
+      <c r="C54" s="311"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43038,14 +43078,14 @@
       </c>
       <c r="G54" s="90"/>
     </row>
-    <row r="55" spans="1:7" ht="44" customHeight="1" thickBot="1">
+    <row r="55" spans="1:7" ht="44.1" customHeight="1" thickBot="1">
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="310" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="312"/>
+      <c r="C55" s="311"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43055,14 +43095,14 @@
       </c>
       <c r="G55" s="90"/>
     </row>
-    <row r="56" spans="1:7" ht="58.05" customHeight="1" thickBot="1">
+    <row r="56" spans="1:7" ht="58.15" customHeight="1" thickBot="1">
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="310" t="s">
+      <c r="B56" s="312" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="310"/>
+      <c r="C56" s="312"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43072,14 +43112,14 @@
       </c>
       <c r="G56" s="90"/>
     </row>
-    <row r="57" spans="1:7" ht="29" customHeight="1" thickBot="1">
+    <row r="57" spans="1:7" ht="29.1" customHeight="1" thickBot="1">
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="312" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="310"/>
+      <c r="C57" s="312"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43093,10 +43133,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="310" t="s">
+      <c r="B58" s="312" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="310"/>
+      <c r="C58" s="312"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43106,14 +43146,14 @@
       </c>
       <c r="G58" s="90"/>
     </row>
-    <row r="59" spans="1:7" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" ht="26.25" thickBot="1">
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="310" t="s">
+      <c r="B59" s="312" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="310"/>
+      <c r="C59" s="312"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43127,10 +43167,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="310" t="s">
+      <c r="B60" s="312" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="310"/>
+      <c r="C60" s="312"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43140,14 +43180,14 @@
       </c>
       <c r="G60" s="90"/>
     </row>
-    <row r="61" spans="1:7" ht="29" customHeight="1" thickBot="1">
+    <row r="61" spans="1:7" ht="29.1" customHeight="1" thickBot="1">
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="310" t="s">
+      <c r="B61" s="312" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="310"/>
+      <c r="C61" s="312"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43160,11 +43200,11 @@
     <row r="62" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A62" s="89"/>
     </row>
-    <row r="63" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A63" s="285" t="s">
+    <row r="63" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A63" s="270" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="286"/>
+      <c r="B63" s="271"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43179,14 +43219,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="58.05" customHeight="1" thickBot="1">
+    <row r="64" spans="1:7" ht="58.15" customHeight="1" thickBot="1">
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="310" t="s">
+      <c r="B64" s="312" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="310"/>
+      <c r="C64" s="312"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43200,10 +43240,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="310" t="s">
+      <c r="B65" s="312" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="310"/>
+      <c r="C65" s="312"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43216,11 +43256,11 @@
     <row r="66" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A66" s="89"/>
     </row>
-    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A67" s="285" t="s">
+    <row r="67" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A67" s="270" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="286"/>
+      <c r="B67" s="271"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43239,10 +43279,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="310" t="s">
+      <c r="B68" s="312" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="310"/>
+      <c r="C68" s="312"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43254,6 +43294,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="A63:B63"/>
@@ -43270,48 +43352,6 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44077,12 +44117,12 @@
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="7.3125" customWidth="1"/>
-    <col min="4" max="4" width="37.6875" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.4">
+    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.75">
       <c r="A1" s="133" t="s">
         <v>427</v>
       </c>
@@ -44255,12 +44295,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44481,15 +44518,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44514,10 +44555,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aleksey\DigiPen\year5\Fall\Gam550\repo\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B61BDA-07B0-4BB3-9970-AC5033128AC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CE173F-6814-4B1B-A34D-67AC1B871DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="493">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -2584,6 +2584,18 @@
   </si>
   <si>
     <t>So far it renders any 3D models perfectly fine. Regarding the procedular 3D models, it only drwas box &amp; sphere for now, will add more.</t>
+  </si>
+  <si>
+    <t>We are using Semi Implicit Euler method for calculating velocity and position each frame, and Gaus Seidel method when solving for constraints. We are also have Rigid  bodies.</t>
+  </si>
+  <si>
+    <t>we have torque computation</t>
+  </si>
+  <si>
+    <t>We do have gravity, and mass based collision responses. We also have friction.</t>
+  </si>
+  <si>
+    <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other. We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
   </si>
 </sst>
 </file>
@@ -4737,161 +4749,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4901,113 +4766,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5118,11 +4876,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5145,39 +4933,235 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5233,19 +5217,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5269,11 +5271,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5313,19 +5341,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5337,24 +5353,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31066,38 +31078,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="229"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="227" t="s">
+      <c r="E1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="229"/>
+      <c r="F1" s="145"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="224" t="s">
+      <c r="H1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="226"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="142"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="221" t="s">
+      <c r="N1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="223"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="136"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="237"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31108,21 +31120,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="233"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="252" t="s">
+      <c r="J3" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="253"/>
+      <c r="K3" s="169"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31140,43 +31152,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="246"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="248"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="164"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="156" t="s">
+      <c r="N4" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="245"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="240"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="158"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="161"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="175"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31201,16 +31213,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="175"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31223,9 +31235,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31234,9 +31246,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="161"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="175"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31249,17 +31261,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="154" t="s">
+      <c r="L8" s="181" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="164"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31275,7 +31287,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="256"/>
+      <c r="L9" s="182"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31337,11 +31349,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="134" t="s">
+      <c r="N11" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="224"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31369,9 +31381,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="N12" s="225"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="227"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31399,9 +31411,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="139"/>
+      <c r="N13" s="225"/>
+      <c r="O13" s="226"/>
+      <c r="P13" s="227"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31429,9 +31441,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="226"/>
+      <c r="P14" s="227"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31459,9 +31471,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="227"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31489,9 +31501,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="139"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="227"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31519,9 +31531,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="227"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31549,9 +31561,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="227"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31579,9 +31591,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="227"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31609,9 +31621,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="139"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="227"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31637,9 +31649,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
+      <c r="N21" s="228"/>
+      <c r="O21" s="229"/>
+      <c r="P21" s="230"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31652,11 +31664,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="198" t="s">
+      <c r="H22" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31665,11 +31677,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="152" t="s">
+      <c r="N22" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31682,17 +31694,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154" t="s">
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31708,8 +31720,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
+      <c r="K24" s="206"/>
+      <c r="L24" s="206"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31736,11 +31748,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="134" t="s">
+      <c r="N25" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="224"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31771,9 +31783,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="139"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="262"/>
+      <c r="P26" s="227"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31802,9 +31814,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="185"/>
-      <c r="P27" s="139"/>
+      <c r="N27" s="225"/>
+      <c r="O27" s="262"/>
+      <c r="P27" s="227"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31833,9 +31845,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="139"/>
+      <c r="N28" s="225"/>
+      <c r="O28" s="262"/>
+      <c r="P28" s="227"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31864,9 +31876,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="139"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="262"/>
+      <c r="P29" s="227"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31895,9 +31907,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="185"/>
-      <c r="P30" s="139"/>
+      <c r="N30" s="225"/>
+      <c r="O30" s="262"/>
+      <c r="P30" s="227"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31921,9 +31933,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="229"/>
+      <c r="P31" s="230"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31936,10 +31948,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="167" t="s">
+      <c r="H32" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="167"/>
+      <c r="I32" s="244"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31952,20 +31964,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="203"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="212"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
+      <c r="H33" s="245"/>
+      <c r="I33" s="245"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="154" t="s">
+      <c r="L33" s="181" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -31982,19 +31994,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="155"/>
+      <c r="L34" s="206"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="206"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="215"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32010,21 +32022,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="156" t="s">
+      <c r="N35" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="157"/>
-      <c r="P35" s="158"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="172"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="257" t="s">
+      <c r="A36" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="259"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="185"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32038,17 +32050,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="161"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="175"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="260"/>
-      <c r="B37" s="261"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="261"/>
-      <c r="F37" s="262"/>
+      <c r="A37" s="186"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="188"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32062,19 +32074,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="161"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="175"/>
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A38" s="186" t="s">
+      <c r="A38" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="188"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="139"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32088,74 +32100,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="161"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="175"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="186" t="s">
+      <c r="A39" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="188"/>
-      <c r="H39" s="178" t="s">
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="139"/>
+      <c r="H39" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="178"/>
-      <c r="J39" s="165" t="s">
+      <c r="I39" s="255"/>
+      <c r="J39" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="165"/>
+      <c r="K39" s="242"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="164"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="178"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="188"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="139"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="243"/>
+      <c r="K40" s="243"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="188"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="139"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="188"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="139"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32169,19 +32181,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="169" t="s">
+      <c r="N42" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="180"/>
-      <c r="P42" s="181"/>
+      <c r="O42" s="257"/>
+      <c r="P42" s="258"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="189"/>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="191"/>
+      <c r="A43" s="200"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="202"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32195,94 +32207,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="182"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="184"/>
+      <c r="N43" s="259"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="261"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="154" t="s">
+      <c r="L44" s="181" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="215" t="s">
+      <c r="A45" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="217"/>
-      <c r="L45" s="155"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="193"/>
+      <c r="L45" s="206"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="192" t="s">
+      <c r="A46" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="193"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="194"/>
-      <c r="H46" s="143" t="s">
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="196"/>
+      <c r="H46" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="207">
+      <c r="I46" s="232"/>
+      <c r="J46" s="233"/>
+      <c r="K46" s="216">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="208"/>
-      <c r="N46" s="169" t="s">
+      <c r="L46" s="217"/>
+      <c r="N46" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="170"/>
-      <c r="P46" s="171"/>
+      <c r="O46" s="247"/>
+      <c r="P46" s="248"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="195"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="197"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="210"/>
-      <c r="N47" s="172"/>
-      <c r="O47" s="173"/>
-      <c r="P47" s="174"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="204"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="205"/>
+      <c r="H47" s="234"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="218"/>
+      <c r="L47" s="219"/>
+      <c r="N47" s="249"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="251"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="192" t="s">
+      <c r="A48" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="194"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="211"/>
-      <c r="L48" s="212"/>
-      <c r="N48" s="175"/>
-      <c r="O48" s="176"/>
-      <c r="P48" s="177"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="196"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="221"/>
+      <c r="N48" s="252"/>
+      <c r="O48" s="253"/>
+      <c r="P48" s="254"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="192" t="s">
+      <c r="A49" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="194"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="196"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32290,14 +32302,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="194"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="196"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32305,14 +32317,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="218" t="s">
+      <c r="A51" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="220"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="199"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32320,14 +32332,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="213" t="s">
+      <c r="A52" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213"/>
-      <c r="F52" s="213"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="189"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32335,12 +32347,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="214"/>
-      <c r="B53" s="214"/>
-      <c r="C53" s="214"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="214"/>
-      <c r="F53" s="214"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32359,6 +32371,37 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32375,37 +32418,6 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32456,11 +32468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32477,11 +32489,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32490,14 +32502,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32506,12 +32518,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32520,12 +32532,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32534,12 +32546,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="280"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32548,18 +32560,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+      <c r="A7" s="275"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="274"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="267"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32571,10 +32583,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32597,10 +32609,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32609,10 +32621,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32626,10 +32638,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32643,10 +32655,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32663,10 +32675,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32675,10 +32687,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32692,10 +32704,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32709,10 +32721,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32729,10 +32741,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32741,10 +32753,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32758,10 +32770,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="263" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32775,10 +32787,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="263" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32795,10 +32807,10 @@
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="263" t="s">
+      <c r="E26" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="264"/>
+      <c r="F26" s="279"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32807,10 +32819,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="266"/>
+      <c r="C27" s="264"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32824,10 +32836,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32841,10 +32853,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32861,10 +32873,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="264"/>
+      <c r="F31" s="279"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32873,10 +32885,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32890,10 +32902,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32907,10 +32919,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="266"/>
+      <c r="C34" s="264"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32924,10 +32936,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32944,10 +32956,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="263" t="s">
+      <c r="E37" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="264"/>
+      <c r="F37" s="279"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32956,10 +32968,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="263" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="264"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32973,10 +32985,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="266"/>
+      <c r="C39" s="264"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -32993,10 +33005,10 @@
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="263" t="s">
+      <c r="E41" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="264"/>
+      <c r="F41" s="279"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33005,10 +33017,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="265" t="s">
+      <c r="B42" s="263" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="266"/>
+      <c r="C42" s="264"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33022,10 +33034,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="265" t="s">
+      <c r="B43" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="266"/>
+      <c r="C43" s="264"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33039,10 +33051,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="263" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="266"/>
+      <c r="C44" s="264"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33056,10 +33068,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="265" t="s">
+      <c r="B45" s="263" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="266"/>
+      <c r="C45" s="264"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33071,14 +33083,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33090,21 +33109,14 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34967,11 +34979,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -34988,11 +35000,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35001,14 +35013,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35017,12 +35029,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="279"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35031,12 +35043,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35045,12 +35057,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="280"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35059,18 +35071,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
+      <c r="A7" s="289"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="291"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="289"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="294"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35082,11 +35094,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="286"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35107,10 +35119,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35119,10 +35131,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35139,10 +35151,10 @@
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="263" t="s">
+      <c r="E14" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="264"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35151,10 +35163,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="263" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35168,10 +35180,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="287" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="266"/>
+      <c r="C16" s="264"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35185,10 +35197,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="287" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35205,10 +35217,10 @@
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="263" t="s">
+      <c r="E19" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="264"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35217,10 +35229,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="290" t="s">
+      <c r="B20" s="287" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35234,10 +35246,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="287" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35254,10 +35266,10 @@
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="263" t="s">
+      <c r="E23" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="264"/>
+      <c r="F23" s="279"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35266,10 +35278,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="287" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35283,10 +35295,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="287" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35303,10 +35315,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="263" t="s">
+      <c r="E27" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35315,10 +35327,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35332,10 +35344,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="287" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35352,10 +35364,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="264"/>
+      <c r="F31" s="279"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35364,10 +35376,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="290" t="s">
+      <c r="B32" s="287" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35384,10 +35396,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="263" t="s">
+      <c r="E34" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="264"/>
+      <c r="F34" s="279"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35396,10 +35408,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="290" t="s">
+      <c r="B35" s="287" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35416,10 +35428,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="263" t="s">
+      <c r="E37" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="264"/>
+      <c r="F37" s="279"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35428,10 +35440,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="264"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35714,12 +35726,16 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B17:C17"/>
@@ -35730,16 +35746,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37153,11 +37165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37174,11 +37186,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37187,14 +37199,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37203,12 +37215,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37217,12 +37229,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37231,12 +37243,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="280"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37245,18 +37257,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="266"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+      <c r="A7" s="275"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="274"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="267"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37268,11 +37280,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="286"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37294,10 +37306,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37306,10 +37318,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37323,10 +37335,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37340,10 +37352,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37361,10 +37373,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37373,10 +37385,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37390,10 +37402,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="263" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37407,10 +37419,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37428,10 +37440,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37440,10 +37452,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="263" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37457,10 +37469,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="263" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37474,10 +37486,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="263" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37491,10 +37503,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="263" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37512,10 +37524,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="263" t="s">
+      <c r="E27" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37524,10 +37536,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="263" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37545,10 +37557,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="263" t="s">
+      <c r="E30" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="264"/>
+      <c r="F30" s="279"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37557,10 +37569,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="263" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="266"/>
+      <c r="C31" s="264"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37574,10 +37586,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37595,10 +37607,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="263" t="s">
+      <c r="E34" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="264"/>
+      <c r="F34" s="279"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37607,10 +37619,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="263" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37639,6 +37651,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37649,22 +37677,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38600,8 +38612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38616,17 +38628,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="76" t="str">
         <f>""&amp;COUNTIF(E$9:E$122,"Untested")&amp;" Untested"</f>
-        <v>16 Untested</v>
+        <v>12 Untested</v>
       </c>
       <c r="F1" s="76" t="str">
         <f>""&amp;COUNTIF(F$9:F$122,"Untested")&amp;" Untested"</f>
@@ -38637,11 +38649,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="301" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="299"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="303"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38650,14 +38662,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="300"/>
-      <c r="B3" s="301"/>
-      <c r="C3" s="302"/>
+      <c r="A3" s="304"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="306"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38666,12 +38678,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="302"/>
+      <c r="A4" s="304"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="306"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38680,12 +38692,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="300"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="302"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="305"/>
+      <c r="C5" s="306"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38694,12 +38706,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
+      <c r="A6" s="307"/>
+      <c r="B6" s="308"/>
+      <c r="C6" s="309"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38708,7 +38720,7 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="129"/>
@@ -38717,8 +38729,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38731,10 +38743,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38756,10 +38768,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38768,10 +38780,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>453</v>
@@ -38787,10 +38799,10 @@
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>453</v>
@@ -38806,10 +38818,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>453</v>
@@ -38825,10 +38837,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="263" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38842,10 +38854,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="265" t="s">
+      <c r="B16" s="263" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="266"/>
+      <c r="C16" s="264"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38859,10 +38871,10 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -38876,10 +38888,10 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="263" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="264"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -38893,10 +38905,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38910,10 +38922,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="263" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38927,10 +38939,10 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="308" t="s">
+      <c r="B21" s="299" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="309"/>
+      <c r="C21" s="300"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -38946,10 +38958,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="263" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="264"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38963,10 +38975,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="263" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="264"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -38980,10 +38992,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="263" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="264"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -38997,10 +39009,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="263" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="264"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -39014,10 +39026,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="265" t="s">
+      <c r="B26" s="263" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="266"/>
+      <c r="C26" s="264"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39031,10 +39043,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="263" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="266"/>
+      <c r="C27" s="264"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39048,10 +39060,10 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="263" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="264"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -39068,10 +39080,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="263" t="s">
+      <c r="E30" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="264"/>
+      <c r="F30" s="279"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39080,10 +39092,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="297" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="307"/>
+      <c r="C31" s="298"/>
       <c r="D31" s="70" t="s">
         <v>488</v>
       </c>
@@ -39099,10 +39111,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70" t="s">
         <v>485</v>
       </c>
@@ -39118,10 +39130,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="263" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39137,10 +39149,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="263" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="266"/>
+      <c r="C34" s="264"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39156,10 +39168,10 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="263" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="264"/>
       <c r="D35" s="70" t="s">
         <v>487</v>
       </c>
@@ -39175,10 +39187,10 @@
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="263" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="266"/>
+      <c r="C36" s="264"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39194,10 +39206,10 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="265" t="s">
+      <c r="B37" s="263" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="266"/>
+      <c r="C37" s="264"/>
       <c r="D37" s="70" t="s">
         <v>484</v>
       </c>
@@ -39213,10 +39225,10 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="263" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="264"/>
       <c r="D38" s="70" t="s">
         <v>486</v>
       </c>
@@ -39235,10 +39247,10 @@
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="263" t="s">
+      <c r="E40" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="264"/>
+      <c r="F40" s="279"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
@@ -39247,13 +39259,15 @@
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="306" t="s">
+      <c r="B41" s="297" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="307"/>
-      <c r="D41" s="70"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="70" t="s">
+        <v>489</v>
+      </c>
       <c r="E41" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>100</v>
@@ -39264,13 +39278,15 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="306" t="s">
+      <c r="B42" s="297" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="307"/>
-      <c r="D42" s="70"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="70" t="s">
+        <v>490</v>
+      </c>
       <c r="E42" s="68" t="s">
-        <v>100</v>
+        <v>451</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>100</v>
@@ -39281,13 +39297,15 @@
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="306" t="s">
+      <c r="B43" s="297" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="307"/>
-      <c r="D43" s="70"/>
+      <c r="C43" s="298"/>
+      <c r="D43" s="70" t="s">
+        <v>491</v>
+      </c>
       <c r="E43" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>100</v>
@@ -39298,13 +39316,15 @@
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="306" t="s">
+      <c r="B44" s="297" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="307"/>
-      <c r="D44" s="70"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="70" t="s">
+        <v>492</v>
+      </c>
       <c r="E44" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>100</v>
@@ -39318,10 +39338,10 @@
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="263" t="s">
+      <c r="E46" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="264"/>
+      <c r="F46" s="279"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39330,10 +39350,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="265" t="s">
+      <c r="B47" s="263" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="266"/>
+      <c r="C47" s="264"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39347,10 +39367,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="265" t="s">
+      <c r="B48" s="263" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="266"/>
+      <c r="C48" s="264"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39364,10 +39384,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="265" t="s">
+      <c r="B49" s="263" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="266"/>
+      <c r="C49" s="264"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39381,10 +39401,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="265" t="s">
+      <c r="B50" s="263" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="266"/>
+      <c r="C50" s="264"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39398,10 +39418,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="265" t="s">
+      <c r="B51" s="263" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="266"/>
+      <c r="C51" s="264"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39418,10 +39438,10 @@
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="263" t="s">
+      <c r="E53" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="264"/>
+      <c r="F53" s="279"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39430,10 +39450,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="265" t="s">
+      <c r="B54" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="266"/>
+      <c r="C54" s="264"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39446,19 +39466,22 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
@@ -39475,22 +39498,19 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40492,11 +40512,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40513,11 +40533,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40526,14 +40546,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40542,12 +40562,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40556,12 +40576,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40570,12 +40590,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="266"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="282"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="284"/>
+      <c r="A6" s="275"/>
+      <c r="B6" s="276"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40584,7 +40604,7 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="128"/>
@@ -40593,8 +40613,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40607,10 +40627,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="285" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40632,10 +40652,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40644,10 +40664,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40661,10 +40681,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40678,10 +40698,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40698,10 +40718,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40710,10 +40730,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="263" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="264"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40727,10 +40747,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="306" t="s">
+      <c r="B18" s="297" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="307"/>
+      <c r="C18" s="298"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40744,10 +40764,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="263" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40764,10 +40784,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40776,10 +40796,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="306" t="s">
+      <c r="B22" s="297" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="307"/>
+      <c r="C22" s="298"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40793,10 +40813,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="297" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="307"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40810,10 +40830,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="306" t="s">
+      <c r="B24" s="297" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="307"/>
+      <c r="C24" s="298"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40827,10 +40847,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="307"/>
+      <c r="C25" s="298"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40844,10 +40864,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="306" t="s">
+      <c r="B26" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="307"/>
+      <c r="C26" s="298"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40864,10 +40884,10 @@
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="263" t="s">
+      <c r="E28" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="264"/>
+      <c r="F28" s="279"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40876,10 +40896,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="263" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="264"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40893,10 +40913,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="265" t="s">
+      <c r="B30" s="263" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="266"/>
+      <c r="C30" s="264"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40910,10 +40930,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="263" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="266"/>
+      <c r="C31" s="264"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40927,10 +40947,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="263" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="264"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40944,10 +40964,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="263" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="264"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40964,10 +40984,10 @@
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="263" t="s">
+      <c r="E35" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="264"/>
+      <c r="F35" s="279"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -40976,10 +40996,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="266"/>
+      <c r="C36" s="264"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -40992,6 +41012,20 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41005,20 +41039,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41680,11 +41700,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41701,11 +41721,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41717,14 +41737,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="284"/>
+      <c r="A3" s="275"/>
+      <c r="B3" s="276"/>
+      <c r="C3" s="277"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41736,7 +41756,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41768,8 +41788,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="266"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="264"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41781,8 +41801,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41794,8 +41814,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="266"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41807,8 +41827,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="266"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41820,8 +41840,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="266"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41833,8 +41853,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="266"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="264"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42195,11 +42215,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="282" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="284"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42216,11 +42236,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="268" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="270"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42232,14 +42252,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="265" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42251,12 +42271,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="271"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42268,12 +42288,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="266"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
+      <c r="A5" s="275"/>
+      <c r="B5" s="276"/>
+      <c r="C5" s="277"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42285,7 +42305,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42297,10 +42317,10 @@
       <c r="G6" s="71"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="270" t="s">
+      <c r="A7" s="285" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="271"/>
+      <c r="B7" s="286"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42319,10 +42339,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="263" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="266"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42381,10 +42401,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="263" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42398,10 +42418,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="263" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42415,10 +42435,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="263" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42432,10 +42452,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="313" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="316"/>
+      <c r="C15" s="314"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42449,10 +42469,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="315" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="314"/>
+      <c r="C16" s="315"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42466,10 +42486,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="314" t="s">
+      <c r="B17" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="314"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42489,10 +42509,10 @@
       <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="270" t="s">
+      <c r="A19" s="285" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="271"/>
+      <c r="B19" s="286"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42511,10 +42531,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="263" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="264"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42528,10 +42548,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="265" t="s">
+      <c r="B21" s="263" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42545,10 +42565,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="314" t="s">
+      <c r="B22" s="315" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="314"/>
+      <c r="C22" s="315"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42562,10 +42582,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="314" t="s">
+      <c r="B23" s="315" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="314"/>
+      <c r="C23" s="315"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42579,10 +42599,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="314" t="s">
+      <c r="B24" s="315" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="314"/>
+      <c r="C24" s="315"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42596,10 +42616,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="315" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="314"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42613,10 +42633,10 @@
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="314" t="s">
+      <c r="B26" s="315" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="314"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42630,10 +42650,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="314" t="s">
+      <c r="B27" s="315" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="314"/>
+      <c r="C27" s="315"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42647,10 +42667,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="314" t="s">
+      <c r="B28" s="315" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="314"/>
+      <c r="C28" s="315"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42664,10 +42684,10 @@
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="314" t="s">
+      <c r="B29" s="315" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="314"/>
+      <c r="C29" s="315"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42681,10 +42701,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="314" t="s">
+      <c r="B30" s="315" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="314"/>
+      <c r="C30" s="315"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42698,10 +42718,10 @@
       <c r="A31" s="89"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="270" t="s">
+      <c r="A32" s="285" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="271"/>
+      <c r="B32" s="286"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42720,10 +42740,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="312" t="s">
+      <c r="B33" s="310" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="312"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42737,10 +42757,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="313" t="s">
+      <c r="B34" s="316" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="316"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42754,10 +42774,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="312" t="s">
+      <c r="B35" s="310" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="312"/>
+      <c r="C35" s="310"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42771,10 +42791,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="310" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="312"/>
+      <c r="C36" s="310"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42788,10 +42808,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="312" t="s">
+      <c r="B37" s="310" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="312"/>
+      <c r="C37" s="310"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42805,10 +42825,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="311" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="311"/>
+      <c r="C38" s="312"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42822,10 +42842,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="312" t="s">
+      <c r="B39" s="310" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="312"/>
+      <c r="C39" s="310"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42839,10 +42859,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="310" t="s">
+      <c r="B40" s="311" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="311"/>
+      <c r="C40" s="312"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42856,10 +42876,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="312" t="s">
+      <c r="B41" s="310" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="312"/>
+      <c r="C41" s="310"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42873,10 +42893,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="312" t="s">
+      <c r="B42" s="310" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="312"/>
+      <c r="C42" s="310"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42890,10 +42910,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="312" t="s">
+      <c r="B43" s="310" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="312"/>
+      <c r="C43" s="310"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42907,10 +42927,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="312" t="s">
+      <c r="B44" s="310" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="312"/>
+      <c r="C44" s="310"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42924,10 +42944,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="312" t="s">
+      <c r="B45" s="310" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="312"/>
+      <c r="C45" s="310"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42941,10 +42961,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="310" t="s">
+      <c r="B46" s="311" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="311"/>
+      <c r="C46" s="312"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42958,10 +42978,10 @@
       <c r="A47" s="89"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A48" s="270" t="s">
+      <c r="A48" s="285" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="271"/>
+      <c r="B48" s="286"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -42980,10 +43000,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="310" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="312"/>
+      <c r="C49" s="310"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -42997,10 +43017,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="310" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="312"/>
+      <c r="C50" s="310"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43014,10 +43034,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="312" t="s">
+      <c r="B51" s="310" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="312"/>
+      <c r="C51" s="310"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43031,10 +43051,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="311" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="311"/>
+      <c r="C52" s="312"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43048,10 +43068,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="311" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="311"/>
+      <c r="C53" s="312"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43065,10 +43085,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="310" t="s">
+      <c r="B54" s="311" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="311"/>
+      <c r="C54" s="312"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43082,10 +43102,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="310" t="s">
+      <c r="B55" s="311" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="311"/>
+      <c r="C55" s="312"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43099,10 +43119,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="310" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="312"/>
+      <c r="C56" s="310"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43116,10 +43136,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="310" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="312"/>
+      <c r="C57" s="310"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43133,10 +43153,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="310" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="312"/>
+      <c r="C58" s="310"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43150,10 +43170,10 @@
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="310" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="312"/>
+      <c r="C59" s="310"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43167,10 +43187,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="312" t="s">
+      <c r="B60" s="310" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="312"/>
+      <c r="C60" s="310"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43184,10 +43204,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="312" t="s">
+      <c r="B61" s="310" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="312"/>
+      <c r="C61" s="310"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43201,10 +43221,10 @@
       <c r="A62" s="89"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A63" s="270" t="s">
+      <c r="A63" s="285" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="271"/>
+      <c r="B63" s="286"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43223,10 +43243,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="312" t="s">
+      <c r="B64" s="310" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="312"/>
+      <c r="C64" s="310"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43240,10 +43260,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="312" t="s">
+      <c r="B65" s="310" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="312"/>
+      <c r="C65" s="310"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43257,10 +43277,10 @@
       <c r="A66" s="89"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A67" s="270" t="s">
+      <c r="A67" s="285" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="271"/>
+      <c r="B67" s="286"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43279,10 +43299,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="310" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="312"/>
+      <c r="C68" s="310"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43294,6 +43314,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="B68:C68"/>
@@ -43310,48 +43372,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44301,6 +44321,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44517,15 +44546,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
   <ds:schemaRefs>
@@ -44536,6 +44556,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44552,12 +44580,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aleksey\DigiPen\year5\Fall\Gam550\repo\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CE173F-6814-4B1B-A34D-67AC1B871DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91098F96-5F3D-4C6D-8830-DE04A03611AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="495">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -2596,6 +2596,12 @@
   </si>
   <si>
     <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other. We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
+  </si>
+  <si>
+    <t>Input thread &amp; Resources Loading Thread &amp; Main Thread</t>
+  </si>
+  <si>
+    <t>Level Editor</t>
   </si>
 </sst>
 </file>
@@ -4310,7 +4316,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -4749,14 +4755,161 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4766,6 +4919,113 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4876,41 +5136,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4933,235 +5163,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5217,37 +5251,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5271,37 +5287,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5341,7 +5331,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5353,6 +5355,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -5361,12 +5375,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="697" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31078,38 +31088,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="229"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="145"/>
+      <c r="F1" s="229"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="142"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="226"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="134" t="s">
+      <c r="N1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="135"/>
-      <c r="P1" s="136"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="223"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="148"/>
+      <c r="A2" s="230"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="232"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="237"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31120,21 +31130,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="239"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="168" t="s">
+      <c r="J3" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="169"/>
+      <c r="K3" s="253"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31152,43 +31162,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164"/>
+      <c r="I4" s="246"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="248"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="170" t="s">
+      <c r="N4" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="171"/>
-      <c r="P4" s="172"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="158"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="161"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="245"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="158"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="242"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="175"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="161"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31213,16 +31223,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="167"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="175"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31235,9 +31245,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31246,9 +31256,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="175"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="161"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31261,17 +31271,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="255"/>
+      <c r="J8" s="255"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="181" t="s">
+      <c r="L8" s="154" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="178"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="164"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31287,7 +31297,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="182"/>
+      <c r="L9" s="256"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31349,11 +31359,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="222" t="s">
+      <c r="N11" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="223"/>
-      <c r="P11" s="224"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31381,9 +31391,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="225"/>
-      <c r="O12" s="226"/>
-      <c r="P12" s="227"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31411,9 +31421,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="225"/>
-      <c r="O13" s="226"/>
-      <c r="P13" s="227"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31441,9 +31451,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="225"/>
-      <c r="O14" s="226"/>
-      <c r="P14" s="227"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31471,9 +31481,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="226"/>
-      <c r="P15" s="227"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31501,9 +31511,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="225"/>
-      <c r="O16" s="226"/>
-      <c r="P16" s="227"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31531,9 +31541,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="225"/>
-      <c r="O17" s="226"/>
-      <c r="P17" s="227"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31561,9 +31571,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="226"/>
-      <c r="P18" s="227"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31591,9 +31601,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="225"/>
-      <c r="O19" s="226"/>
-      <c r="P19" s="227"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31621,9 +31631,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="226"/>
-      <c r="P20" s="227"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31649,9 +31659,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="228"/>
-      <c r="O21" s="229"/>
-      <c r="P21" s="230"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="142"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31664,11 +31674,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="207" t="s">
+      <c r="H22" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31677,11 +31687,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="240" t="s">
+      <c r="N22" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="240"/>
-      <c r="P22" s="240"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31694,17 +31704,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181" t="s">
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31720,8 +31730,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="206"/>
-      <c r="L24" s="206"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31748,11 +31758,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="222" t="s">
+      <c r="N25" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="223"/>
-      <c r="P25" s="224"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31783,9 +31793,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="225"/>
-      <c r="O26" s="262"/>
-      <c r="P26" s="227"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31814,9 +31824,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="225"/>
-      <c r="O27" s="262"/>
-      <c r="P27" s="227"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31845,9 +31855,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="225"/>
-      <c r="O28" s="262"/>
-      <c r="P28" s="227"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31876,9 +31886,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="262"/>
-      <c r="P29" s="227"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="139"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31907,9 +31917,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="225"/>
-      <c r="O30" s="262"/>
-      <c r="P30" s="227"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="139"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31933,9 +31943,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="228"/>
-      <c r="O31" s="229"/>
-      <c r="P31" s="230"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="142"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31948,10 +31958,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="244" t="s">
+      <c r="H32" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="244"/>
+      <c r="I32" s="167"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31964,20 +31974,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="208" t="s">
+      <c r="A33" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="200"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="203"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="245"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="181" t="s">
+      <c r="L33" s="154" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -31994,19 +32004,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="206"/>
+      <c r="L34" s="155"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="213" t="s">
+      <c r="A35" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="214"/>
-      <c r="C35" s="214"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32022,21 +32032,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="170" t="s">
+      <c r="N35" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="171"/>
-      <c r="P35" s="172"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="158"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="183" t="s">
+      <c r="A36" s="257" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="185"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="259"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32050,17 +32060,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="175"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="161"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="186"/>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="188"/>
+      <c r="A37" s="260"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="261"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32074,19 +32084,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="175"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="161"/>
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="139"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="188"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32100,74 +32110,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="175"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="161"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="139"/>
-      <c r="H39" s="255" t="s">
+      <c r="B39" s="187"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="188"/>
+      <c r="H39" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="255"/>
-      <c r="J39" s="242" t="s">
+      <c r="I39" s="178"/>
+      <c r="J39" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="242"/>
+      <c r="K39" s="165"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="178"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="163"/>
+      <c r="P39" s="164"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="139"/>
-      <c r="H40" s="256"/>
-      <c r="I40" s="256"/>
-      <c r="J40" s="243"/>
-      <c r="K40" s="243"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="188"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="139"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="188"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="139"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="188"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32181,19 +32191,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="246" t="s">
+      <c r="N42" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="257"/>
-      <c r="P42" s="258"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="181"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="200"/>
-      <c r="B43" s="201"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="201"/>
-      <c r="E43" s="201"/>
-      <c r="F43" s="202"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="191"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32207,94 +32217,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="259"/>
-      <c r="O43" s="260"/>
-      <c r="P43" s="261"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="184"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="181" t="s">
+      <c r="L44" s="154" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="191" t="s">
+      <c r="A45" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="193"/>
-      <c r="L45" s="206"/>
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="217"/>
+      <c r="L45" s="155"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="194" t="s">
+      <c r="A46" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="196"/>
-      <c r="H46" s="231" t="s">
+      <c r="B46" s="193"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="194"/>
+      <c r="H46" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="232"/>
-      <c r="J46" s="233"/>
-      <c r="K46" s="216">
+      <c r="I46" s="144"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="207">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="217"/>
-      <c r="N46" s="246" t="s">
+      <c r="L46" s="208"/>
+      <c r="N46" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="247"/>
-      <c r="P46" s="248"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="171"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="203"/>
-      <c r="B47" s="204"/>
-      <c r="C47" s="204"/>
-      <c r="D47" s="204"/>
-      <c r="E47" s="204"/>
-      <c r="F47" s="205"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="218"/>
-      <c r="L47" s="219"/>
-      <c r="N47" s="249"/>
-      <c r="O47" s="250"/>
-      <c r="P47" s="251"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="197"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="210"/>
+      <c r="N47" s="172"/>
+      <c r="O47" s="173"/>
+      <c r="P47" s="174"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="194" t="s">
+      <c r="A48" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="195"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="196"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="220"/>
-      <c r="L48" s="221"/>
-      <c r="N48" s="252"/>
-      <c r="O48" s="253"/>
-      <c r="P48" s="254"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="194"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="212"/>
+      <c r="N48" s="175"/>
+      <c r="O48" s="176"/>
+      <c r="P48" s="177"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="194" t="s">
+      <c r="A49" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="195"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="195"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="196"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="194"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32302,14 +32312,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="194" t="s">
+      <c r="A50" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="195"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="196"/>
+      <c r="B50" s="193"/>
+      <c r="C50" s="193"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="194"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32317,14 +32327,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="197" t="s">
+      <c r="A51" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="198"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="199"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="220"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32332,14 +32342,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="189" t="s">
+      <c r="A52" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="189"/>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
+      <c r="B52" s="213"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="213"/>
+      <c r="E52" s="213"/>
+      <c r="F52" s="213"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32347,12 +32357,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="190"/>
-      <c r="B53" s="190"/>
-      <c r="C53" s="190"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="190"/>
-      <c r="F53" s="190"/>
+      <c r="A53" s="214"/>
+      <c r="B53" s="214"/>
+      <c r="C53" s="214"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="214"/>
+      <c r="F53" s="214"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32371,37 +32381,6 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32418,6 +32397,37 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32468,11 +32478,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32489,11 +32499,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32502,14 +32512,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32518,12 +32528,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32532,12 +32542,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="273"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32546,12 +32556,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="271"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="273"/>
+      <c r="A6" s="278"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="280"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32560,18 +32570,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="275"/>
-      <c r="B7" s="276"/>
-      <c r="C7" s="277"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="267"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="274"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32583,10 +32593,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="270" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="286"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32609,10 +32619,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32621,10 +32631,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32638,10 +32648,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32655,10 +32665,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32675,10 +32685,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="278" t="s">
+      <c r="E16" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="279"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32687,10 +32697,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32704,10 +32714,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="266"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32721,10 +32731,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32741,10 +32751,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="278" t="s">
+      <c r="E21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="279"/>
+      <c r="F21" s="264"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32753,10 +32763,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="265" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="264"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32770,10 +32780,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="264"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32787,10 +32797,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32807,10 +32817,10 @@
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="278" t="s">
+      <c r="E26" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="279"/>
+      <c r="F26" s="264"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32819,10 +32829,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="265" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="264"/>
+      <c r="C27" s="266"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32836,10 +32846,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32853,10 +32863,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="266"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32873,10 +32883,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="279"/>
+      <c r="F31" s="264"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32885,10 +32895,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32902,10 +32912,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="265" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="264"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32919,10 +32929,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="263" t="s">
+      <c r="B34" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="264"/>
+      <c r="C34" s="266"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32936,10 +32946,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32956,10 +32966,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="278" t="s">
+      <c r="E37" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="279"/>
+      <c r="F37" s="264"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32968,10 +32978,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="265" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="264"/>
+      <c r="C38" s="266"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32985,10 +32995,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="263" t="s">
+      <c r="B39" s="265" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="264"/>
+      <c r="C39" s="266"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -33005,10 +33015,10 @@
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="278" t="s">
+      <c r="E41" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="279"/>
+      <c r="F41" s="264"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33017,10 +33027,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="263" t="s">
+      <c r="B42" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="264"/>
+      <c r="C42" s="266"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33034,10 +33044,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="263" t="s">
+      <c r="B43" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="264"/>
+      <c r="C43" s="266"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33051,10 +33061,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="263" t="s">
+      <c r="B44" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="264"/>
+      <c r="C44" s="266"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33068,10 +33078,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="263" t="s">
+      <c r="B45" s="265" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="264"/>
+      <c r="C45" s="266"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33083,21 +33093,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33109,14 +33112,21 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34979,11 +34989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -35000,11 +35010,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35013,14 +35023,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35029,12 +35039,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="272"/>
-      <c r="C4" s="273"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35043,12 +35053,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="272"/>
-      <c r="C5" s="273"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35057,12 +35067,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="271"/>
-      <c r="B6" s="272"/>
-      <c r="C6" s="273"/>
+      <c r="A6" s="278"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="280"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35071,18 +35081,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="289"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="291"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="292"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="294"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="289"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35094,11 +35104,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="270" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="286"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="271"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35119,10 +35129,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35131,10 +35141,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35151,10 +35161,10 @@
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="278" t="s">
+      <c r="E14" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="279"/>
+      <c r="F14" s="264"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35163,10 +35173,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="265" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="264"/>
+      <c r="C15" s="266"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35180,10 +35190,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="287" t="s">
+      <c r="B16" s="290" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="264"/>
+      <c r="C16" s="266"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35197,10 +35207,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="287" t="s">
+      <c r="B17" s="290" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35217,10 +35227,10 @@
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="278" t="s">
+      <c r="E19" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="279"/>
+      <c r="F19" s="264"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35229,10 +35239,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="287" t="s">
+      <c r="B20" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="264"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35246,10 +35256,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="287" t="s">
+      <c r="B21" s="290" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="264"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35266,10 +35276,10 @@
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="278" t="s">
+      <c r="E23" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="279"/>
+      <c r="F23" s="264"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35278,10 +35288,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="287" t="s">
+      <c r="B24" s="290" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35295,10 +35305,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="287" t="s">
+      <c r="B25" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="264"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35315,10 +35325,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="278" t="s">
+      <c r="E27" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="279"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35327,10 +35337,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="287" t="s">
+      <c r="B28" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35344,10 +35354,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="266"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35364,10 +35374,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="279"/>
+      <c r="F31" s="264"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35376,10 +35386,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="287" t="s">
+      <c r="B32" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35396,10 +35406,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="278" t="s">
+      <c r="E34" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="279"/>
+      <c r="F34" s="264"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35408,10 +35418,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="287" t="s">
+      <c r="B35" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35428,10 +35438,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="278" t="s">
+      <c r="E37" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="279"/>
+      <c r="F37" s="264"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35440,10 +35450,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="265" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="264"/>
+      <c r="C38" s="266"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35726,6 +35736,22 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E7:F7"/>
@@ -35736,22 +35762,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37165,11 +37175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37186,11 +37196,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37199,14 +37209,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="273"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37215,12 +37225,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37229,12 +37239,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="273"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37243,12 +37253,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="271"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="273"/>
+      <c r="A6" s="278"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="280"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37257,18 +37267,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="266"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="275"/>
-      <c r="B7" s="276"/>
-      <c r="C7" s="277"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="267"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="274"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37280,11 +37290,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="270" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="286"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="271"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37306,10 +37316,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37318,10 +37328,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37335,10 +37345,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37352,10 +37362,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37373,10 +37383,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="278" t="s">
+      <c r="E16" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="279"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37385,10 +37395,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37402,10 +37412,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="264"/>
+      <c r="C18" s="266"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37419,10 +37429,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37440,10 +37450,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="278" t="s">
+      <c r="E21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="279"/>
+      <c r="F21" s="264"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37452,10 +37462,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="265" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="264"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37469,10 +37479,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="265" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="264"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37486,10 +37496,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37503,10 +37513,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="265" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="264"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37524,10 +37534,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="278" t="s">
+      <c r="E27" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="279"/>
+      <c r="F27" s="264"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37536,10 +37546,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37557,10 +37567,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="278" t="s">
+      <c r="E30" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="279"/>
+      <c r="F30" s="264"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37569,10 +37579,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="265" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="264"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37586,10 +37596,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37607,10 +37617,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="278" t="s">
+      <c r="E34" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="279"/>
+      <c r="F34" s="264"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37619,10 +37629,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37651,22 +37661,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37677,6 +37671,22 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38612,8 +38622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38628,17 +38638,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="76" t="str">
         <f>""&amp;COUNTIF(E$9:E$122,"Untested")&amp;" Untested"</f>
-        <v>12 Untested</v>
+        <v>8 Untested</v>
       </c>
       <c r="F1" s="76" t="str">
         <f>""&amp;COUNTIF(F$9:F$122,"Untested")&amp;" Untested"</f>
@@ -38649,11 +38659,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="297" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="302"/>
-      <c r="C2" s="303"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="299"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38662,14 +38672,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="304"/>
-      <c r="B3" s="305"/>
-      <c r="C3" s="306"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="302"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38678,12 +38688,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="304"/>
-      <c r="B4" s="305"/>
-      <c r="C4" s="306"/>
+      <c r="A4" s="300"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="302"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38692,12 +38702,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="304"/>
-      <c r="B5" s="305"/>
-      <c r="C5" s="306"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="302"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38706,12 +38716,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="307"/>
-      <c r="B6" s="308"/>
-      <c r="C6" s="309"/>
+      <c r="A6" s="303"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="305"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38720,7 +38730,7 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="129"/>
@@ -38729,8 +38739,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38743,10 +38753,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="270" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="286"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38768,10 +38778,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38780,67 +38790,67 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="264"/>
-      <c r="D12" s="70"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="70" t="s">
+        <v>478</v>
+      </c>
       <c r="E12" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F12" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="70" t="s">
-        <v>478</v>
-      </c>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:7" ht="104.1" customHeight="1" thickBot="1">
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="264"/>
-      <c r="D13" s="70"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="70" t="s">
+        <v>479</v>
+      </c>
       <c r="E13" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="70" t="s">
-        <v>479</v>
-      </c>
+      <c r="G13" s="70"/>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" thickBot="1">
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="264"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="70" t="s">
+        <v>480</v>
+      </c>
       <c r="E14" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F14" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="70" t="s">
-        <v>480</v>
-      </c>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="48" customHeight="1" thickBot="1">
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="265" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="264"/>
+      <c r="C15" s="266"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38854,10 +38864,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="263" t="s">
+      <c r="B16" s="265" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="264"/>
+      <c r="C16" s="266"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38871,10 +38881,10 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -38888,13 +38898,15 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="70" t="s">
+        <v>493</v>
+      </c>
       <c r="E18" s="68" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>100</v>
@@ -38905,10 +38917,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38922,10 +38934,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="265" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="264"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38939,29 +38951,29 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="299" t="s">
+      <c r="B21" s="308" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="300"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="317" t="s">
+        <v>390</v>
+      </c>
       <c r="E21" s="68" t="s">
         <v>100</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="130" t="s">
-        <v>390</v>
-      </c>
+      <c r="G21" s="130"/>
     </row>
     <row r="22" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="265" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="264"/>
+      <c r="C22" s="266"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38975,10 +38987,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="265" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="264"/>
+      <c r="C23" s="266"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -38992,13 +39004,13 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="264"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
-        <v>100</v>
+        <v>453</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>100</v>
@@ -39009,13 +39021,13 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="265" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="264"/>
+      <c r="C25" s="266"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
-        <v>100</v>
+        <v>453</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>100</v>
@@ -39026,10 +39038,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="263" t="s">
+      <c r="B26" s="265" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="264"/>
+      <c r="C26" s="266"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39043,10 +39055,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="265" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="264"/>
+      <c r="C27" s="266"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39060,13 +39072,15 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="263" t="s">
+      <c r="B28" s="265" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="264"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="70" t="s">
+        <v>494</v>
+      </c>
       <c r="E28" s="68" t="s">
-        <v>100</v>
+        <v>453</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>100</v>
@@ -39080,10 +39094,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="278" t="s">
+      <c r="E30" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="279"/>
+      <c r="F30" s="264"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39092,10 +39106,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="297" t="s">
+      <c r="B31" s="306" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="298"/>
+      <c r="C31" s="307"/>
       <c r="D31" s="70" t="s">
         <v>488</v>
       </c>
@@ -39111,10 +39125,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70" t="s">
         <v>485</v>
       </c>
@@ -39130,10 +39144,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="265" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="264"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39145,14 +39159,14 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="47.1" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="81.75" customHeight="1" thickBot="1">
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="263" t="s">
+      <c r="B34" s="265" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="264"/>
+      <c r="C34" s="266"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39168,10 +39182,10 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="264"/>
+      <c r="C35" s="266"/>
       <c r="D35" s="70" t="s">
         <v>487</v>
       </c>
@@ -39183,14 +39197,14 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="36" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="263" t="s">
+      <c r="B36" s="265" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="264"/>
+      <c r="C36" s="266"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39206,10 +39220,10 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="265" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="264"/>
+      <c r="C37" s="266"/>
       <c r="D37" s="70" t="s">
         <v>484</v>
       </c>
@@ -39225,10 +39239,10 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="265" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="264"/>
+      <c r="C38" s="266"/>
       <c r="D38" s="70" t="s">
         <v>486</v>
       </c>
@@ -39247,10 +39261,10 @@
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="278" t="s">
+      <c r="E40" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="279"/>
+      <c r="F40" s="264"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
@@ -39259,10 +39273,10 @@
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="297" t="s">
+      <c r="B41" s="306" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="298"/>
+      <c r="C41" s="307"/>
       <c r="D41" s="70" t="s">
         <v>489</v>
       </c>
@@ -39278,10 +39292,10 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="297" t="s">
+      <c r="B42" s="306" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="298"/>
+      <c r="C42" s="307"/>
       <c r="D42" s="70" t="s">
         <v>490</v>
       </c>
@@ -39297,10 +39311,10 @@
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="297" t="s">
+      <c r="B43" s="306" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="298"/>
+      <c r="C43" s="307"/>
       <c r="D43" s="70" t="s">
         <v>491</v>
       </c>
@@ -39316,10 +39330,10 @@
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="297" t="s">
+      <c r="B44" s="306" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="298"/>
+      <c r="C44" s="307"/>
       <c r="D44" s="70" t="s">
         <v>492</v>
       </c>
@@ -39338,10 +39352,10 @@
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="278" t="s">
+      <c r="E46" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="279"/>
+      <c r="F46" s="264"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39350,10 +39364,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="263" t="s">
+      <c r="B47" s="265" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="264"/>
+      <c r="C47" s="266"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39367,10 +39381,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="263" t="s">
+      <c r="B48" s="265" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="264"/>
+      <c r="C48" s="266"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39384,10 +39398,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="263" t="s">
+      <c r="B49" s="265" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="264"/>
+      <c r="C49" s="266"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39401,10 +39415,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="263" t="s">
+      <c r="B50" s="265" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="264"/>
+      <c r="C50" s="266"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39418,10 +39432,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="263" t="s">
+      <c r="B51" s="265" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="264"/>
+      <c r="C51" s="266"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39438,10 +39452,10 @@
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="278" t="s">
+      <c r="E53" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="279"/>
+      <c r="F53" s="264"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39450,10 +39464,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="263" t="s">
+      <c r="B54" s="265" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="264"/>
+      <c r="C54" s="266"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39466,6 +39480,35 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:C1"/>
@@ -39482,35 +39525,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40467,7 +40481,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{B38485F6-3B2C-CF4F-A6C3-0394572DC4A5}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{A5B8FECC-00D7-4B42-B36D-3BD5552D26E9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -40512,11 +40526,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40533,11 +40547,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40546,14 +40560,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="273"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40562,12 +40576,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40576,12 +40590,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="271"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="273"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="280"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40590,12 +40604,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="266"/>
+      <c r="G5" s="273"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="275"/>
-      <c r="B6" s="276"/>
-      <c r="C6" s="277"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="284"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40604,7 +40618,7 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="128"/>
@@ -40613,8 +40627,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40627,10 +40641,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="270" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="286"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40652,10 +40666,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="279"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40664,10 +40678,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40681,10 +40695,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40698,10 +40712,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40718,10 +40732,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="278" t="s">
+      <c r="E16" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="279"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40730,10 +40744,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="265" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="264"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40747,10 +40761,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="297" t="s">
+      <c r="B18" s="306" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="298"/>
+      <c r="C18" s="307"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40764,10 +40778,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="263" t="s">
+      <c r="B19" s="265" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="264"/>
+      <c r="C19" s="266"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40784,10 +40798,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="278" t="s">
+      <c r="E21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="279"/>
+      <c r="F21" s="264"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40796,10 +40810,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="297" t="s">
+      <c r="B22" s="306" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="298"/>
+      <c r="C22" s="307"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40813,10 +40827,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="297" t="s">
+      <c r="B23" s="306" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="298"/>
+      <c r="C23" s="307"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40830,10 +40844,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="297" t="s">
+      <c r="B24" s="306" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="298"/>
+      <c r="C24" s="307"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40847,10 +40861,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="297" t="s">
+      <c r="B25" s="306" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="298"/>
+      <c r="C25" s="307"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40864,10 +40878,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="306" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="298"/>
+      <c r="C26" s="307"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40884,10 +40898,10 @@
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="278" t="s">
+      <c r="E28" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="279"/>
+      <c r="F28" s="264"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40896,10 +40910,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="263" t="s">
+      <c r="B29" s="265" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="264"/>
+      <c r="C29" s="266"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40913,10 +40927,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="265" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="264"/>
+      <c r="C30" s="266"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40930,10 +40944,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="265" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="264"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40947,10 +40961,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="264"/>
+      <c r="C32" s="266"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40964,10 +40978,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="263" t="s">
+      <c r="B33" s="265" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="264"/>
+      <c r="C33" s="266"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40984,10 +40998,10 @@
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="278" t="s">
+      <c r="E35" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="279"/>
+      <c r="F35" s="264"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -40996,10 +41010,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="263" t="s">
+      <c r="B36" s="265" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="264"/>
+      <c r="C36" s="266"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -41012,20 +41026,6 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41039,6 +41039,20 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41700,11 +41714,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41721,11 +41735,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41737,14 +41751,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="276"/>
-      <c r="C3" s="277"/>
+      <c r="A3" s="282"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="284"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41756,7 +41770,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41788,8 +41802,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="263"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="266"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41801,8 +41815,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="264"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="266"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41814,8 +41828,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41827,8 +41841,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="264"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="266"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41840,8 +41854,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="264"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="266"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41853,8 +41867,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="263"/>
-      <c r="C11" s="264"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="266"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42215,11 +42229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="284"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42236,11 +42250,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="275" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="270"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42252,14 +42266,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="272" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="274"/>
-      <c r="C3" s="273"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="280"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42271,12 +42285,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="273"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="271"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="273"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="280"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42288,12 +42302,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="266"/>
+      <c r="G4" s="273"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="275"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="277"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="284"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42305,7 +42319,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42317,10 +42331,10 @@
       <c r="G6" s="71"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="285" t="s">
+      <c r="A7" s="270" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="286"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42339,10 +42353,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="265" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="264"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42401,10 +42415,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="265" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="264"/>
+      <c r="C12" s="266"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42418,10 +42432,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="265" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="264"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42435,10 +42449,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="265" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="264"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42452,10 +42466,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="313" t="s">
+      <c r="B15" s="315" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="314"/>
+      <c r="C15" s="316"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42469,10 +42483,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="314" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="315"/>
+      <c r="C16" s="314"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42486,10 +42500,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="314" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="315"/>
+      <c r="C17" s="314"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42509,10 +42523,10 @@
       <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="285" t="s">
+      <c r="A19" s="270" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="286"/>
+      <c r="B19" s="271"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42531,10 +42545,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="264"/>
+      <c r="C20" s="266"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42548,10 +42562,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="263" t="s">
+      <c r="B21" s="265" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="264"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42565,10 +42579,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="314" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="315"/>
+      <c r="C22" s="314"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42582,10 +42596,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="314" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="315"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42599,10 +42613,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="314" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="315"/>
+      <c r="C24" s="314"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42616,10 +42630,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="314" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="315"/>
+      <c r="C25" s="314"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42633,10 +42647,10 @@
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="315" t="s">
+      <c r="B26" s="314" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="315"/>
+      <c r="C26" s="314"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42650,10 +42664,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="314" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="315"/>
+      <c r="C27" s="314"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42667,10 +42681,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="314" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="315"/>
+      <c r="C28" s="314"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42684,10 +42698,10 @@
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="314" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="315"/>
+      <c r="C29" s="314"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42701,10 +42715,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="315" t="s">
+      <c r="B30" s="314" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="315"/>
+      <c r="C30" s="314"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42718,10 +42732,10 @@
       <c r="A31" s="89"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="285" t="s">
+      <c r="A32" s="270" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="286"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42740,10 +42754,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="310" t="s">
+      <c r="B33" s="312" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="310"/>
+      <c r="C33" s="312"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42757,10 +42771,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="316" t="s">
+      <c r="B34" s="313" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="316"/>
+      <c r="C34" s="313"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42774,10 +42788,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="312" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="310"/>
+      <c r="C35" s="312"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42791,10 +42805,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="312" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="310"/>
+      <c r="C36" s="312"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42808,10 +42822,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="310" t="s">
+      <c r="B37" s="312" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="310"/>
+      <c r="C37" s="312"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42825,10 +42839,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="311" t="s">
+      <c r="B38" s="310" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="312"/>
+      <c r="C38" s="311"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42842,10 +42856,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="310" t="s">
+      <c r="B39" s="312" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="310"/>
+      <c r="C39" s="312"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42859,10 +42873,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="311" t="s">
+      <c r="B40" s="310" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="312"/>
+      <c r="C40" s="311"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42876,10 +42890,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="310" t="s">
+      <c r="B41" s="312" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="310"/>
+      <c r="C41" s="312"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42893,10 +42907,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="310" t="s">
+      <c r="B42" s="312" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="310"/>
+      <c r="C42" s="312"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42910,10 +42924,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="310" t="s">
+      <c r="B43" s="312" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="310"/>
+      <c r="C43" s="312"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42927,10 +42941,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="310" t="s">
+      <c r="B44" s="312" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="310"/>
+      <c r="C44" s="312"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42944,10 +42958,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="310" t="s">
+      <c r="B45" s="312" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="310"/>
+      <c r="C45" s="312"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42961,10 +42975,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="311" t="s">
+      <c r="B46" s="310" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="312"/>
+      <c r="C46" s="311"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42978,10 +42992,10 @@
       <c r="A47" s="89"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A48" s="285" t="s">
+      <c r="A48" s="270" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="286"/>
+      <c r="B48" s="271"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -43000,10 +43014,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="310" t="s">
+      <c r="B49" s="312" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="310"/>
+      <c r="C49" s="312"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -43017,10 +43031,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="310" t="s">
+      <c r="B50" s="312" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="310"/>
+      <c r="C50" s="312"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43034,10 +43048,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="312" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="310"/>
+      <c r="C51" s="312"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43051,10 +43065,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="310" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="312"/>
+      <c r="C52" s="311"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43068,10 +43082,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="311" t="s">
+      <c r="B53" s="310" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="312"/>
+      <c r="C53" s="311"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43085,10 +43099,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="310" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="312"/>
+      <c r="C54" s="311"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43102,10 +43116,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="310" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="312"/>
+      <c r="C55" s="311"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43119,10 +43133,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="310" t="s">
+      <c r="B56" s="312" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="310"/>
+      <c r="C56" s="312"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43136,10 +43150,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="312" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="310"/>
+      <c r="C57" s="312"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43153,10 +43167,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="310" t="s">
+      <c r="B58" s="312" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="310"/>
+      <c r="C58" s="312"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43170,10 +43184,10 @@
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="310" t="s">
+      <c r="B59" s="312" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="310"/>
+      <c r="C59" s="312"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43187,10 +43201,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="310" t="s">
+      <c r="B60" s="312" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="310"/>
+      <c r="C60" s="312"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43204,10 +43218,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="310" t="s">
+      <c r="B61" s="312" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="310"/>
+      <c r="C61" s="312"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43221,10 +43235,10 @@
       <c r="A62" s="89"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A63" s="285" t="s">
+      <c r="A63" s="270" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="286"/>
+      <c r="B63" s="271"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43243,10 +43257,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="310" t="s">
+      <c r="B64" s="312" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="310"/>
+      <c r="C64" s="312"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43260,10 +43274,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="310" t="s">
+      <c r="B65" s="312" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="310"/>
+      <c r="C65" s="312"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43277,10 +43291,10 @@
       <c r="A66" s="89"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A67" s="285" t="s">
+      <c r="A67" s="270" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="286"/>
+      <c r="B67" s="271"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43299,10 +43313,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="310" t="s">
+      <c r="B68" s="312" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="310"/>
+      <c r="C68" s="312"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43314,6 +43328,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="A63:B63"/>
@@ -43330,48 +43386,6 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44315,21 +44329,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44546,24 +44545,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44580,4 +44577,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91098F96-5F3D-4C6D-8830-DE04A03611AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B67E4F-435D-42F0-BDBD-630B6CA317AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team &amp; Grade" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="496">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -2602,6 +2602,10 @@
   </si>
   <si>
     <t>Level Editor</t>
+  </si>
+  <si>
+    <t>Using csv files for each language
+Can be changed in runtime if required. Localized Strings are used from scripts directly.</t>
   </si>
 </sst>
 </file>
@@ -4755,161 +4759,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="697" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4919,113 +4780,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5136,11 +4890,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5163,39 +4947,235 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5251,19 +5231,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5287,11 +5285,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5331,19 +5355,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5355,18 +5367,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -5375,8 +5375,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="697" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31088,38 +31092,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="229"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="146"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="227" t="s">
+      <c r="E1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="229"/>
+      <c r="F1" s="146"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="224" t="s">
+      <c r="H1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="226"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="221" t="s">
+      <c r="N1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="223"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="237"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31130,21 +31134,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="233"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="252" t="s">
+      <c r="J3" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="253"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31162,43 +31166,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="246"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="248"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="156" t="s">
+      <c r="N4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="173"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="245"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="240"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="161"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31223,16 +31227,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="168"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="161"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="176"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31245,9 +31249,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31256,9 +31260,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="161"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31271,17 +31275,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="154" t="s">
+      <c r="L8" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="164"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="179"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31297,7 +31301,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="256"/>
+      <c r="L9" s="183"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31359,11 +31363,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="134" t="s">
+      <c r="N11" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="225"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31391,9 +31395,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="228"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31421,9 +31425,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="139"/>
+      <c r="N13" s="226"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="228"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31451,9 +31455,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="228"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31481,9 +31485,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31511,9 +31515,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="139"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31541,9 +31545,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="228"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31571,9 +31575,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="228"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31601,9 +31605,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="228"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31631,9 +31635,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="139"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="228"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31659,9 +31663,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
+      <c r="N21" s="229"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="231"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31674,11 +31678,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="198" t="s">
+      <c r="H22" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31687,11 +31691,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="152" t="s">
+      <c r="N22" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31704,17 +31708,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154" t="s">
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31730,8 +31734,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31758,11 +31762,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="134" t="s">
+      <c r="N25" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="225"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31793,9 +31797,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="139"/>
+      <c r="N26" s="226"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="228"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31824,9 +31828,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="185"/>
-      <c r="P27" s="139"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="228"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31855,9 +31859,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="139"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="228"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31886,9 +31890,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="139"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="228"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31917,9 +31921,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="185"/>
-      <c r="P30" s="139"/>
+      <c r="N30" s="226"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="228"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31943,9 +31947,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31958,10 +31962,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="167" t="s">
+      <c r="H32" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="167"/>
+      <c r="I32" s="245"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31974,20 +31978,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="203"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="213"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="154" t="s">
+      <c r="L33" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -32004,19 +32008,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="155"/>
+      <c r="L34" s="207"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="206"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="216"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32032,21 +32036,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="156" t="s">
+      <c r="N35" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="157"/>
-      <c r="P35" s="158"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="173"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="257" t="s">
+      <c r="A36" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="259"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32060,17 +32064,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="161"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="176"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="260"/>
-      <c r="B37" s="261"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="261"/>
-      <c r="F37" s="262"/>
+      <c r="A37" s="187"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="189"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32084,19 +32088,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="161"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="176"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A38" s="186" t="s">
+    <row r="38" spans="1:16" ht="16.149999999999999" thickBot="1">
+      <c r="A38" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="188"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="140"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32110,74 +32114,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="161"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="176"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="186" t="s">
+      <c r="A39" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="188"/>
-      <c r="H39" s="178" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="140"/>
+      <c r="H39" s="256" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="178"/>
-      <c r="J39" s="165" t="s">
+      <c r="I39" s="256"/>
+      <c r="J39" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="165"/>
+      <c r="K39" s="243"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="164"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="179"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="188"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="140"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="244"/>
+      <c r="K40" s="244"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="188"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="140"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="188"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="140"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32191,19 +32195,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="169" t="s">
+      <c r="N42" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="180"/>
-      <c r="P42" s="181"/>
+      <c r="O42" s="258"/>
+      <c r="P42" s="259"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="189"/>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="191"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="203"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32217,94 +32221,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="182"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="184"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="261"/>
+      <c r="P43" s="262"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="154" t="s">
+      <c r="L44" s="182" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="215" t="s">
+      <c r="A45" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="217"/>
-      <c r="L45" s="155"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="194"/>
+      <c r="L45" s="207"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="192" t="s">
+      <c r="A46" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="193"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="194"/>
-      <c r="H46" s="143" t="s">
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="197"/>
+      <c r="H46" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="207">
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="217">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="208"/>
-      <c r="N46" s="169" t="s">
+      <c r="L46" s="218"/>
+      <c r="N46" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="170"/>
-      <c r="P46" s="171"/>
+      <c r="O46" s="248"/>
+      <c r="P46" s="249"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="195"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="197"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="210"/>
-      <c r="N47" s="172"/>
-      <c r="O47" s="173"/>
-      <c r="P47" s="174"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="206"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="236"/>
+      <c r="J47" s="237"/>
+      <c r="K47" s="219"/>
+      <c r="L47" s="220"/>
+      <c r="N47" s="250"/>
+      <c r="O47" s="251"/>
+      <c r="P47" s="252"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="192" t="s">
+      <c r="A48" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="194"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="211"/>
-      <c r="L48" s="212"/>
-      <c r="N48" s="175"/>
-      <c r="O48" s="176"/>
-      <c r="P48" s="177"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="197"/>
+      <c r="H48" s="238"/>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="221"/>
+      <c r="L48" s="222"/>
+      <c r="N48" s="253"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="255"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="192" t="s">
+      <c r="A49" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="194"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="197"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32312,14 +32316,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="194"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="197"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32327,14 +32331,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="218" t="s">
+      <c r="A51" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="220"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="200"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32342,14 +32346,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="213" t="s">
+      <c r="A52" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213"/>
-      <c r="F52" s="213"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32357,12 +32361,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="214"/>
-      <c r="B53" s="214"/>
-      <c r="C53" s="214"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="214"/>
-      <c r="F53" s="214"/>
+      <c r="A53" s="191"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32381,6 +32385,37 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32397,37 +32432,6 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32477,12 +32481,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32499,11 +32503,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="269" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32512,14 +32516,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="280"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32528,12 +32532,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32542,12 +32546,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32556,12 +32560,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="280"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="272"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32570,18 +32574,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+      <c r="A7" s="276"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="274"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="268"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32592,11 +32596,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="270" t="s">
+    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="286" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32612,17 +32616,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32631,10 +32635,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32648,10 +32652,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32665,10 +32669,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32678,17 +32682,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1">
+    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32697,10 +32701,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="264" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32714,10 +32718,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32731,10 +32735,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="264" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32744,17 +32748,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1">
+    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32763,10 +32767,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="264" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32780,10 +32784,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32797,10 +32801,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32810,17 +32814,17 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1">
+    <row r="26" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A26" s="108" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="263" t="s">
+      <c r="E26" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="264"/>
+      <c r="F26" s="280"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32829,10 +32833,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="266"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32846,10 +32850,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32863,10 +32867,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32876,17 +32880,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="264"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32895,10 +32899,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32912,10 +32916,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32929,10 +32933,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="266"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32946,10 +32950,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32959,17 +32963,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1">
+    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="263" t="s">
+      <c r="E37" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="264"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32978,10 +32982,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32995,10 +32999,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="264" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="266"/>
+      <c r="C39" s="265"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -33008,17 +33012,17 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="41" spans="1:7" ht="19.5" thickBot="1">
+    <row r="41" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A41" s="108" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="263" t="s">
+      <c r="E41" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="264"/>
+      <c r="F41" s="280"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33027,10 +33031,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="265" t="s">
+      <c r="B42" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="266"/>
+      <c r="C42" s="265"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33044,10 +33048,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="265" t="s">
+      <c r="B43" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="266"/>
+      <c r="C43" s="265"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33061,10 +33065,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="264" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="266"/>
+      <c r="C44" s="265"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33078,10 +33082,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="265" t="s">
+      <c r="B45" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="266"/>
+      <c r="C45" s="265"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33093,14 +33097,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33112,21 +33123,14 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34988,12 +34992,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -35010,11 +35014,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="269" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35023,14 +35027,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="280"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35039,12 +35043,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="279"/>
-      <c r="C4" s="280"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35053,12 +35057,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="280"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35067,12 +35071,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="280"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="272"/>
+      <c r="B6" s="273"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35081,18 +35085,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="267"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="290"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="292"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="289"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="295"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35103,12 +35107,12 @@
       <c r="F8" s="118"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="270" t="s">
+    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="286" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="287"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35122,17 +35126,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35141,10 +35145,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35154,17 +35158,17 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1">
+    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A14" s="108" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="263" t="s">
+      <c r="E14" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="264"/>
+      <c r="F14" s="280"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35173,10 +35177,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="264" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="265"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35190,10 +35194,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="288" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="266"/>
+      <c r="C16" s="265"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35207,10 +35211,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="288" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35220,17 +35224,17 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1">
+    <row r="19" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A19" s="108" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="263" t="s">
+      <c r="E19" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="264"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35239,10 +35243,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="290" t="s">
+      <c r="B20" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35256,10 +35260,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35269,17 +35273,17 @@
       </c>
       <c r="G21" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1">
+    <row r="23" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A23" s="108" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="263" t="s">
+      <c r="E23" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="264"/>
+      <c r="F23" s="280"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35288,10 +35292,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35305,10 +35309,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="288" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35318,17 +35322,17 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1">
+    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="263" t="s">
+      <c r="E27" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35337,10 +35341,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35354,10 +35358,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35367,17 +35371,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="264"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35386,10 +35390,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="290" t="s">
+      <c r="B32" s="288" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35399,17 +35403,17 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="263" t="s">
+      <c r="E34" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="264"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35418,10 +35422,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="290" t="s">
+      <c r="B35" s="288" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35431,17 +35435,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1">
+    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="263" t="s">
+      <c r="E37" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="264"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35450,10 +35454,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35736,12 +35740,16 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B17:C17"/>
@@ -35752,16 +35760,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37174,12 +37178,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37196,11 +37200,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="269" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37209,14 +37213,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37225,12 +37229,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37239,12 +37243,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37253,12 +37257,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="278"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="280"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="272"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37267,18 +37271,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="267"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="276"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="274"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="268"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37290,11 +37294,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="286" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="271"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="287"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37309,17 +37313,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37328,10 +37332,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37345,10 +37349,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="264" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37362,10 +37366,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="264" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37376,17 +37380,17 @@
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1">
+    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37395,10 +37399,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37412,10 +37416,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="264" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37429,10 +37433,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="264" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37443,17 +37447,17 @@
       <c r="G19" s="70"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1">
+    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37462,10 +37466,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="264" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37479,10 +37483,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="264" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37496,10 +37500,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="264" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37513,10 +37517,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="264" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37527,17 +37531,17 @@
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1">
+    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="263" t="s">
+      <c r="E27" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37546,10 +37550,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="264" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37560,17 +37564,17 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1">
+    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="263" t="s">
+      <c r="E30" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="264"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37579,10 +37583,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="264" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="266"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37596,10 +37600,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="264" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37610,17 +37614,17 @@
       <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>215</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="263" t="s">
+      <c r="E34" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="264"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37629,10 +37633,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="264" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37646,10 +37650,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="295" t="s">
+      <c r="B36" s="296" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="296"/>
+      <c r="C36" s="297"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -37661,6 +37665,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37671,22 +37691,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38622,8 +38626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38637,18 +38641,18 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="76" t="str">
         <f>""&amp;COUNTIF(E$9:E$122,"Untested")&amp;" Untested"</f>
-        <v>8 Untested</v>
+        <v>7 Untested</v>
       </c>
       <c r="F1" s="76" t="str">
         <f>""&amp;COUNTIF(F$9:F$122,"Untested")&amp;" Untested"</f>
@@ -38659,11 +38663,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="302" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="299"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="304"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38672,14 +38676,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="300"/>
-      <c r="B3" s="301"/>
-      <c r="C3" s="302"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="305"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="307"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38688,12 +38692,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="302"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="307"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38702,12 +38706,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="300"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="302"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="305"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="307"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38716,12 +38720,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="308"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="310"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38730,17 +38734,17 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="268"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A7" s="129"/>
       <c r="B7" s="129"/>
       <c r="C7" s="129"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38752,11 +38756,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="270" t="s">
+    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38771,17 +38775,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38790,10 +38794,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="264" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70" t="s">
         <v>478</v>
       </c>
@@ -38809,10 +38813,10 @@
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="264" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70" t="s">
         <v>479</v>
       </c>
@@ -38828,10 +38832,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="264" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70" t="s">
         <v>480</v>
       </c>
@@ -38847,10 +38851,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="265"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38864,10 +38868,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="265" t="s">
+      <c r="B16" s="264" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="266"/>
+      <c r="C16" s="265"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38881,13 +38885,15 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="264" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="70" t="s">
+        <v>495</v>
+      </c>
       <c r="E17" s="68" t="s">
-        <v>100</v>
+        <v>453</v>
       </c>
       <c r="F17" s="68" t="s">
         <v>100</v>
@@ -38898,10 +38904,10 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="264" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="266"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70" t="s">
         <v>493</v>
       </c>
@@ -38917,10 +38923,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="264" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38934,10 +38940,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38951,11 +38957,11 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="308" t="s">
+      <c r="B21" s="300" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="309"/>
-      <c r="D21" s="317" t="s">
+      <c r="C21" s="301"/>
+      <c r="D21" s="134" t="s">
         <v>390</v>
       </c>
       <c r="E21" s="68" t="s">
@@ -38970,10 +38976,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="264" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="266"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38987,10 +38993,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="266"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -39004,10 +39010,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="264" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="266"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>453</v>
@@ -39021,10 +39027,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="265" t="s">
+      <c r="B25" s="264" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="266"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>453</v>
@@ -39038,10 +39044,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="265" t="s">
+      <c r="B26" s="264" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="266"/>
+      <c r="C26" s="265"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39055,10 +39061,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="265" t="s">
+      <c r="B27" s="264" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="266"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39072,10 +39078,10 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="264" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="266"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70" t="s">
         <v>494</v>
       </c>
@@ -39087,17 +39093,17 @@
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1">
+    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>397</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="263" t="s">
+      <c r="E30" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="264"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39106,10 +39112,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="306" t="s">
+      <c r="B31" s="298" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="307"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="70" t="s">
         <v>488</v>
       </c>
@@ -39125,10 +39131,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="264" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70" t="s">
         <v>485</v>
       </c>
@@ -39144,10 +39150,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="264" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39163,10 +39169,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="265" t="s">
+      <c r="B34" s="264" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="266"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39182,10 +39188,10 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="264" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="266"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70" t="s">
         <v>487</v>
       </c>
@@ -39201,10 +39207,10 @@
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="264" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="266"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39220,10 +39226,10 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="265" t="s">
+      <c r="B37" s="264" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="266"/>
+      <c r="C37" s="265"/>
       <c r="D37" s="70" t="s">
         <v>484</v>
       </c>
@@ -39239,10 +39245,10 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="264" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="266"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70" t="s">
         <v>486</v>
       </c>
@@ -39254,17 +39260,17 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="40" spans="1:7" ht="19.5" thickBot="1">
+    <row r="40" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A40" s="108" t="s">
         <v>445</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="263" t="s">
+      <c r="E40" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="264"/>
+      <c r="F40" s="280"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
@@ -39273,10 +39279,10 @@
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="306" t="s">
+      <c r="B41" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="307"/>
+      <c r="C41" s="299"/>
       <c r="D41" s="70" t="s">
         <v>489</v>
       </c>
@@ -39292,10 +39298,10 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="306" t="s">
+      <c r="B42" s="298" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="307"/>
+      <c r="C42" s="299"/>
       <c r="D42" s="70" t="s">
         <v>490</v>
       </c>
@@ -39311,10 +39317,10 @@
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="306" t="s">
+      <c r="B43" s="298" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="307"/>
+      <c r="C43" s="299"/>
       <c r="D43" s="70" t="s">
         <v>491</v>
       </c>
@@ -39330,10 +39336,10 @@
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="306" t="s">
+      <c r="B44" s="298" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="307"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="70" t="s">
         <v>492</v>
       </c>
@@ -39345,17 +39351,17 @@
       </c>
       <c r="G44" s="70"/>
     </row>
-    <row r="46" spans="1:7" ht="19.5" thickBot="1">
+    <row r="46" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A46" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="263" t="s">
+      <c r="E46" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="264"/>
+      <c r="F46" s="280"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39364,10 +39370,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="265" t="s">
+      <c r="B47" s="264" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="266"/>
+      <c r="C47" s="265"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39381,10 +39387,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="265" t="s">
+      <c r="B48" s="264" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="266"/>
+      <c r="C48" s="265"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39398,10 +39404,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="265" t="s">
+      <c r="B49" s="264" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="266"/>
+      <c r="C49" s="265"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39415,10 +39421,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="265" t="s">
+      <c r="B50" s="264" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="266"/>
+      <c r="C50" s="265"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39432,10 +39438,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="265" t="s">
+      <c r="B51" s="264" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="266"/>
+      <c r="C51" s="265"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39445,17 +39451,17 @@
       </c>
       <c r="G51" s="70"/>
     </row>
-    <row r="53" spans="1:7" ht="19.5" thickBot="1">
+    <row r="53" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A53" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="263" t="s">
+      <c r="E53" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="264"/>
+      <c r="F53" s="280"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39464,10 +39470,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="265" t="s">
+      <c r="B54" s="264" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="266"/>
+      <c r="C54" s="265"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39480,19 +39486,22 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
@@ -39509,22 +39518,19 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40525,12 +40531,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40547,11 +40553,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="269" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40560,14 +40566,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40576,12 +40582,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40590,12 +40596,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="278"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="280"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40604,12 +40610,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="282"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="284"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="276"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="278"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40618,17 +40624,17 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="268"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40641,10 +40647,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="271"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40659,17 +40665,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40678,10 +40684,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="264" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40695,10 +40701,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="264" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40712,10 +40718,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40725,17 +40731,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" s="108" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40744,10 +40750,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="265" t="s">
+      <c r="B17" s="264" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40761,10 +40767,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="306" t="s">
+      <c r="B18" s="298" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="307"/>
+      <c r="C18" s="299"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40778,10 +40784,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="266"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40791,17 +40797,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75">
+    <row r="21" spans="1:7" ht="18">
       <c r="A21" s="108" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="264"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40810,10 +40816,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="306" t="s">
+      <c r="B22" s="298" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="307"/>
+      <c r="C22" s="299"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40827,10 +40833,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="298" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="307"/>
+      <c r="C23" s="299"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40844,10 +40850,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="306" t="s">
+      <c r="B24" s="298" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="307"/>
+      <c r="C24" s="299"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40861,10 +40867,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="306" t="s">
+      <c r="B25" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="307"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40878,10 +40884,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="306" t="s">
+      <c r="B26" s="298" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="307"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40891,17 +40897,17 @@
       </c>
       <c r="G26" s="70"/>
     </row>
-    <row r="28" spans="1:7" ht="18.75">
+    <row r="28" spans="1:7" ht="18">
       <c r="A28" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="263" t="s">
+      <c r="E28" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="264"/>
+      <c r="F28" s="280"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40910,10 +40916,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="265" t="s">
+      <c r="B29" s="264" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="266"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40927,10 +40933,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="265" t="s">
+      <c r="B30" s="264" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="266"/>
+      <c r="C30" s="265"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40944,10 +40950,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="264" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="266"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40961,10 +40967,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="264" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="266"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40978,10 +40984,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="264" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="266"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40991,17 +40997,17 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="19.5" thickBot="1">
+    <row r="35" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A35" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="263" t="s">
+      <c r="E35" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="264"/>
+      <c r="F35" s="280"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -41010,10 +41016,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="264" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="266"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -41026,6 +41032,20 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41039,20 +41059,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41713,12 +41719,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41735,11 +41741,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="269" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41751,14 +41757,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="284"/>
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="278"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41770,7 +41776,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="268"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41781,7 +41787,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A5" s="124" t="s">
         <v>264</v>
       </c>
@@ -41802,8 +41808,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="266"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="265"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41815,8 +41821,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="265"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41828,8 +41834,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="266"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41841,8 +41847,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="266"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="265"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41854,8 +41860,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="266"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="265"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41867,8 +41873,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="266"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="265"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42228,12 +42234,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42250,11 +42256,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="269" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42266,14 +42272,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="278"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="280"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42285,12 +42291,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="273"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="278"/>
-      <c r="B4" s="281"/>
-      <c r="C4" s="280"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42302,12 +42308,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="276"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="278"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42319,7 +42325,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="268"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42330,11 +42336,11 @@
       <c r="F6" s="73"/>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="270" t="s">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="286" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="271"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42353,10 +42359,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="264" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="266"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42370,10 +42376,10 @@
       <c r="A9" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="295" t="s">
+      <c r="B9" s="296" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="296"/>
+      <c r="C9" s="297"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -42392,7 +42398,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A11" s="100" t="s">
         <v>276</v>
       </c>
@@ -42415,10 +42421,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="264" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="266"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42432,10 +42438,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="264" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="266"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42449,10 +42455,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="264" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="266"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42466,10 +42472,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="316"/>
+      <c r="C15" s="315"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42483,10 +42489,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="314" t="s">
+      <c r="B16" s="316" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="314"/>
+      <c r="C16" s="316"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42500,10 +42506,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="314" t="s">
+      <c r="B17" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="314"/>
+      <c r="C17" s="316"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42522,11 +42528,11 @@
       <c r="F18" s="73"/>
       <c r="G18" s="71"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="270" t="s">
+    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A19" s="286" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="271"/>
+      <c r="B19" s="287"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42545,10 +42551,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="264" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="266"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42562,10 +42568,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="265" t="s">
+      <c r="B21" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="266"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42579,10 +42585,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="314" t="s">
+      <c r="B22" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="314"/>
+      <c r="C22" s="316"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42596,10 +42602,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="314" t="s">
+      <c r="B23" s="316" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="314"/>
+      <c r="C23" s="316"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42613,10 +42619,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="314" t="s">
+      <c r="B24" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="314"/>
+      <c r="C24" s="316"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42630,10 +42636,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="316" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="314"/>
+      <c r="C25" s="316"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42643,14 +42649,14 @@
       </c>
       <c r="G25" s="86"/>
     </row>
-    <row r="26" spans="1:7" ht="39" thickBot="1">
+    <row r="26" spans="1:7" ht="39.75" thickBot="1">
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="314" t="s">
+      <c r="B26" s="316" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="314"/>
+      <c r="C26" s="316"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42664,10 +42670,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="314" t="s">
+      <c r="B27" s="316" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="314"/>
+      <c r="C27" s="316"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42681,10 +42687,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="314" t="s">
+      <c r="B28" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="314"/>
+      <c r="C28" s="316"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42694,14 +42700,14 @@
       </c>
       <c r="G28" s="86"/>
     </row>
-    <row r="29" spans="1:7" ht="39" thickBot="1">
+    <row r="29" spans="1:7" ht="39.75" thickBot="1">
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="314" t="s">
+      <c r="B29" s="316" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="314"/>
+      <c r="C29" s="316"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42715,10 +42721,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="314" t="s">
+      <c r="B30" s="316" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="314"/>
+      <c r="C30" s="316"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42731,11 +42737,11 @@
     <row r="31" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A31" s="89"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="270" t="s">
+    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A32" s="286" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="271"/>
+      <c r="B32" s="287"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42754,10 +42760,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="312" t="s">
+      <c r="B33" s="311" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="312"/>
+      <c r="C33" s="311"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42771,10 +42777,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="313" t="s">
+      <c r="B34" s="317" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="313"/>
+      <c r="C34" s="317"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42788,10 +42794,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="312" t="s">
+      <c r="B35" s="311" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="312"/>
+      <c r="C35" s="311"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42805,10 +42811,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="311" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="312"/>
+      <c r="C36" s="311"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42822,10 +42828,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="312" t="s">
+      <c r="B37" s="311" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="312"/>
+      <c r="C37" s="311"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42839,10 +42845,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="312" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="311"/>
+      <c r="C38" s="313"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42856,10 +42862,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="312" t="s">
+      <c r="B39" s="311" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="312"/>
+      <c r="C39" s="311"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42873,10 +42879,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="310" t="s">
+      <c r="B40" s="312" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="311"/>
+      <c r="C40" s="313"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42890,10 +42896,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="312" t="s">
+      <c r="B41" s="311" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="312"/>
+      <c r="C41" s="311"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42907,10 +42913,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="312" t="s">
+      <c r="B42" s="311" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="312"/>
+      <c r="C42" s="311"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42924,10 +42930,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="312" t="s">
+      <c r="B43" s="311" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="312"/>
+      <c r="C43" s="311"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42941,10 +42947,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="312" t="s">
+      <c r="B44" s="311" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="312"/>
+      <c r="C44" s="311"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42958,10 +42964,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="312" t="s">
+      <c r="B45" s="311" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="312"/>
+      <c r="C45" s="311"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42975,10 +42981,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="310" t="s">
+      <c r="B46" s="312" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="311"/>
+      <c r="C46" s="313"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42991,11 +42997,11 @@
     <row r="47" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A47" s="89"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A48" s="270" t="s">
+    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A48" s="286" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="271"/>
+      <c r="B48" s="287"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -43014,10 +43020,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="311" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="312"/>
+      <c r="C49" s="311"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -43031,10 +43037,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="311" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="312"/>
+      <c r="C50" s="311"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43048,10 +43054,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="312" t="s">
+      <c r="B51" s="311" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="312"/>
+      <c r="C51" s="311"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43065,10 +43071,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="312" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="311"/>
+      <c r="C52" s="313"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43082,10 +43088,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="312" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="311"/>
+      <c r="C53" s="313"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43099,10 +43105,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="310" t="s">
+      <c r="B54" s="312" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="311"/>
+      <c r="C54" s="313"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43116,10 +43122,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="310" t="s">
+      <c r="B55" s="312" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="311"/>
+      <c r="C55" s="313"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43133,10 +43139,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="312" t="s">
+      <c r="B56" s="311" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="312"/>
+      <c r="C56" s="311"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43150,10 +43156,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="311" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="312"/>
+      <c r="C57" s="311"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43167,10 +43173,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="312" t="s">
+      <c r="B58" s="311" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="312"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43180,14 +43186,14 @@
       </c>
       <c r="G58" s="90"/>
     </row>
-    <row r="59" spans="1:7" ht="26.25" thickBot="1">
+    <row r="59" spans="1:7" ht="26.65" thickBot="1">
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="311" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="312"/>
+      <c r="C59" s="311"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43201,10 +43207,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="312" t="s">
+      <c r="B60" s="311" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="312"/>
+      <c r="C60" s="311"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43218,10 +43224,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="312" t="s">
+      <c r="B61" s="311" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="312"/>
+      <c r="C61" s="311"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43234,11 +43240,11 @@
     <row r="62" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A62" s="89"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A63" s="270" t="s">
+    <row r="63" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A63" s="286" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="271"/>
+      <c r="B63" s="287"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43257,10 +43263,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="312" t="s">
+      <c r="B64" s="311" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="312"/>
+      <c r="C64" s="311"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43274,10 +43280,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="312" t="s">
+      <c r="B65" s="311" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="312"/>
+      <c r="C65" s="311"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43290,11 +43296,11 @@
     <row r="66" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A66" s="89"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A67" s="270" t="s">
+    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A67" s="286" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="271"/>
+      <c r="B67" s="287"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43313,10 +43319,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="311" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="312"/>
+      <c r="C68" s="311"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43328,6 +43334,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="B68:C68"/>
@@ -43344,48 +43392,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44156,7 +44162,7 @@
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.75">
+    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.4">
       <c r="A1" s="133" t="s">
         <v>427</v>
       </c>
@@ -44329,6 +44335,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44545,22 +44566,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44577,21 +44600,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aleksey\DigiPen\year5\Fall\Gam550\repo\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B67E4F-435D-42F0-BDBD-630B6CA317AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B402D-0B0B-4F87-A581-88D7D081CEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team &amp; Grade" sheetId="1" r:id="rId1"/>
@@ -2589,15 +2589,6 @@
     <t>We are using Semi Implicit Euler method for calculating velocity and position each frame, and Gaus Seidel method when solving for constraints. We are also have Rigid  bodies.</t>
   </si>
   <si>
-    <t>we have torque computation</t>
-  </si>
-  <si>
-    <t>We do have gravity, and mass based collision responses. We also have friction.</t>
-  </si>
-  <si>
-    <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other. We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
-  </si>
-  <si>
     <t>Input thread &amp; Resources Loading Thread &amp; Main Thread</t>
   </si>
   <si>
@@ -2606,6 +2597,15 @@
   <si>
     <t>Using csv files for each language
 Can be changed in runtime if required. Localized Strings are used from scripts directly.</t>
+  </si>
+  <si>
+    <t>Convex objects collision detection, static objects given infinite mass and not updated for gravity.</t>
+  </si>
+  <si>
+    <t>We do have gravity, airdrag, and mass based collision responses. We also have friction.</t>
+  </si>
+  <si>
+    <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other, this is also used for raycasting (mouse select). We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
   </si>
 </sst>
 </file>
@@ -4763,14 +4763,161 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4780,6 +4927,113 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4890,41 +5144,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4947,235 +5171,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5231,37 +5259,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5285,37 +5295,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5355,7 +5339,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5367,20 +5363,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31092,38 +31092,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="230"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="146"/>
+      <c r="F1" s="230"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="227"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="135" t="s">
+      <c r="N1" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="136"/>
-      <c r="P1" s="137"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="224"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="233"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31134,21 +31134,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="169" t="s">
+      <c r="J3" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="170"/>
+      <c r="K3" s="254"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31166,43 +31166,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="165"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="249"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="171" t="s">
+      <c r="N4" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="172"/>
-      <c r="P4" s="173"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="159"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="162"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="159"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="243"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="176"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31227,16 +31227,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168"/>
+      <c r="I6" s="250"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="176"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="162"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31249,9 +31249,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31260,9 +31260,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="176"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31275,17 +31275,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="182" t="s">
+      <c r="L8" s="155" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="179"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31301,7 +31301,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="183"/>
+      <c r="L9" s="257"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31363,11 +31363,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="223" t="s">
+      <c r="N11" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="224"/>
-      <c r="P11" s="225"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31395,9 +31395,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="226"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="228"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="140"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31425,9 +31425,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="226"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="228"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="140"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31455,9 +31455,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="226"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="228"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="140"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31485,9 +31485,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="228"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="140"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31515,9 +31515,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="226"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="228"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="140"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31545,9 +31545,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="228"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="140"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31575,9 +31575,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="228"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="140"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31605,9 +31605,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="226"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="228"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="140"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31635,9 +31635,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="228"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="140"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31663,9 +31663,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="229"/>
-      <c r="O21" s="230"/>
-      <c r="P21" s="231"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="143"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31678,11 +31678,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="208" t="s">
+      <c r="H22" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31691,11 +31691,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="241" t="s">
+      <c r="N22" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31708,17 +31708,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182" t="s">
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="242"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31734,8 +31734,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31762,11 +31762,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="223" t="s">
+      <c r="N25" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="224"/>
-      <c r="P25" s="225"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31797,9 +31797,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="226"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="228"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="140"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31828,9 +31828,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="228"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="140"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31859,9 +31859,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="226"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="228"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="140"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31890,9 +31890,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="226"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="228"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="140"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31921,9 +31921,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="226"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="228"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="140"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31947,9 +31947,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="231"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="143"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31962,10 +31962,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="245" t="s">
+      <c r="H32" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="245"/>
+      <c r="I32" s="168"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31978,20 +31978,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="209" t="s">
+      <c r="A33" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="213"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="246"/>
-      <c r="I33" s="246"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="182" t="s">
+      <c r="L33" s="155" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -32008,19 +32008,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="207"/>
+      <c r="L34" s="156"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="216"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="207"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32036,21 +32036,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="171" t="s">
+      <c r="N35" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="172"/>
-      <c r="P35" s="173"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="159"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="184" t="s">
+      <c r="A36" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="185"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="186"/>
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32064,17 +32064,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="176"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="161"/>
+      <c r="P36" s="162"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="187"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="189"/>
+      <c r="A37" s="261"/>
+      <c r="B37" s="262"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="262"/>
+      <c r="F37" s="263"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32088,19 +32088,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="176"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="162"/>
     </row>
-    <row r="38" spans="1:16" ht="16.149999999999999" thickBot="1">
-      <c r="A38" s="138" t="s">
+    <row r="38" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A38" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="140"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="189"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32114,74 +32114,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="176"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140"/>
-      <c r="H39" s="256" t="s">
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="189"/>
+      <c r="H39" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="256"/>
-      <c r="J39" s="243" t="s">
+      <c r="I39" s="179"/>
+      <c r="J39" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="243"/>
+      <c r="K39" s="166"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="179"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="165"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="257"/>
-      <c r="J40" s="244"/>
-      <c r="K40" s="244"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="189"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="138" t="s">
+      <c r="A41" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="189"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="189"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32195,19 +32195,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="247" t="s">
+      <c r="N42" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="258"/>
-      <c r="P42" s="259"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="182"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="201"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="202"/>
-      <c r="E43" s="202"/>
-      <c r="F43" s="203"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="192"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32221,94 +32221,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="260"/>
-      <c r="O43" s="261"/>
-      <c r="P43" s="262"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="184"/>
+      <c r="P43" s="185"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="182" t="s">
+      <c r="L44" s="155" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="194"/>
-      <c r="L45" s="207"/>
+      <c r="B45" s="217"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="218"/>
+      <c r="L45" s="156"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="195" t="s">
+      <c r="A46" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="197"/>
-      <c r="H46" s="232" t="s">
+      <c r="B46" s="194"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="195"/>
+      <c r="H46" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
-      <c r="K46" s="217">
+      <c r="I46" s="145"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="208">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="218"/>
-      <c r="N46" s="247" t="s">
+      <c r="L46" s="209"/>
+      <c r="N46" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="248"/>
-      <c r="P46" s="249"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="172"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="206"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="236"/>
-      <c r="J47" s="237"/>
-      <c r="K47" s="219"/>
-      <c r="L47" s="220"/>
-      <c r="N47" s="250"/>
-      <c r="O47" s="251"/>
-      <c r="P47" s="252"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="198"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="211"/>
+      <c r="N47" s="173"/>
+      <c r="O47" s="174"/>
+      <c r="P47" s="175"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="196"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="197"/>
-      <c r="H48" s="238"/>
-      <c r="I48" s="239"/>
-      <c r="J48" s="240"/>
-      <c r="K48" s="221"/>
-      <c r="L48" s="222"/>
-      <c r="N48" s="253"/>
-      <c r="O48" s="254"/>
-      <c r="P48" s="255"/>
+      <c r="B48" s="194"/>
+      <c r="C48" s="194"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="195"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="213"/>
+      <c r="N48" s="176"/>
+      <c r="O48" s="177"/>
+      <c r="P48" s="178"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="195" t="s">
+      <c r="A49" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="196"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="197"/>
+      <c r="B49" s="194"/>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="195"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32316,14 +32316,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="195" t="s">
+      <c r="A50" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="197"/>
+      <c r="B50" s="194"/>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="195"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32331,14 +32331,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="198" t="s">
+      <c r="A51" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="199"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="199"/>
-      <c r="F51" s="200"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="221"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32346,14 +32346,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="190" t="s">
+      <c r="A52" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="190"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="190"/>
-      <c r="E52" s="190"/>
-      <c r="F52" s="190"/>
+      <c r="B52" s="214"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="214"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32361,12 +32361,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="191"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
+      <c r="A53" s="215"/>
+      <c r="B53" s="215"/>
+      <c r="C53" s="215"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32385,37 +32385,6 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32432,6 +32401,37 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32481,12 +32481,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32503,11 +32503,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32516,14 +32516,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32532,12 +32532,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32546,12 +32546,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32560,12 +32560,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="274"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="279"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="281"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32574,18 +32574,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="276"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="285"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="268"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="275"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32596,11 +32596,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="286" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="271" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="287"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32616,17 +32616,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32635,10 +32635,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32652,10 +32652,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32669,10 +32669,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32682,17 +32682,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="265"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32701,10 +32701,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32718,10 +32718,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="265"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32735,10 +32735,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32748,17 +32748,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="279" t="s">
+      <c r="E21" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="265"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32767,10 +32767,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="265"/>
+      <c r="C22" s="267"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32784,10 +32784,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="265"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32801,10 +32801,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="266" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32814,17 +32814,17 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="19.5" thickBot="1">
       <c r="A26" s="108" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="279" t="s">
+      <c r="E26" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="280"/>
+      <c r="F26" s="265"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32833,10 +32833,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="265"/>
+      <c r="C27" s="267"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32850,10 +32850,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="266" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32867,10 +32867,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="264" t="s">
+      <c r="B29" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32880,17 +32880,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="279" t="s">
+      <c r="E31" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="280"/>
+      <c r="F31" s="265"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32899,10 +32899,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32916,10 +32916,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32933,10 +32933,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="264" t="s">
+      <c r="B34" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="265"/>
+      <c r="C34" s="267"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32950,10 +32950,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="266" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32963,17 +32963,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="279" t="s">
+      <c r="E37" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="280"/>
+      <c r="F37" s="265"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32982,10 +32982,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="267"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32999,10 +32999,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="266" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="265"/>
+      <c r="C39" s="267"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -33012,17 +33012,17 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="41" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="41" spans="1:7" ht="19.5" thickBot="1">
       <c r="A41" s="108" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="279" t="s">
+      <c r="E41" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="280"/>
+      <c r="F41" s="265"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33031,10 +33031,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="264" t="s">
+      <c r="B42" s="266" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="265"/>
+      <c r="C42" s="267"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33048,10 +33048,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="264" t="s">
+      <c r="B43" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="265"/>
+      <c r="C43" s="267"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33065,10 +33065,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="264" t="s">
+      <c r="B44" s="266" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="265"/>
+      <c r="C44" s="267"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33082,10 +33082,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="264" t="s">
+      <c r="B45" s="266" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="265"/>
+      <c r="C45" s="267"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33097,21 +33097,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33123,14 +33116,21 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34992,12 +34992,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -35014,11 +35014,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35027,14 +35027,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35043,12 +35043,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="273"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35057,12 +35057,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35071,12 +35071,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="273"/>
-      <c r="C6" s="274"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="279"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="281"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35085,18 +35085,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="290"/>
-      <c r="B7" s="291"/>
-      <c r="C7" s="292"/>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="293"/>
+      <c r="B7" s="294"/>
+      <c r="C7" s="295"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="295"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="290"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35107,12 +35107,12 @@
       <c r="F8" s="118"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="286" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="271" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="287"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="272"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35126,17 +35126,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35145,10 +35145,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35158,17 +35158,17 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1">
       <c r="A14" s="108" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="279" t="s">
+      <c r="E14" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="280"/>
+      <c r="F14" s="265"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35177,10 +35177,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="264" t="s">
+      <c r="B15" s="266" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="265"/>
+      <c r="C15" s="267"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35194,10 +35194,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="288" t="s">
+      <c r="B16" s="291" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="265"/>
+      <c r="C16" s="267"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35211,10 +35211,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="288" t="s">
+      <c r="B17" s="291" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35224,17 +35224,17 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1">
       <c r="A19" s="108" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="279" t="s">
+      <c r="E19" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="280"/>
+      <c r="F19" s="265"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35243,10 +35243,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="288" t="s">
+      <c r="B20" s="291" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="265"/>
+      <c r="C20" s="267"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35260,10 +35260,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="288" t="s">
+      <c r="B21" s="291" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="265"/>
+      <c r="C21" s="267"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35273,17 +35273,17 @@
       </c>
       <c r="G21" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="19.5" thickBot="1">
       <c r="A23" s="108" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="279" t="s">
+      <c r="E23" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="280"/>
+      <c r="F23" s="265"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35292,10 +35292,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="288" t="s">
+      <c r="B24" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35309,10 +35309,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="288" t="s">
+      <c r="B25" s="291" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="267"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35322,17 +35322,17 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="279" t="s">
+      <c r="E27" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="280"/>
+      <c r="F27" s="265"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35341,10 +35341,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35358,10 +35358,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="288" t="s">
+      <c r="B29" s="291" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35371,17 +35371,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="279" t="s">
+      <c r="E31" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="280"/>
+      <c r="F31" s="265"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35390,10 +35390,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="288" t="s">
+      <c r="B32" s="291" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35403,17 +35403,17 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="279" t="s">
+      <c r="E34" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="280"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35422,10 +35422,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35435,17 +35435,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="279" t="s">
+      <c r="E37" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="280"/>
+      <c r="F37" s="265"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35454,10 +35454,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="266" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="267"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35740,6 +35740,22 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E7:F7"/>
@@ -35750,22 +35766,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37178,12 +37178,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37200,11 +37200,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37213,14 +37213,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37229,12 +37229,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37243,12 +37243,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37257,12 +37257,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="274"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="279"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="281"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37271,18 +37271,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="276"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="283"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="285"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="268"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="275"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37294,11 +37294,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="271" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="287"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="272"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37313,17 +37313,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37332,10 +37332,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37349,10 +37349,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37366,10 +37366,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37380,17 +37380,17 @@
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="265"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37399,10 +37399,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37416,10 +37416,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="266" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="265"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37433,10 +37433,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37447,17 +37447,17 @@
       <c r="G19" s="70"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="279" t="s">
+      <c r="E21" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="265"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37466,10 +37466,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="266" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="265"/>
+      <c r="C22" s="267"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37483,10 +37483,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="266" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="265"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37500,10 +37500,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="266" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37517,10 +37517,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="264" t="s">
+      <c r="B25" s="266" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="267"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37531,17 +37531,17 @@
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="279" t="s">
+      <c r="E27" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="280"/>
+      <c r="F27" s="265"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37550,10 +37550,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37564,17 +37564,17 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="279" t="s">
+      <c r="E30" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="280"/>
+      <c r="F30" s="265"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37583,10 +37583,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="266" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="265"/>
+      <c r="C31" s="267"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37600,10 +37600,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37614,17 +37614,17 @@
       <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>215</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="279" t="s">
+      <c r="E34" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="280"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37633,10 +37633,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="266" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37665,22 +37665,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37691,6 +37675,22 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38626,8 +38626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38641,12 +38641,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -38663,11 +38663,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="298" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="304"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="300"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38676,14 +38676,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="305"/>
-      <c r="B3" s="306"/>
-      <c r="C3" s="307"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="301"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="303"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38692,12 +38692,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="305"/>
-      <c r="B4" s="306"/>
-      <c r="C4" s="307"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="301"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="303"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38706,12 +38706,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="305"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="307"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="301"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="303"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38720,12 +38720,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="308"/>
-      <c r="B6" s="309"/>
-      <c r="C6" s="310"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="304"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="306"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38734,17 +38734,17 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="268"/>
+      <c r="G6" s="275"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="129"/>
       <c r="B7" s="129"/>
       <c r="C7" s="129"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38756,11 +38756,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="286" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="271" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="287"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38775,17 +38775,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38794,10 +38794,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70" t="s">
         <v>478</v>
       </c>
@@ -38813,10 +38813,10 @@
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70" t="s">
         <v>479</v>
       </c>
@@ -38832,10 +38832,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70" t="s">
         <v>480</v>
       </c>
@@ -38851,10 +38851,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="264" t="s">
+      <c r="B15" s="266" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="265"/>
+      <c r="C15" s="267"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38868,10 +38868,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="264" t="s">
+      <c r="B16" s="266" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="265"/>
+      <c r="C16" s="267"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38885,12 +38885,12 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>453</v>
@@ -38904,12 +38904,12 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="266" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="265"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="70" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>454</v>
@@ -38923,10 +38923,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38940,10 +38940,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="266" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="265"/>
+      <c r="C20" s="267"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38957,10 +38957,10 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="300" t="s">
+      <c r="B21" s="309" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="301"/>
+      <c r="C21" s="310"/>
       <c r="D21" s="134" t="s">
         <v>390</v>
       </c>
@@ -38976,10 +38976,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="266" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="265"/>
+      <c r="C22" s="267"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38993,10 +38993,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="266" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="265"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -39010,10 +39010,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="266" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>453</v>
@@ -39027,10 +39027,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="264" t="s">
+      <c r="B25" s="266" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="267"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>453</v>
@@ -39044,10 +39044,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="264" t="s">
+      <c r="B26" s="266" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="265"/>
+      <c r="C26" s="267"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39061,10 +39061,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="266" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="265"/>
+      <c r="C27" s="267"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39078,12 +39078,12 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="266" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E28" s="68" t="s">
         <v>453</v>
@@ -39093,17 +39093,17 @@
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>397</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="279" t="s">
+      <c r="E30" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="280"/>
+      <c r="F30" s="265"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39112,10 +39112,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="298" t="s">
+      <c r="B31" s="307" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="299"/>
+      <c r="C31" s="308"/>
       <c r="D31" s="70" t="s">
         <v>488</v>
       </c>
@@ -39131,10 +39131,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70" t="s">
         <v>485</v>
       </c>
@@ -39150,10 +39150,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="266" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39169,10 +39169,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="264" t="s">
+      <c r="B34" s="266" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="265"/>
+      <c r="C34" s="267"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39188,10 +39188,10 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="266" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70" t="s">
         <v>487</v>
       </c>
@@ -39207,10 +39207,10 @@
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="266" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="265"/>
+      <c r="C36" s="267"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39226,10 +39226,10 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="266" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="265"/>
+      <c r="C37" s="267"/>
       <c r="D37" s="70" t="s">
         <v>484</v>
       </c>
@@ -39245,10 +39245,10 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="266" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="267"/>
       <c r="D38" s="70" t="s">
         <v>486</v>
       </c>
@@ -39260,29 +39260,29 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="40" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="19.5" thickBot="1">
       <c r="A40" s="108" t="s">
         <v>445</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="279" t="s">
+      <c r="E40" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="280"/>
+      <c r="F40" s="265"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="77.25" thickBot="1">
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="298" t="s">
+      <c r="B41" s="307" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="299"/>
+      <c r="C41" s="308"/>
       <c r="D41" s="70" t="s">
         <v>489</v>
       </c>
@@ -39294,35 +39294,35 @@
       </c>
       <c r="G41" s="70"/>
     </row>
-    <row r="42" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="51.75" thickBot="1">
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="298" t="s">
+      <c r="B42" s="307" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="299"/>
+      <c r="C42" s="308"/>
       <c r="D42" s="70" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="39" thickBot="1">
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="298" t="s">
+      <c r="B43" s="307" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="299"/>
+      <c r="C43" s="308"/>
       <c r="D43" s="70" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>454</v>
@@ -39332,16 +39332,16 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="141" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="307" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="299"/>
+      <c r="C44" s="308"/>
       <c r="D44" s="70" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E44" s="68" t="s">
         <v>454</v>
@@ -39351,17 +39351,17 @@
       </c>
       <c r="G44" s="70"/>
     </row>
-    <row r="46" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="19.5" thickBot="1">
       <c r="A46" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="279" t="s">
+      <c r="E46" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="280"/>
+      <c r="F46" s="265"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39370,10 +39370,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="266" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="265"/>
+      <c r="C47" s="267"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39387,10 +39387,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="264" t="s">
+      <c r="B48" s="266" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="265"/>
+      <c r="C48" s="267"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39404,10 +39404,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="264" t="s">
+      <c r="B49" s="266" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="265"/>
+      <c r="C49" s="267"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39421,10 +39421,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="264" t="s">
+      <c r="B50" s="266" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="265"/>
+      <c r="C50" s="267"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39438,10 +39438,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="264" t="s">
+      <c r="B51" s="266" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="265"/>
+      <c r="C51" s="267"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39451,17 +39451,17 @@
       </c>
       <c r="G51" s="70"/>
     </row>
-    <row r="53" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="53" spans="1:7" ht="19.5" thickBot="1">
       <c r="A53" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="279" t="s">
+      <c r="E53" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="280"/>
+      <c r="F53" s="265"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39470,10 +39470,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="264" t="s">
+      <c r="B54" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="265"/>
+      <c r="C54" s="267"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39486,6 +39486,35 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:C1"/>
@@ -39502,35 +39531,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40531,12 +40531,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40553,11 +40553,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40566,14 +40566,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40582,12 +40582,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40596,12 +40596,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40610,12 +40610,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="276"/>
-      <c r="B6" s="277"/>
-      <c r="C6" s="278"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40624,17 +40624,17 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="268"/>
+      <c r="G6" s="275"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40647,10 +40647,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="271" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="287"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40665,17 +40665,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40684,10 +40684,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40701,10 +40701,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40718,10 +40718,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40731,17 +40731,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16" s="108" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="265"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40750,10 +40750,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40767,10 +40767,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="298" t="s">
+      <c r="B18" s="307" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="299"/>
+      <c r="C18" s="308"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40784,10 +40784,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40797,17 +40797,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:7" ht="18.75">
       <c r="A21" s="108" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="279" t="s">
+      <c r="E21" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="265"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40816,10 +40816,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="298" t="s">
+      <c r="B22" s="307" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="299"/>
+      <c r="C22" s="308"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40833,10 +40833,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="298" t="s">
+      <c r="B23" s="307" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="299"/>
+      <c r="C23" s="308"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40850,10 +40850,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="307" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="299"/>
+      <c r="C24" s="308"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40867,10 +40867,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="307" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="299"/>
+      <c r="C25" s="308"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40884,10 +40884,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="307" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="299"/>
+      <c r="C26" s="308"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40897,17 +40897,17 @@
       </c>
       <c r="G26" s="70"/>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row r="28" spans="1:7" ht="18.75">
       <c r="A28" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="279" t="s">
+      <c r="E28" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="280"/>
+      <c r="F28" s="265"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40916,10 +40916,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="264" t="s">
+      <c r="B29" s="266" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40933,10 +40933,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="264" t="s">
+      <c r="B30" s="266" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="265"/>
+      <c r="C30" s="267"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40950,10 +40950,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="266" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="265"/>
+      <c r="C31" s="267"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40967,10 +40967,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40984,10 +40984,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="266" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40997,17 +40997,17 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="279" t="s">
+      <c r="E35" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="280"/>
+      <c r="F35" s="265"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -41016,10 +41016,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="265"/>
+      <c r="C36" s="267"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -41032,20 +41032,6 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41059,6 +41045,20 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41719,12 +41719,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41741,11 +41741,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41757,14 +41757,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="278"/>
+      <c r="A3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="285"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41776,7 +41776,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="268"/>
+      <c r="G3" s="275"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41787,7 +41787,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="A5" s="124" t="s">
         <v>264</v>
       </c>
@@ -41808,8 +41808,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="267"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41821,8 +41821,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="264"/>
-      <c r="C7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41834,8 +41834,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="267"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41847,8 +41847,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="264"/>
-      <c r="C9" s="265"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="267"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41860,8 +41860,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="265"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="267"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41873,8 +41873,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="264"/>
-      <c r="C11" s="265"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="267"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42234,12 +42234,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42256,11 +42256,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42272,14 +42272,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42291,12 +42291,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42308,12 +42308,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="276"/>
-      <c r="B5" s="277"/>
-      <c r="C5" s="278"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="283"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="285"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42325,7 +42325,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="268"/>
+      <c r="G5" s="275"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42336,11 +42336,11 @@
       <c r="F6" s="73"/>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="286" t="s">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="271" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="287"/>
+      <c r="B7" s="272"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42359,10 +42359,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="266" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="265"/>
+      <c r="C8" s="267"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42398,7 +42398,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="100" t="s">
         <v>276</v>
       </c>
@@ -42421,10 +42421,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42438,10 +42438,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42455,10 +42455,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42472,10 +42472,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="314" t="s">
+      <c r="B15" s="316" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="315"/>
+      <c r="C15" s="317"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42489,10 +42489,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="315" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="316"/>
+      <c r="C16" s="315"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42506,10 +42506,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="316"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42528,11 +42528,11 @@
       <c r="F18" s="73"/>
       <c r="G18" s="71"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A19" s="286" t="s">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A19" s="271" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="287"/>
+      <c r="B19" s="272"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42551,10 +42551,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="266" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="265"/>
+      <c r="C20" s="267"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42568,10 +42568,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="264" t="s">
+      <c r="B21" s="266" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="265"/>
+      <c r="C21" s="267"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42585,10 +42585,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="316" t="s">
+      <c r="B22" s="315" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="316"/>
+      <c r="C22" s="315"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42602,10 +42602,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="315" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="316"/>
+      <c r="C23" s="315"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42619,10 +42619,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="316" t="s">
+      <c r="B24" s="315" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="316"/>
+      <c r="C24" s="315"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42636,10 +42636,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="315" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="316"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42649,14 +42649,14 @@
       </c>
       <c r="G25" s="86"/>
     </row>
-    <row r="26" spans="1:7" ht="39.75" thickBot="1">
+    <row r="26" spans="1:7" ht="39" thickBot="1">
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="315" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="316"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42670,10 +42670,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="315" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="316"/>
+      <c r="C27" s="315"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42687,10 +42687,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="316" t="s">
+      <c r="B28" s="315" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="316"/>
+      <c r="C28" s="315"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42700,14 +42700,14 @@
       </c>
       <c r="G28" s="86"/>
     </row>
-    <row r="29" spans="1:7" ht="39.75" thickBot="1">
+    <row r="29" spans="1:7" ht="39" thickBot="1">
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="315" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="316"/>
+      <c r="C29" s="315"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42721,10 +42721,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="315" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="316"/>
+      <c r="C30" s="315"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42737,11 +42737,11 @@
     <row r="31" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A31" s="89"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A32" s="286" t="s">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A32" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="287"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42760,10 +42760,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="311" t="s">
+      <c r="B33" s="313" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="311"/>
+      <c r="C33" s="313"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42777,10 +42777,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="317" t="s">
+      <c r="B34" s="314" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="317"/>
+      <c r="C34" s="314"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42794,10 +42794,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="311" t="s">
+      <c r="B35" s="313" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="311"/>
+      <c r="C35" s="313"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42811,10 +42811,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="311" t="s">
+      <c r="B36" s="313" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="311"/>
+      <c r="C36" s="313"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42828,10 +42828,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="311" t="s">
+      <c r="B37" s="313" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="311"/>
+      <c r="C37" s="313"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42845,10 +42845,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="312" t="s">
+      <c r="B38" s="311" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="313"/>
+      <c r="C38" s="312"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42862,10 +42862,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="311" t="s">
+      <c r="B39" s="313" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="311"/>
+      <c r="C39" s="313"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42879,10 +42879,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="312" t="s">
+      <c r="B40" s="311" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="313"/>
+      <c r="C40" s="312"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42896,10 +42896,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="311" t="s">
+      <c r="B41" s="313" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="311"/>
+      <c r="C41" s="313"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42913,10 +42913,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="311" t="s">
+      <c r="B42" s="313" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="311"/>
+      <c r="C42" s="313"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42930,10 +42930,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="311" t="s">
+      <c r="B43" s="313" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="311"/>
+      <c r="C43" s="313"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42947,10 +42947,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="311" t="s">
+      <c r="B44" s="313" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="311"/>
+      <c r="C44" s="313"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42964,10 +42964,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="311" t="s">
+      <c r="B45" s="313" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="311"/>
+      <c r="C45" s="313"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42981,10 +42981,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="312" t="s">
+      <c r="B46" s="311" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="313"/>
+      <c r="C46" s="312"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42997,11 +42997,11 @@
     <row r="47" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A47" s="89"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A48" s="286" t="s">
+    <row r="48" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A48" s="271" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="287"/>
+      <c r="B48" s="272"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -43020,10 +43020,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="311" t="s">
+      <c r="B49" s="313" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="311"/>
+      <c r="C49" s="313"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -43037,10 +43037,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="311" t="s">
+      <c r="B50" s="313" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="311"/>
+      <c r="C50" s="313"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43054,10 +43054,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="311" t="s">
+      <c r="B51" s="313" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="311"/>
+      <c r="C51" s="313"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43071,10 +43071,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="312" t="s">
+      <c r="B52" s="311" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="313"/>
+      <c r="C52" s="312"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43088,10 +43088,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="311" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="313"/>
+      <c r="C53" s="312"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43105,10 +43105,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="311" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="313"/>
+      <c r="C54" s="312"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43122,10 +43122,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="312" t="s">
+      <c r="B55" s="311" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="313"/>
+      <c r="C55" s="312"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43139,10 +43139,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="311" t="s">
+      <c r="B56" s="313" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="311"/>
+      <c r="C56" s="313"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43156,10 +43156,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="311" t="s">
+      <c r="B57" s="313" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="311"/>
+      <c r="C57" s="313"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43173,10 +43173,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="311" t="s">
+      <c r="B58" s="313" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="311"/>
+      <c r="C58" s="313"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43186,14 +43186,14 @@
       </c>
       <c r="G58" s="90"/>
     </row>
-    <row r="59" spans="1:7" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" ht="26.25" thickBot="1">
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="311" t="s">
+      <c r="B59" s="313" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="311"/>
+      <c r="C59" s="313"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43207,10 +43207,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="311" t="s">
+      <c r="B60" s="313" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="311"/>
+      <c r="C60" s="313"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43224,10 +43224,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="311" t="s">
+      <c r="B61" s="313" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="311"/>
+      <c r="C61" s="313"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43240,11 +43240,11 @@
     <row r="62" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A62" s="89"/>
     </row>
-    <row r="63" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A63" s="286" t="s">
+    <row r="63" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A63" s="271" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="287"/>
+      <c r="B63" s="272"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43263,10 +43263,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="311" t="s">
+      <c r="B64" s="313" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="311"/>
+      <c r="C64" s="313"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43280,10 +43280,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="311" t="s">
+      <c r="B65" s="313" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="311"/>
+      <c r="C65" s="313"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43296,11 +43296,11 @@
     <row r="66" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A66" s="89"/>
     </row>
-    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A67" s="286" t="s">
+    <row r="67" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A67" s="271" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="287"/>
+      <c r="B67" s="272"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43319,10 +43319,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="311" t="s">
+      <c r="B68" s="313" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="311"/>
+      <c r="C68" s="313"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43334,6 +43334,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="A63:B63"/>
@@ -43350,48 +43392,6 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44162,7 +44162,7 @@
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.4">
+    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.75">
       <c r="A1" s="133" t="s">
         <v>427</v>
       </c>
@@ -44335,21 +44335,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44566,24 +44551,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44600,4 +44583,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1528dd05-61d3-4f6f-8f4b-07c6ec116598"/>
+    <ds:schemaRef ds:uri="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aleksey\DigiPen\year5\Fall\Gam550\repo\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B402D-0B0B-4F87-A581-88D7D081CEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C6DE0-6AD1-411E-AA05-3F005E421DBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="495">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -2583,10 +2583,16 @@
     <t>We have GPU based particle system that uses the geometry shader to manage the lifetime of the particles.</t>
   </si>
   <si>
-    <t>So far it renders any 3D models perfectly fine. Regarding the procedular 3D models, it only drwas box &amp; sphere for now, will add more.</t>
-  </si>
-  <si>
     <t>We are using Semi Implicit Euler method for calculating velocity and position each frame, and Gaus Seidel method when solving for constraints. We are also have Rigid  bodies.</t>
+  </si>
+  <si>
+    <t>we have torque computation</t>
+  </si>
+  <si>
+    <t>We do have gravity, and mass based collision responses. We also have friction.</t>
+  </si>
+  <si>
+    <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other. We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
   </si>
   <si>
     <t>Input thread &amp; Resources Loading Thread &amp; Main Thread</t>
@@ -2597,15 +2603,6 @@
   <si>
     <t>Using csv files for each language
 Can be changed in runtime if required. Localized Strings are used from scripts directly.</t>
-  </si>
-  <si>
-    <t>Convex objects collision detection, static objects given infinite mass and not updated for gravity.</t>
-  </si>
-  <si>
-    <t>We do have gravity, airdrag, and mass based collision responses. We also have friction.</t>
-  </si>
-  <si>
-    <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other, this is also used for raycasting (mouse select). We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
   </si>
 </sst>
 </file>
@@ -38626,8 +38623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38890,7 +38887,7 @@
       </c>
       <c r="C17" s="267"/>
       <c r="D17" s="70" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>453</v>
@@ -38909,7 +38906,7 @@
       </c>
       <c r="C18" s="267"/>
       <c r="D18" s="70" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>454</v>
@@ -39083,7 +39080,7 @@
       </c>
       <c r="C28" s="267"/>
       <c r="D28" s="70" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E28" s="68" t="s">
         <v>453</v>
@@ -39116,11 +39113,9 @@
         <v>448</v>
       </c>
       <c r="C31" s="308"/>
-      <c r="D31" s="70" t="s">
-        <v>488</v>
-      </c>
+      <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F31" s="68" t="s">
         <v>100</v>
@@ -39139,7 +39134,7 @@
         <v>485</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>100</v>
@@ -39275,7 +39270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="77.25" thickBot="1">
+    <row r="41" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
@@ -39284,7 +39279,7 @@
       </c>
       <c r="C41" s="308"/>
       <c r="D41" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>454</v>
@@ -39294,7 +39289,7 @@
       </c>
       <c r="G41" s="70"/>
     </row>
-    <row r="42" spans="1:7" ht="51.75" thickBot="1">
+    <row r="42" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
@@ -39303,17 +39298,17 @@
       </c>
       <c r="C42" s="308"/>
       <c r="D42" s="70" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>100</v>
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="1:7" ht="39" thickBot="1">
+    <row r="43" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
@@ -39322,7 +39317,7 @@
       </c>
       <c r="C43" s="308"/>
       <c r="D43" s="70" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>454</v>
@@ -39332,7 +39327,7 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="141" thickBot="1">
+    <row r="44" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
@@ -39341,7 +39336,7 @@
       </c>
       <c r="C44" s="308"/>
       <c r="D44" s="70" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E44" s="68" t="s">
         <v>454</v>
@@ -44596,16 +44591,8 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1528dd05-61d3-4f6f-8f4b-07c6ec116598"/>
-    <ds:schemaRef ds:uri="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aleksey\DigiPen\year5\Fall\Gam550\repo\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C6DE0-6AD1-411E-AA05-3F005E421DBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313C0C41-3BDB-474D-9C9E-C2FFF973EFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2583,15 +2583,6 @@
     <t>We have GPU based particle system that uses the geometry shader to manage the lifetime of the particles.</t>
   </si>
   <si>
-    <t>We are using Semi Implicit Euler method for calculating velocity and position each frame, and Gaus Seidel method when solving for constraints. We are also have Rigid  bodies.</t>
-  </si>
-  <si>
-    <t>we have torque computation</t>
-  </si>
-  <si>
-    <t>We do have gravity, and mass based collision responses. We also have friction.</t>
-  </si>
-  <si>
     <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other. We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
   </si>
   <si>
@@ -2603,6 +2594,15 @@
   <si>
     <t>Using csv files for each language
 Can be changed in runtime if required. Localized Strings are used from scripts directly.</t>
+  </si>
+  <si>
+    <t>We are using Semi Implicit Euler method for calculating velocity and position each frame, and Projected Gaus Seidel method when solving for constraints. We are also have Rigid  bodies.</t>
+  </si>
+  <si>
+    <t>OOBB</t>
+  </si>
+  <si>
+    <t>We do have gravity, friction, airdrag, and mass based collision responses.</t>
   </si>
 </sst>
 </file>
@@ -4760,161 +4760,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4924,113 +4777,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5141,11 +4887,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5168,39 +4944,235 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5256,19 +5228,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5292,11 +5282,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5336,19 +5352,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5360,24 +5364,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31089,38 +31089,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="230"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="146"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="228" t="s">
+      <c r="E1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="230"/>
+      <c r="F1" s="146"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="225" t="s">
+      <c r="H1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="227"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="222" t="s">
+      <c r="N1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="224"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="233"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="238"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31131,21 +31131,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="253" t="s">
+      <c r="J3" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="254"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31163,43 +31163,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="247"/>
-      <c r="J4" s="248"/>
-      <c r="K4" s="249"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="157" t="s">
+      <c r="N4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="159"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="173"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="246"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="241"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="243"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31224,16 +31224,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="250"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="252"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="168"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="176"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31246,9 +31246,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31257,9 +31257,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31272,17 +31272,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="155" t="s">
+      <c r="L8" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="179"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31298,7 +31298,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="257"/>
+      <c r="L9" s="183"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31360,11 +31360,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="135" t="s">
+      <c r="N11" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="225"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31392,9 +31392,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="140"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="228"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31422,9 +31422,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="140"/>
+      <c r="N13" s="226"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="228"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31452,9 +31452,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="140"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="228"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31482,9 +31482,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="140"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31512,9 +31512,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="140"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31542,9 +31542,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="140"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="228"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31572,9 +31572,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="140"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="228"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31602,9 +31602,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="140"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="228"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31632,9 +31632,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="140"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="228"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31660,9 +31660,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="143"/>
+      <c r="N21" s="229"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="231"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31675,11 +31675,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="199" t="s">
+      <c r="H22" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31688,11 +31688,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="153" t="s">
+      <c r="N22" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31705,17 +31705,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155" t="s">
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31731,8 +31731,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31759,11 +31759,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="135" t="s">
+      <c r="N25" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="225"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31794,9 +31794,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="140"/>
+      <c r="N26" s="226"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="228"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31825,9 +31825,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="140"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="228"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31856,9 +31856,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="140"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="228"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31887,9 +31887,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="140"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="228"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31918,9 +31918,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="140"/>
+      <c r="N30" s="226"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="228"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31944,9 +31944,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="143"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31959,10 +31959,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="168" t="s">
+      <c r="H32" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="168"/>
+      <c r="I32" s="245"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31975,20 +31975,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="200" t="s">
+      <c r="A33" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="213"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="155" t="s">
+      <c r="L33" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -32005,19 +32005,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="156"/>
+      <c r="L34" s="207"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="205" t="s">
+      <c r="A35" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="216"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32033,21 +32033,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="157" t="s">
+      <c r="N35" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="158"/>
-      <c r="P35" s="159"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="173"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="258" t="s">
+      <c r="A36" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="260"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32061,17 +32061,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="162"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="176"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="261"/>
-      <c r="B37" s="262"/>
-      <c r="C37" s="262"/>
-      <c r="D37" s="262"/>
-      <c r="E37" s="262"/>
-      <c r="F37" s="263"/>
+      <c r="A37" s="187"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="189"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32085,19 +32085,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="162"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="176"/>
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A38" s="187" t="s">
+      <c r="A38" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="189"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="140"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32111,74 +32111,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="160"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="162"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="176"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="189"/>
-      <c r="H39" s="179" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="140"/>
+      <c r="H39" s="256" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="179"/>
-      <c r="J39" s="166" t="s">
+      <c r="I39" s="256"/>
+      <c r="J39" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="166"/>
+      <c r="K39" s="243"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="165"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="179"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="189"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="140"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="244"/>
+      <c r="K40" s="244"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="189"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="140"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="189"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="140"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32192,19 +32192,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="170" t="s">
+      <c r="N42" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="181"/>
-      <c r="P42" s="182"/>
+      <c r="O42" s="258"/>
+      <c r="P42" s="259"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="190"/>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="192"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="203"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32218,94 +32218,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="183"/>
-      <c r="O43" s="184"/>
-      <c r="P43" s="185"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="261"/>
+      <c r="P43" s="262"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="155" t="s">
+      <c r="L44" s="182" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="216" t="s">
+      <c r="A45" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="217"/>
-      <c r="C45" s="217"/>
-      <c r="D45" s="217"/>
-      <c r="E45" s="217"/>
-      <c r="F45" s="218"/>
-      <c r="L45" s="156"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="194"/>
+      <c r="L45" s="207"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="193" t="s">
+      <c r="A46" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="194"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="195"/>
-      <c r="H46" s="144" t="s">
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="197"/>
+      <c r="H46" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="145"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="208">
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="217">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="209"/>
-      <c r="N46" s="170" t="s">
+      <c r="L46" s="218"/>
+      <c r="N46" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="171"/>
-      <c r="P46" s="172"/>
+      <c r="O46" s="248"/>
+      <c r="P46" s="249"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="196"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="198"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="210"/>
-      <c r="L47" s="211"/>
-      <c r="N47" s="173"/>
-      <c r="O47" s="174"/>
-      <c r="P47" s="175"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="206"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="236"/>
+      <c r="J47" s="237"/>
+      <c r="K47" s="219"/>
+      <c r="L47" s="220"/>
+      <c r="N47" s="250"/>
+      <c r="O47" s="251"/>
+      <c r="P47" s="252"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="194"/>
-      <c r="C48" s="194"/>
-      <c r="D48" s="194"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="195"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="212"/>
-      <c r="L48" s="213"/>
-      <c r="N48" s="176"/>
-      <c r="O48" s="177"/>
-      <c r="P48" s="178"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="197"/>
+      <c r="H48" s="238"/>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="221"/>
+      <c r="L48" s="222"/>
+      <c r="N48" s="253"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="255"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="193" t="s">
+      <c r="A49" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="194"/>
-      <c r="C49" s="194"/>
-      <c r="D49" s="194"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="195"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="197"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32313,14 +32313,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="193" t="s">
+      <c r="A50" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="194"/>
-      <c r="C50" s="194"/>
-      <c r="D50" s="194"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="195"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="197"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32328,14 +32328,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="221"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="200"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32343,14 +32343,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="214" t="s">
+      <c r="A52" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="214"/>
-      <c r="C52" s="214"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="214"/>
-      <c r="F52" s="214"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32358,12 +32358,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="215"/>
-      <c r="B53" s="215"/>
-      <c r="C53" s="215"/>
-      <c r="D53" s="215"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="215"/>
+      <c r="A53" s="191"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32382,6 +32382,37 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32398,37 +32429,6 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32479,11 +32479,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32500,11 +32500,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32513,14 +32513,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32529,12 +32529,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32543,12 +32543,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="281"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32557,12 +32557,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="279"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="281"/>
+      <c r="A6" s="272"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32571,18 +32571,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="283"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="285"/>
+      <c r="A7" s="276"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="275"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="268"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32594,10 +32594,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32620,10 +32620,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32632,10 +32632,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32649,10 +32649,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32666,10 +32666,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32686,10 +32686,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="265"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32698,10 +32698,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32715,10 +32715,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="267"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32732,10 +32732,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32752,10 +32752,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="265"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32764,10 +32764,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="264" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="267"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32781,10 +32781,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="267"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32798,10 +32798,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32818,10 +32818,10 @@
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="264" t="s">
+      <c r="E26" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="265"/>
+      <c r="F26" s="280"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32830,10 +32830,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="266" t="s">
+      <c r="B27" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="267"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32847,10 +32847,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32864,10 +32864,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32884,10 +32884,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="264" t="s">
+      <c r="E31" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="265"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32896,10 +32896,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32913,10 +32913,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32930,10 +32930,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="267"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32947,10 +32947,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32967,10 +32967,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="265"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32979,10 +32979,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32996,10 +32996,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="264" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="267"/>
+      <c r="C39" s="265"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -33016,10 +33016,10 @@
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="264" t="s">
+      <c r="E41" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="265"/>
+      <c r="F41" s="280"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33028,10 +33028,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="267"/>
+      <c r="C42" s="265"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33045,10 +33045,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="266" t="s">
+      <c r="B43" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="267"/>
+      <c r="C43" s="265"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33062,10 +33062,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="266" t="s">
+      <c r="B44" s="264" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="267"/>
+      <c r="C44" s="265"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33079,10 +33079,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="266" t="s">
+      <c r="B45" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="267"/>
+      <c r="C45" s="265"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33094,14 +33094,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33113,21 +33120,14 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34990,11 +34990,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -35011,11 +35011,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35024,14 +35024,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35040,12 +35040,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="280"/>
-      <c r="C4" s="281"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35054,12 +35054,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="280"/>
-      <c r="C5" s="281"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35068,12 +35068,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="279"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="281"/>
+      <c r="A6" s="272"/>
+      <c r="B6" s="273"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35082,18 +35082,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="293"/>
-      <c r="B7" s="294"/>
-      <c r="C7" s="295"/>
+      <c r="A7" s="290"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="292"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="288"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="295"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35105,11 +35105,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="292"/>
-      <c r="C9" s="272"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="287"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35130,10 +35130,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35142,10 +35142,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35162,10 +35162,10 @@
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="264" t="s">
+      <c r="E14" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="265"/>
+      <c r="F14" s="280"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35174,10 +35174,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="264" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="267"/>
+      <c r="C15" s="265"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35191,10 +35191,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="291" t="s">
+      <c r="B16" s="288" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="267"/>
+      <c r="C16" s="265"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35208,10 +35208,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="291" t="s">
+      <c r="B17" s="288" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35228,10 +35228,10 @@
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="264" t="s">
+      <c r="E19" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="265"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35240,10 +35240,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="291" t="s">
+      <c r="B20" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="267"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35257,10 +35257,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="267"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35277,10 +35277,10 @@
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="264" t="s">
+      <c r="E23" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="265"/>
+      <c r="F23" s="280"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35289,10 +35289,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="291" t="s">
+      <c r="B24" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35306,10 +35306,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="291" t="s">
+      <c r="B25" s="288" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35326,10 +35326,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="265"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35338,10 +35338,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="291" t="s">
+      <c r="B28" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35355,10 +35355,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="291" t="s">
+      <c r="B29" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35375,10 +35375,10 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="264" t="s">
+      <c r="E31" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="265"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35387,10 +35387,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="288" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35407,10 +35407,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="264" t="s">
+      <c r="E34" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="265"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35419,10 +35419,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="291" t="s">
+      <c r="B35" s="288" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35439,10 +35439,10 @@
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="265"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35451,10 +35451,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35737,12 +35737,16 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B17:C17"/>
@@ -35753,16 +35757,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37176,11 +37176,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37197,11 +37197,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37210,14 +37210,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37226,12 +37226,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37240,12 +37240,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="281"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37254,12 +37254,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="279"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="281"/>
+      <c r="A6" s="272"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37268,18 +37268,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="285"/>
+      <c r="A7" s="276"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="275"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="268"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37291,11 +37291,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="292"/>
-      <c r="C9" s="272"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="287"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37317,10 +37317,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37329,10 +37329,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37346,10 +37346,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37363,10 +37363,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37384,10 +37384,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="265"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37396,10 +37396,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37413,10 +37413,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="264" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="267"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37430,10 +37430,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37451,10 +37451,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="265"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37463,10 +37463,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="264" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="267"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37480,10 +37480,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="264" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="267"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37497,10 +37497,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="264" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37514,10 +37514,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="266" t="s">
+      <c r="B25" s="264" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37535,10 +37535,10 @@
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="265"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37547,10 +37547,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="264" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37568,10 +37568,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="264" t="s">
+      <c r="E30" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="265"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37580,10 +37580,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="264" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="267"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37597,10 +37597,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37618,10 +37618,10 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="264" t="s">
+      <c r="E34" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="265"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37630,10 +37630,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="264" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37662,6 +37662,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37672,22 +37688,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38623,8 +38623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38639,11 +38639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -38660,11 +38660,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="302" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="300"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="304"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38673,14 +38673,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="301"/>
-      <c r="B3" s="302"/>
-      <c r="C3" s="303"/>
+      <c r="A3" s="305"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="307"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38689,12 +38689,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="301"/>
-      <c r="B4" s="302"/>
-      <c r="C4" s="303"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="307"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38703,12 +38703,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="301"/>
-      <c r="B5" s="302"/>
-      <c r="C5" s="303"/>
+      <c r="A5" s="305"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="307"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38717,12 +38717,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="304"/>
-      <c r="B6" s="305"/>
-      <c r="C6" s="306"/>
+      <c r="A6" s="308"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="310"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38731,7 +38731,7 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="275"/>
+      <c r="G6" s="268"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="129"/>
@@ -38740,8 +38740,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38754,10 +38754,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38779,10 +38779,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38791,10 +38791,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70" t="s">
         <v>478</v>
       </c>
@@ -38810,10 +38810,10 @@
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70" t="s">
         <v>479</v>
       </c>
@@ -38829,10 +38829,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70" t="s">
         <v>480</v>
       </c>
@@ -38848,10 +38848,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="267"/>
+      <c r="C15" s="265"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38865,10 +38865,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="264" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="267"/>
+      <c r="C16" s="265"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38882,12 +38882,12 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>453</v>
@@ -38901,12 +38901,12 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="264" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="267"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>454</v>
@@ -38920,10 +38920,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38937,10 +38937,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="267"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38954,10 +38954,10 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="309" t="s">
+      <c r="B21" s="300" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="310"/>
+      <c r="C21" s="301"/>
       <c r="D21" s="134" t="s">
         <v>390</v>
       </c>
@@ -38973,10 +38973,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="264" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="267"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38990,10 +38990,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="267"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -39007,10 +39007,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="264" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>453</v>
@@ -39024,10 +39024,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="266" t="s">
+      <c r="B25" s="264" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>453</v>
@@ -39041,10 +39041,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="266" t="s">
+      <c r="B26" s="264" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="267"/>
+      <c r="C26" s="265"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39058,10 +39058,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="266" t="s">
+      <c r="B27" s="264" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="267"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39075,12 +39075,12 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="264" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E28" s="68" t="s">
         <v>453</v>
@@ -39097,10 +39097,10 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="264" t="s">
+      <c r="E30" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="265"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39109,10 +39109,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="307" t="s">
+      <c r="B31" s="298" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="308"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>453</v>
@@ -39126,10 +39126,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70" t="s">
         <v>485</v>
       </c>
@@ -39145,10 +39145,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="264" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39164,10 +39164,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="264" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="267"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39183,10 +39183,10 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="264" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70" t="s">
         <v>487</v>
       </c>
@@ -39202,10 +39202,10 @@
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="266" t="s">
+      <c r="B36" s="264" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="267"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39221,10 +39221,10 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="264" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="267"/>
+      <c r="C37" s="265"/>
       <c r="D37" s="70" t="s">
         <v>484</v>
       </c>
@@ -39240,10 +39240,10 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="264" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70" t="s">
         <v>486</v>
       </c>
@@ -39262,24 +39262,24 @@
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="264" t="s">
+      <c r="E40" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="265"/>
+      <c r="F40" s="280"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="77.25" thickBot="1">
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="307" t="s">
+      <c r="B41" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="308"/>
+      <c r="C41" s="299"/>
       <c r="D41" s="70" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>454</v>
@@ -39293,15 +39293,15 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="307" t="s">
+      <c r="B42" s="298" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="308"/>
+      <c r="C42" s="299"/>
       <c r="D42" s="70" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F42" s="68" t="s">
         <v>100</v>
@@ -39312,12 +39312,12 @@
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="307" t="s">
+      <c r="B43" s="298" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="308"/>
+      <c r="C43" s="299"/>
       <c r="D43" s="70" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>454</v>
@@ -39327,16 +39327,16 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="128.25" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="307" t="s">
+      <c r="B44" s="298" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="308"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="70" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E44" s="68" t="s">
         <v>454</v>
@@ -39353,10 +39353,10 @@
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="264" t="s">
+      <c r="E46" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="265"/>
+      <c r="F46" s="280"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39365,10 +39365,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="266" t="s">
+      <c r="B47" s="264" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="267"/>
+      <c r="C47" s="265"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39382,10 +39382,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="266" t="s">
+      <c r="B48" s="264" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="267"/>
+      <c r="C48" s="265"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39399,10 +39399,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="266" t="s">
+      <c r="B49" s="264" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="267"/>
+      <c r="C49" s="265"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39416,10 +39416,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="266" t="s">
+      <c r="B50" s="264" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="267"/>
+      <c r="C50" s="265"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39433,10 +39433,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="266" t="s">
+      <c r="B51" s="264" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="267"/>
+      <c r="C51" s="265"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39453,10 +39453,10 @@
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="264" t="s">
+      <c r="E53" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="265"/>
+      <c r="F53" s="280"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39465,10 +39465,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="266" t="s">
+      <c r="B54" s="264" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="267"/>
+      <c r="C54" s="265"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39481,19 +39481,22 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
@@ -39510,22 +39513,19 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40527,11 +40527,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40548,11 +40548,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40561,14 +40561,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40577,12 +40577,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40591,12 +40591,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="281"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40605,12 +40605,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285"/>
+      <c r="A6" s="276"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="278"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40619,7 +40619,7 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="275"/>
+      <c r="G6" s="268"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="128"/>
@@ -40628,8 +40628,8 @@
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40642,10 +40642,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40667,10 +40667,10 @@
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40679,10 +40679,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40696,10 +40696,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40713,10 +40713,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40733,10 +40733,10 @@
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="265"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40745,10 +40745,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40762,10 +40762,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="307" t="s">
+      <c r="B18" s="298" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="308"/>
+      <c r="C18" s="299"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40779,10 +40779,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40799,10 +40799,10 @@
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="265"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40811,10 +40811,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="307" t="s">
+      <c r="B22" s="298" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="308"/>
+      <c r="C22" s="299"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40828,10 +40828,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="307" t="s">
+      <c r="B23" s="298" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="308"/>
+      <c r="C23" s="299"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40845,10 +40845,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="307" t="s">
+      <c r="B24" s="298" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="308"/>
+      <c r="C24" s="299"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40862,10 +40862,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="307" t="s">
+      <c r="B25" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="308"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40879,10 +40879,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="298" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="308"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40899,10 +40899,10 @@
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="264" t="s">
+      <c r="E28" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="265"/>
+      <c r="F28" s="280"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40911,10 +40911,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="264" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40928,10 +40928,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="266" t="s">
+      <c r="B30" s="264" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="267"/>
+      <c r="C30" s="265"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40945,10 +40945,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="264" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="267"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40962,10 +40962,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40979,10 +40979,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="264" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40999,10 +40999,10 @@
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="264" t="s">
+      <c r="E35" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="265"/>
+      <c r="F35" s="280"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -41011,10 +41011,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="266" t="s">
+      <c r="B36" s="264" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="267"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -41027,6 +41027,20 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41040,20 +41054,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41715,11 +41715,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41736,11 +41736,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41752,14 +41752,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="284"/>
-      <c r="C3" s="285"/>
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="278"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41771,7 +41771,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="275"/>
+      <c r="G3" s="268"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41803,8 +41803,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="267"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="265"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41816,8 +41816,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="267"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="265"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41829,8 +41829,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="267"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41842,8 +41842,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="267"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="265"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41855,8 +41855,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="265"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41868,8 +41868,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="267"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="265"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42230,11 +42230,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="283" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42251,11 +42251,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42267,14 +42267,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42286,12 +42286,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42303,12 +42303,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="283"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="285"/>
+      <c r="A5" s="276"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="278"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42320,7 +42320,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="275"/>
+      <c r="G5" s="268"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42332,10 +42332,10 @@
       <c r="G6" s="71"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="271" t="s">
+      <c r="A7" s="286" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="272"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42354,10 +42354,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="264" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="267"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42416,10 +42416,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42433,10 +42433,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42450,10 +42450,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42467,10 +42467,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="317"/>
+      <c r="C15" s="315"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42484,10 +42484,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="316" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="315"/>
+      <c r="C16" s="316"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42501,10 +42501,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="315"/>
+      <c r="C17" s="316"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42524,10 +42524,10 @@
       <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="271" t="s">
+      <c r="A19" s="286" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="272"/>
+      <c r="B19" s="287"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42546,10 +42546,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="264" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="267"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42563,10 +42563,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="267"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42580,10 +42580,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="315"/>
+      <c r="C22" s="316"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42597,10 +42597,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="316" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="315"/>
+      <c r="C23" s="316"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42614,10 +42614,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="315"/>
+      <c r="C24" s="316"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42631,10 +42631,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="316" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="315"/>
+      <c r="C25" s="316"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42648,10 +42648,10 @@
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="315" t="s">
+      <c r="B26" s="316" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="315"/>
+      <c r="C26" s="316"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42665,10 +42665,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="316" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="315"/>
+      <c r="C27" s="316"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42682,10 +42682,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="315"/>
+      <c r="C28" s="316"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42699,10 +42699,10 @@
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="316" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="315"/>
+      <c r="C29" s="316"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42716,10 +42716,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="315" t="s">
+      <c r="B30" s="316" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="315"/>
+      <c r="C30" s="316"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42733,10 +42733,10 @@
       <c r="A31" s="89"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="271" t="s">
+      <c r="A32" s="286" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="272"/>
+      <c r="B32" s="287"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42755,10 +42755,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="313" t="s">
+      <c r="B33" s="311" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="313"/>
+      <c r="C33" s="311"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42772,10 +42772,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="314" t="s">
+      <c r="B34" s="317" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="314"/>
+      <c r="C34" s="317"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42789,10 +42789,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="313" t="s">
+      <c r="B35" s="311" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="313"/>
+      <c r="C35" s="311"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42806,10 +42806,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="313" t="s">
+      <c r="B36" s="311" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="313"/>
+      <c r="C36" s="311"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42823,10 +42823,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="313" t="s">
+      <c r="B37" s="311" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="313"/>
+      <c r="C37" s="311"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42840,10 +42840,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="311" t="s">
+      <c r="B38" s="312" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="312"/>
+      <c r="C38" s="313"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42857,10 +42857,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="313" t="s">
+      <c r="B39" s="311" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="313"/>
+      <c r="C39" s="311"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42874,10 +42874,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="311" t="s">
+      <c r="B40" s="312" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="312"/>
+      <c r="C40" s="313"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42891,10 +42891,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="313" t="s">
+      <c r="B41" s="311" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="313"/>
+      <c r="C41" s="311"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42908,10 +42908,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="313" t="s">
+      <c r="B42" s="311" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="313"/>
+      <c r="C42" s="311"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42925,10 +42925,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="313" t="s">
+      <c r="B43" s="311" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="313"/>
+      <c r="C43" s="311"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42942,10 +42942,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="313" t="s">
+      <c r="B44" s="311" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="313"/>
+      <c r="C44" s="311"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42959,10 +42959,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="313" t="s">
+      <c r="B45" s="311" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="313"/>
+      <c r="C45" s="311"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42976,10 +42976,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="311" t="s">
+      <c r="B46" s="312" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="312"/>
+      <c r="C46" s="313"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42993,10 +42993,10 @@
       <c r="A47" s="89"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A48" s="271" t="s">
+      <c r="A48" s="286" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="272"/>
+      <c r="B48" s="287"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -43015,10 +43015,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="313" t="s">
+      <c r="B49" s="311" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="313"/>
+      <c r="C49" s="311"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -43032,10 +43032,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="313" t="s">
+      <c r="B50" s="311" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="313"/>
+      <c r="C50" s="311"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43049,10 +43049,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="313" t="s">
+      <c r="B51" s="311" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="313"/>
+      <c r="C51" s="311"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43066,10 +43066,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="312" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="312"/>
+      <c r="C52" s="313"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43083,10 +43083,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="311" t="s">
+      <c r="B53" s="312" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="312"/>
+      <c r="C53" s="313"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43100,10 +43100,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="312" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="312"/>
+      <c r="C54" s="313"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43117,10 +43117,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="312" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="312"/>
+      <c r="C55" s="313"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43134,10 +43134,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="313" t="s">
+      <c r="B56" s="311" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="313"/>
+      <c r="C56" s="311"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43151,10 +43151,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="313" t="s">
+      <c r="B57" s="311" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="313"/>
+      <c r="C57" s="311"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43168,10 +43168,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="313" t="s">
+      <c r="B58" s="311" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="313"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43185,10 +43185,10 @@
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="313" t="s">
+      <c r="B59" s="311" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="313"/>
+      <c r="C59" s="311"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43202,10 +43202,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="313" t="s">
+      <c r="B60" s="311" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="313"/>
+      <c r="C60" s="311"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43219,10 +43219,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="313" t="s">
+      <c r="B61" s="311" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="313"/>
+      <c r="C61" s="311"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43236,10 +43236,10 @@
       <c r="A62" s="89"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A63" s="271" t="s">
+      <c r="A63" s="286" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="272"/>
+      <c r="B63" s="287"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43258,10 +43258,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="313" t="s">
+      <c r="B64" s="311" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="313"/>
+      <c r="C64" s="311"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43275,10 +43275,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="313" t="s">
+      <c r="B65" s="311" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="313"/>
+      <c r="C65" s="311"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43292,10 +43292,10 @@
       <c r="A66" s="89"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A67" s="271" t="s">
+      <c r="A67" s="286" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="272"/>
+      <c r="B67" s="287"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43314,10 +43314,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="313" t="s">
+      <c r="B68" s="311" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="313"/>
+      <c r="C68" s="311"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43329,6 +43329,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="B68:C68"/>
@@ -43345,48 +43387,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44330,6 +44330,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44546,22 +44561,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44578,21 +44595,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aleksey\DigiPen\year5\Fall\Gam550\repo\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313C0C41-3BDB-474D-9C9E-C2FFF973EFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A5F3E-0F12-49D0-BCF2-C5BA18C7FC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team &amp; Grade" sheetId="1" r:id="rId1"/>
@@ -2571,9 +2571,6 @@
     <t>We have MSAA with custom shader resolve instead of using Directx11 standard box sub resolve, this gives a better result with lesser MSAA sample count</t>
   </si>
   <si>
-    <t>We have keyframe animation working, and the animation can also work from scripts</t>
-  </si>
-  <si>
     <t>We have normal mapping &amp; parallax mapping implemented</t>
   </si>
   <si>
@@ -2603,6 +2600,10 @@
   </si>
   <si>
     <t>We do have gravity, friction, airdrag, and mass based collision responses.</t>
+  </si>
+  <si>
+    <t>We have keyframe animation working, and the animation can also work from scripts
+Blending and state machine</t>
   </si>
 </sst>
 </file>
@@ -4760,14 +4761,161 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4777,6 +4925,113 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4887,41 +5142,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4944,235 +5169,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5228,37 +5257,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5282,37 +5293,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5352,7 +5337,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5364,20 +5361,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31089,38 +31090,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="230"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="146"/>
+      <c r="F1" s="230"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="143"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="227"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="135" t="s">
+      <c r="N1" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="136"/>
-      <c r="P1" s="137"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="224"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="233"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31131,21 +31132,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="169" t="s">
+      <c r="J3" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="170"/>
+      <c r="K3" s="254"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31163,43 +31164,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="165"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="249"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="171" t="s">
+      <c r="N4" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="172"/>
-      <c r="P4" s="173"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="159"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="162"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="159"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="243"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="176"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31224,16 +31225,16 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168"/>
+      <c r="I6" s="250"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="252"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="176"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="162"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
@@ -31246,9 +31247,9 @@
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31257,9 +31258,9 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="176"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="102"/>
@@ -31272,17 +31273,17 @@
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="182" t="s">
+      <c r="L8" s="155" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="179"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="102"/>
@@ -31298,7 +31299,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="183"/>
+      <c r="L9" s="257"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
@@ -31360,11 +31361,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="223" t="s">
+      <c r="N11" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="224"/>
-      <c r="P11" s="225"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31392,9 +31393,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="226"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="228"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="140"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31422,9 +31423,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="226"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="228"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="140"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31452,9 +31453,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="226"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="228"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="140"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31482,9 +31483,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="226"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="228"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="140"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31512,9 +31513,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="226"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="228"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="140"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31542,9 +31543,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="228"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="140"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31572,9 +31573,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="226"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="228"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="140"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31602,9 +31603,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="226"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="228"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="140"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31632,9 +31633,9 @@
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="228"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="140"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31660,9 +31661,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="229"/>
-      <c r="O21" s="230"/>
-      <c r="P21" s="231"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="143"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31675,11 +31676,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="208" t="s">
+      <c r="H22" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31688,11 +31689,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="241" t="s">
+      <c r="N22" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31705,17 +31706,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182" t="s">
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="242"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31731,8 +31732,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31759,11 +31760,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="223" t="s">
+      <c r="N25" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="224"/>
-      <c r="P25" s="225"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31794,9 +31795,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="226"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="228"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="140"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31825,9 +31826,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="226"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="228"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="140"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31856,9 +31857,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="226"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="228"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="140"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31887,9 +31888,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="226"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="228"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="140"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31918,9 +31919,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="226"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="228"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="140"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31944,9 +31945,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="229"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="231"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="143"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31959,10 +31960,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="245" t="s">
+      <c r="H32" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="245"/>
+      <c r="I32" s="168"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31975,20 +31976,20 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="209" t="s">
+      <c r="A33" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="213"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="246"/>
-      <c r="I33" s="246"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="182" t="s">
+      <c r="L33" s="155" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -32005,19 +32006,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="207"/>
+      <c r="L34" s="156"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="216"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="207"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32033,21 +32034,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="171" t="s">
+      <c r="N35" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="172"/>
-      <c r="P35" s="173"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="159"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="184" t="s">
+      <c r="A36" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="185"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="186"/>
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32061,17 +32062,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="176"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="161"/>
+      <c r="P36" s="162"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="187"/>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="189"/>
+      <c r="A37" s="261"/>
+      <c r="B37" s="262"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="262"/>
+      <c r="F37" s="263"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32085,19 +32086,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="176"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="162"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A38" s="138" t="s">
+    <row r="38" spans="1:16" ht="16.149999999999999" thickBot="1">
+      <c r="A38" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="140"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="189"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32111,74 +32112,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="176"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140"/>
-      <c r="H39" s="256" t="s">
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="189"/>
+      <c r="H39" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="256"/>
-      <c r="J39" s="243" t="s">
+      <c r="I39" s="179"/>
+      <c r="J39" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="243"/>
+      <c r="K39" s="166"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="179"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="165"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="257"/>
-      <c r="J40" s="244"/>
-      <c r="K40" s="244"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="189"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="138" t="s">
+      <c r="A41" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="189"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="189"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32192,19 +32193,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="247" t="s">
+      <c r="N42" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="258"/>
-      <c r="P42" s="259"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="182"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="201"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="202"/>
-      <c r="E43" s="202"/>
-      <c r="F43" s="203"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="192"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32218,94 +32219,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="260"/>
-      <c r="O43" s="261"/>
-      <c r="P43" s="262"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="184"/>
+      <c r="P43" s="185"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="182" t="s">
+      <c r="L44" s="155" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="193"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="194"/>
-      <c r="L45" s="207"/>
+      <c r="B45" s="217"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="218"/>
+      <c r="L45" s="156"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="195" t="s">
+      <c r="A46" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="197"/>
-      <c r="H46" s="232" t="s">
+      <c r="B46" s="194"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="195"/>
+      <c r="H46" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
-      <c r="K46" s="217">
+      <c r="I46" s="145"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="208">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="218"/>
-      <c r="N46" s="247" t="s">
+      <c r="L46" s="209"/>
+      <c r="N46" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="248"/>
-      <c r="P46" s="249"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="172"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="206"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="236"/>
-      <c r="J47" s="237"/>
-      <c r="K47" s="219"/>
-      <c r="L47" s="220"/>
-      <c r="N47" s="250"/>
-      <c r="O47" s="251"/>
-      <c r="P47" s="252"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="198"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="211"/>
+      <c r="N47" s="173"/>
+      <c r="O47" s="174"/>
+      <c r="P47" s="175"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="196"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="197"/>
-      <c r="H48" s="238"/>
-      <c r="I48" s="239"/>
-      <c r="J48" s="240"/>
-      <c r="K48" s="221"/>
-      <c r="L48" s="222"/>
-      <c r="N48" s="253"/>
-      <c r="O48" s="254"/>
-      <c r="P48" s="255"/>
+      <c r="B48" s="194"/>
+      <c r="C48" s="194"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="195"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="213"/>
+      <c r="N48" s="176"/>
+      <c r="O48" s="177"/>
+      <c r="P48" s="178"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="195" t="s">
+      <c r="A49" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="196"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="197"/>
+      <c r="B49" s="194"/>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="195"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32313,14 +32314,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="195" t="s">
+      <c r="A50" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="196"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="197"/>
+      <c r="B50" s="194"/>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="195"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32328,14 +32329,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="198" t="s">
+      <c r="A51" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="199"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="199"/>
-      <c r="F51" s="200"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="221"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32343,14 +32344,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="190" t="s">
+      <c r="A52" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="190"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="190"/>
-      <c r="E52" s="190"/>
-      <c r="F52" s="190"/>
+      <c r="B52" s="214"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="214"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32358,12 +32359,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="191"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
+      <c r="A53" s="215"/>
+      <c r="B53" s="215"/>
+      <c r="C53" s="215"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32382,37 +32383,6 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32429,6 +32399,37 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32478,12 +32479,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32500,11 +32501,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32513,14 +32514,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32529,12 +32530,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32543,12 +32544,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32557,12 +32558,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="274"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="279"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="281"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32571,18 +32572,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="276"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="285"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="268"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="275"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32593,11 +32594,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="286" t="s">
+    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="271" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="287"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32613,17 +32614,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32632,10 +32633,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32649,10 +32650,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32666,10 +32667,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32679,17 +32680,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1">
+    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="265"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32698,10 +32699,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32715,10 +32716,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="265"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32732,10 +32733,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32745,17 +32746,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1">
+    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="279" t="s">
+      <c r="E21" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="265"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32764,10 +32765,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="265"/>
+      <c r="C22" s="267"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32781,10 +32782,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="265"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32798,10 +32799,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="266" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32811,17 +32812,17 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1">
+    <row r="26" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A26" s="108" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="279" t="s">
+      <c r="E26" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="280"/>
+      <c r="F26" s="265"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32830,10 +32831,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="265"/>
+      <c r="C27" s="267"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32847,10 +32848,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="266" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32864,10 +32865,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="264" t="s">
+      <c r="B29" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32877,17 +32878,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="279" t="s">
+      <c r="E31" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="280"/>
+      <c r="F31" s="265"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32896,10 +32897,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32913,10 +32914,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32930,10 +32931,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="264" t="s">
+      <c r="B34" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="265"/>
+      <c r="C34" s="267"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32947,10 +32948,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="266" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32960,17 +32961,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1">
+    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="279" t="s">
+      <c r="E37" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="280"/>
+      <c r="F37" s="265"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32979,10 +32980,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="267"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32996,10 +32997,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="266" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="265"/>
+      <c r="C39" s="267"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -33009,17 +33010,17 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="41" spans="1:7" ht="19.5" thickBot="1">
+    <row r="41" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A41" s="108" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="279" t="s">
+      <c r="E41" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="280"/>
+      <c r="F41" s="265"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33028,10 +33029,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="264" t="s">
+      <c r="B42" s="266" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="265"/>
+      <c r="C42" s="267"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33045,10 +33046,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="264" t="s">
+      <c r="B43" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="265"/>
+      <c r="C43" s="267"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33062,10 +33063,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="264" t="s">
+      <c r="B44" s="266" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="265"/>
+      <c r="C44" s="267"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33079,10 +33080,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="264" t="s">
+      <c r="B45" s="266" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="265"/>
+      <c r="C45" s="267"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33094,21 +33095,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33120,14 +33114,21 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34989,12 +34990,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -35011,11 +35012,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35024,14 +35025,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35040,12 +35041,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="273"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35054,12 +35055,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="273"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35068,12 +35069,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="273"/>
-      <c r="C6" s="274"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="279"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="281"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35082,18 +35083,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="290"/>
-      <c r="B7" s="291"/>
-      <c r="C7" s="292"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="293"/>
+      <c r="B7" s="294"/>
+      <c r="C7" s="295"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="295"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="290"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35104,12 +35105,12 @@
       <c r="F8" s="118"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="286" t="s">
+    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="271" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="287"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="272"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35123,17 +35124,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35142,10 +35143,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35155,17 +35156,17 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1">
+    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A14" s="108" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="279" t="s">
+      <c r="E14" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="280"/>
+      <c r="F14" s="265"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35174,10 +35175,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="264" t="s">
+      <c r="B15" s="266" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="265"/>
+      <c r="C15" s="267"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35191,10 +35192,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="288" t="s">
+      <c r="B16" s="291" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="265"/>
+      <c r="C16" s="267"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35208,10 +35209,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="288" t="s">
+      <c r="B17" s="291" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35221,17 +35222,17 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1">
+    <row r="19" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A19" s="108" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="279" t="s">
+      <c r="E19" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="280"/>
+      <c r="F19" s="265"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35240,10 +35241,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="288" t="s">
+      <c r="B20" s="291" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="265"/>
+      <c r="C20" s="267"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35257,10 +35258,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="288" t="s">
+      <c r="B21" s="291" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="265"/>
+      <c r="C21" s="267"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35270,17 +35271,17 @@
       </c>
       <c r="G21" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1">
+    <row r="23" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A23" s="108" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="279" t="s">
+      <c r="E23" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="280"/>
+      <c r="F23" s="265"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35289,10 +35290,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="288" t="s">
+      <c r="B24" s="291" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35306,10 +35307,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="288" t="s">
+      <c r="B25" s="291" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="267"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35319,17 +35320,17 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1">
+    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="279" t="s">
+      <c r="E27" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="280"/>
+      <c r="F27" s="265"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35338,10 +35339,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35355,10 +35356,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="288" t="s">
+      <c r="B29" s="291" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35368,17 +35369,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="279" t="s">
+      <c r="E31" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="280"/>
+      <c r="F31" s="265"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35387,10 +35388,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="288" t="s">
+      <c r="B32" s="291" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35400,17 +35401,17 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="279" t="s">
+      <c r="E34" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="280"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35419,10 +35420,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35432,17 +35433,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1">
+    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="279" t="s">
+      <c r="E37" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="280"/>
+      <c r="F37" s="265"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35451,10 +35452,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="266" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="267"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35737,6 +35738,22 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E7:F7"/>
@@ -35747,22 +35764,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37175,12 +37176,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37197,11 +37198,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37210,14 +37211,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37226,12 +37227,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37240,12 +37241,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37254,12 +37255,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="274"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="279"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="281"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37268,18 +37269,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="267"/>
+      <c r="G6" s="274"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="276"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="283"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="285"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="268"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="275"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37291,11 +37292,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="271" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="287"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="272"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37310,17 +37311,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37329,10 +37330,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37346,10 +37347,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37363,10 +37364,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37377,17 +37378,17 @@
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1">
+    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="265"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37396,10 +37397,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37413,10 +37414,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="266" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="265"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37430,10 +37431,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37444,17 +37445,17 @@
       <c r="G19" s="70"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1">
+    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="279" t="s">
+      <c r="E21" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="265"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37463,10 +37464,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="266" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="265"/>
+      <c r="C22" s="267"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37480,10 +37481,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="266" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="265"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37497,10 +37498,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="266" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37514,10 +37515,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="264" t="s">
+      <c r="B25" s="266" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="267"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37528,17 +37529,17 @@
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1">
+    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="279" t="s">
+      <c r="E27" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="280"/>
+      <c r="F27" s="265"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37547,10 +37548,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37561,17 +37562,17 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1">
+    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="279" t="s">
+      <c r="E30" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="280"/>
+      <c r="F30" s="265"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37580,10 +37581,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="266" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="265"/>
+      <c r="C31" s="267"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37597,10 +37598,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37611,17 +37612,17 @@
       <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>215</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="279" t="s">
+      <c r="E34" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="280"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37630,10 +37631,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="266" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37662,22 +37663,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37688,6 +37673,22 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38623,8 +38624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38638,12 +38639,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -38660,11 +38661,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="298" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="304"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="300"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38673,14 +38674,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="305"/>
-      <c r="B3" s="306"/>
-      <c r="C3" s="307"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="301"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="303"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38689,12 +38690,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="305"/>
-      <c r="B4" s="306"/>
-      <c r="C4" s="307"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="301"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="303"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38703,12 +38704,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="305"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="307"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="301"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="303"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38717,12 +38718,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="308"/>
-      <c r="B6" s="309"/>
-      <c r="C6" s="310"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="304"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="306"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38731,17 +38732,17 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="268"/>
+      <c r="G6" s="275"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A7" s="129"/>
       <c r="B7" s="129"/>
       <c r="C7" s="129"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38753,11 +38754,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="286" t="s">
+    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A9" s="271" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="287"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38772,17 +38773,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38791,10 +38792,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70" t="s">
         <v>478</v>
       </c>
@@ -38810,10 +38811,10 @@
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70" t="s">
         <v>479</v>
       </c>
@@ -38829,10 +38830,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70" t="s">
         <v>480</v>
       </c>
@@ -38848,10 +38849,10 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="264" t="s">
+      <c r="B15" s="266" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="265"/>
+      <c r="C15" s="267"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
@@ -38865,10 +38866,10 @@
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="264" t="s">
+      <c r="B16" s="266" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="265"/>
+      <c r="C16" s="267"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>454</v>
@@ -38882,12 +38883,12 @@
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>453</v>
@@ -38901,12 +38902,12 @@
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="266" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="265"/>
+      <c r="C18" s="267"/>
       <c r="D18" s="70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>454</v>
@@ -38920,10 +38921,10 @@
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
@@ -38937,10 +38938,10 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="266" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="265"/>
+      <c r="C20" s="267"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
@@ -38954,10 +38955,10 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="300" t="s">
+      <c r="B21" s="309" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="301"/>
+      <c r="C21" s="310"/>
       <c r="D21" s="134" t="s">
         <v>390</v>
       </c>
@@ -38973,10 +38974,10 @@
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="266" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="265"/>
+      <c r="C22" s="267"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
@@ -38990,10 +38991,10 @@
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="266" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="265"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
@@ -39007,10 +39008,10 @@
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="266" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="265"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>453</v>
@@ -39024,10 +39025,10 @@
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="264" t="s">
+      <c r="B25" s="266" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="265"/>
+      <c r="C25" s="267"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>453</v>
@@ -39041,10 +39042,10 @@
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="264" t="s">
+      <c r="B26" s="266" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="265"/>
+      <c r="C26" s="267"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>454</v>
@@ -39058,10 +39059,10 @@
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="266" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="265"/>
+      <c r="C27" s="267"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
@@ -39075,12 +39076,12 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="266" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="265"/>
+      <c r="C28" s="267"/>
       <c r="D28" s="70" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E28" s="68" t="s">
         <v>453</v>
@@ -39090,17 +39091,17 @@
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1">
+    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>397</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="279" t="s">
+      <c r="E30" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="280"/>
+      <c r="F30" s="265"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39109,10 +39110,10 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="298" t="s">
+      <c r="B31" s="307" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="299"/>
+      <c r="C31" s="308"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>453</v>
@@ -39126,12 +39127,12 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E32" s="68" t="s">
         <v>454</v>
@@ -39145,10 +39146,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="266" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39164,10 +39165,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="264" t="s">
+      <c r="B34" s="266" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="265"/>
+      <c r="C34" s="267"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39183,12 +39184,12 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="266" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="265"/>
+      <c r="C35" s="267"/>
       <c r="D35" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E35" s="68" t="s">
         <v>453</v>
@@ -39202,10 +39203,10 @@
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="266" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="265"/>
+      <c r="C36" s="267"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39221,12 +39222,12 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="266" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="265"/>
+      <c r="C37" s="267"/>
       <c r="D37" s="70" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E37" s="68" t="s">
         <v>453</v>
@@ -39240,12 +39241,12 @@
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="266" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="265"/>
+      <c r="C38" s="267"/>
       <c r="D38" s="70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E38" s="68" t="s">
         <v>454</v>
@@ -39255,31 +39256,31 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="40" spans="1:7" ht="19.5" thickBot="1">
+    <row r="40" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A40" s="108" t="s">
         <v>445</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="279" t="s">
+      <c r="E40" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="280"/>
+      <c r="F40" s="265"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="77.25" thickBot="1">
+    <row r="41" spans="1:7" ht="79.150000000000006" thickBot="1">
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="298" t="s">
+      <c r="B41" s="307" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="299"/>
+      <c r="C41" s="308"/>
       <c r="D41" s="70" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>454</v>
@@ -39293,12 +39294,12 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="298" t="s">
+      <c r="B42" s="307" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="299"/>
+      <c r="C42" s="308"/>
       <c r="D42" s="70" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E42" s="68" t="s">
         <v>454</v>
@@ -39312,12 +39313,12 @@
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="298" t="s">
+      <c r="B43" s="307" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="299"/>
+      <c r="C43" s="308"/>
       <c r="D43" s="70" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>454</v>
@@ -39327,16 +39328,16 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="128.25" thickBot="1">
+    <row r="44" spans="1:7" ht="118.5" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="298" t="s">
+      <c r="B44" s="307" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="299"/>
+      <c r="C44" s="308"/>
       <c r="D44" s="70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E44" s="68" t="s">
         <v>454</v>
@@ -39346,17 +39347,17 @@
       </c>
       <c r="G44" s="70"/>
     </row>
-    <row r="46" spans="1:7" ht="19.5" thickBot="1">
+    <row r="46" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A46" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="279" t="s">
+      <c r="E46" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="280"/>
+      <c r="F46" s="265"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39365,10 +39366,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="266" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="265"/>
+      <c r="C47" s="267"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39382,10 +39383,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="264" t="s">
+      <c r="B48" s="266" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="265"/>
+      <c r="C48" s="267"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39399,10 +39400,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="264" t="s">
+      <c r="B49" s="266" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="265"/>
+      <c r="C49" s="267"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39416,10 +39417,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="264" t="s">
+      <c r="B50" s="266" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="265"/>
+      <c r="C50" s="267"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39433,10 +39434,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="264" t="s">
+      <c r="B51" s="266" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="265"/>
+      <c r="C51" s="267"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39446,17 +39447,17 @@
       </c>
       <c r="G51" s="70"/>
     </row>
-    <row r="53" spans="1:7" ht="19.5" thickBot="1">
+    <row r="53" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A53" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="279" t="s">
+      <c r="E53" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="280"/>
+      <c r="F53" s="265"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39465,10 +39466,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="264" t="s">
+      <c r="B54" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="265"/>
+      <c r="C54" s="267"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39481,6 +39482,35 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:C1"/>
@@ -39497,35 +39527,6 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40526,12 +40527,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40548,11 +40549,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40561,14 +40562,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40577,12 +40578,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40591,12 +40592,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
-      <c r="C5" s="274"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="279"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="281"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40605,12 +40606,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="267"/>
+      <c r="G5" s="274"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="276"/>
-      <c r="B6" s="277"/>
-      <c r="C6" s="278"/>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40619,17 +40620,17 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="268"/>
+      <c r="G6" s="275"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="282"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="287"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40642,10 +40643,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="286" t="s">
+      <c r="A9" s="271" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="287"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40660,17 +40661,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="280"/>
+      <c r="F11" s="265"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40679,10 +40680,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40696,10 +40697,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40713,10 +40714,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40726,17 +40727,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" s="108" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="265"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40745,10 +40746,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="266" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="265"/>
+      <c r="C17" s="267"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40762,10 +40763,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="298" t="s">
+      <c r="B18" s="307" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="299"/>
+      <c r="C18" s="308"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40779,10 +40780,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="266" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="265"/>
+      <c r="C19" s="267"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40792,17 +40793,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75">
+    <row r="21" spans="1:7" ht="18">
       <c r="A21" s="108" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="279" t="s">
+      <c r="E21" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="280"/>
+      <c r="F21" s="265"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40811,10 +40812,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="298" t="s">
+      <c r="B22" s="307" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="299"/>
+      <c r="C22" s="308"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40828,10 +40829,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="298" t="s">
+      <c r="B23" s="307" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="299"/>
+      <c r="C23" s="308"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40845,10 +40846,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="307" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="299"/>
+      <c r="C24" s="308"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40862,10 +40863,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="307" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="299"/>
+      <c r="C25" s="308"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40879,10 +40880,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="307" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="299"/>
+      <c r="C26" s="308"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40892,17 +40893,17 @@
       </c>
       <c r="G26" s="70"/>
     </row>
-    <row r="28" spans="1:7" ht="18.75">
+    <row r="28" spans="1:7" ht="18">
       <c r="A28" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="279" t="s">
+      <c r="E28" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="280"/>
+      <c r="F28" s="265"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40911,10 +40912,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="264" t="s">
+      <c r="B29" s="266" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="265"/>
+      <c r="C29" s="267"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40928,10 +40929,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="264" t="s">
+      <c r="B30" s="266" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="265"/>
+      <c r="C30" s="267"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40945,10 +40946,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="266" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="265"/>
+      <c r="C31" s="267"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40962,10 +40963,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="266" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="265"/>
+      <c r="C32" s="267"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40979,10 +40980,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="266" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="265"/>
+      <c r="C33" s="267"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40992,17 +40993,17 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="19.5" thickBot="1">
+    <row r="35" spans="1:7" ht="18.399999999999999" thickBot="1">
       <c r="A35" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="279" t="s">
+      <c r="E35" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="280"/>
+      <c r="F35" s="265"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -41011,10 +41012,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="265"/>
+      <c r="C36" s="267"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -41027,20 +41028,6 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41054,6 +41041,20 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41714,12 +41715,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41736,11 +41737,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41752,14 +41753,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="278"/>
+      <c r="A3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="285"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41771,7 +41772,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="268"/>
+      <c r="G3" s="275"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41782,7 +41783,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A5" s="124" t="s">
         <v>264</v>
       </c>
@@ -41803,8 +41804,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="264"/>
-      <c r="C6" s="265"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="267"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41816,8 +41817,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="264"/>
-      <c r="C7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41829,8 +41830,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="267"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41842,8 +41843,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="264"/>
-      <c r="C9" s="265"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="267"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41855,8 +41856,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="265"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="267"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41868,8 +41869,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="264"/>
-      <c r="C11" s="265"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="267"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42229,12 +42230,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A1" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="285"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42251,11 +42252,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="276" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42267,14 +42268,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="273" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="275"/>
-      <c r="C3" s="274"/>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="281"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42286,12 +42287,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="267"/>
+      <c r="G3" s="274"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="272"/>
-      <c r="B4" s="275"/>
-      <c r="C4" s="274"/>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A4" s="279"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42303,12 +42304,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="274"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="276"/>
-      <c r="B5" s="277"/>
-      <c r="C5" s="278"/>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A5" s="283"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="285"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42320,7 +42321,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="268"/>
+      <c r="G5" s="275"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42331,11 +42332,11 @@
       <c r="F6" s="73"/>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="286" t="s">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A7" s="271" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="287"/>
+      <c r="B7" s="272"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42354,10 +42355,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="266" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="265"/>
+      <c r="C8" s="267"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42393,7 +42394,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A11" s="100" t="s">
         <v>276</v>
       </c>
@@ -42416,10 +42417,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="266" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="267"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42433,10 +42434,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="266" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="267"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42450,10 +42451,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="266" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="267"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42467,10 +42468,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="314" t="s">
+      <c r="B15" s="316" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="315"/>
+      <c r="C15" s="317"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42484,10 +42485,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="315" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="316"/>
+      <c r="C16" s="315"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42501,10 +42502,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="316"/>
+      <c r="C17" s="315"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42523,11 +42524,11 @@
       <c r="F18" s="73"/>
       <c r="G18" s="71"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="286" t="s">
+    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A19" s="271" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="287"/>
+      <c r="B19" s="272"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42546,10 +42547,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="266" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="265"/>
+      <c r="C20" s="267"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42563,10 +42564,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="264" t="s">
+      <c r="B21" s="266" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="265"/>
+      <c r="C21" s="267"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42580,10 +42581,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="316" t="s">
+      <c r="B22" s="315" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="316"/>
+      <c r="C22" s="315"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42597,10 +42598,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="315" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="316"/>
+      <c r="C23" s="315"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42614,10 +42615,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="316" t="s">
+      <c r="B24" s="315" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="316"/>
+      <c r="C24" s="315"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42631,10 +42632,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="315" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="316"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42644,14 +42645,14 @@
       </c>
       <c r="G25" s="86"/>
     </row>
-    <row r="26" spans="1:7" ht="39" thickBot="1">
+    <row r="26" spans="1:7" ht="39.75" thickBot="1">
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="315" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="316"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42665,10 +42666,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="315" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="316"/>
+      <c r="C27" s="315"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42682,10 +42683,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="316" t="s">
+      <c r="B28" s="315" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="316"/>
+      <c r="C28" s="315"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42695,14 +42696,14 @@
       </c>
       <c r="G28" s="86"/>
     </row>
-    <row r="29" spans="1:7" ht="39" thickBot="1">
+    <row r="29" spans="1:7" ht="39.75" thickBot="1">
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="315" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="316"/>
+      <c r="C29" s="315"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42716,10 +42717,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="315" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="316"/>
+      <c r="C30" s="315"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42732,11 +42733,11 @@
     <row r="31" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A31" s="89"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A32" s="286" t="s">
+    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A32" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="287"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42755,10 +42756,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="311" t="s">
+      <c r="B33" s="313" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="311"/>
+      <c r="C33" s="313"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42772,10 +42773,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="317" t="s">
+      <c r="B34" s="314" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="317"/>
+      <c r="C34" s="314"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42789,10 +42790,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="311" t="s">
+      <c r="B35" s="313" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="311"/>
+      <c r="C35" s="313"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42806,10 +42807,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="311" t="s">
+      <c r="B36" s="313" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="311"/>
+      <c r="C36" s="313"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42823,10 +42824,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="311" t="s">
+      <c r="B37" s="313" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="311"/>
+      <c r="C37" s="313"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42840,10 +42841,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="312" t="s">
+      <c r="B38" s="311" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="313"/>
+      <c r="C38" s="312"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42857,10 +42858,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="311" t="s">
+      <c r="B39" s="313" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="311"/>
+      <c r="C39" s="313"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42874,10 +42875,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="312" t="s">
+      <c r="B40" s="311" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="313"/>
+      <c r="C40" s="312"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42891,10 +42892,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="311" t="s">
+      <c r="B41" s="313" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="311"/>
+      <c r="C41" s="313"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42908,10 +42909,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="311" t="s">
+      <c r="B42" s="313" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="311"/>
+      <c r="C42" s="313"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42925,10 +42926,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="311" t="s">
+      <c r="B43" s="313" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="311"/>
+      <c r="C43" s="313"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42942,10 +42943,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="311" t="s">
+      <c r="B44" s="313" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="311"/>
+      <c r="C44" s="313"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42959,10 +42960,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="311" t="s">
+      <c r="B45" s="313" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="311"/>
+      <c r="C45" s="313"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42976,10 +42977,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="312" t="s">
+      <c r="B46" s="311" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="313"/>
+      <c r="C46" s="312"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42992,11 +42993,11 @@
     <row r="47" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A47" s="89"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A48" s="286" t="s">
+    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A48" s="271" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="287"/>
+      <c r="B48" s="272"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -43015,10 +43016,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="311" t="s">
+      <c r="B49" s="313" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="311"/>
+      <c r="C49" s="313"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -43032,10 +43033,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="311" t="s">
+      <c r="B50" s="313" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="311"/>
+      <c r="C50" s="313"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43049,10 +43050,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="311" t="s">
+      <c r="B51" s="313" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="311"/>
+      <c r="C51" s="313"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43066,10 +43067,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="312" t="s">
+      <c r="B52" s="311" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="313"/>
+      <c r="C52" s="312"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43083,10 +43084,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="311" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="313"/>
+      <c r="C53" s="312"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43100,10 +43101,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="311" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="313"/>
+      <c r="C54" s="312"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43117,10 +43118,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="312" t="s">
+      <c r="B55" s="311" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="313"/>
+      <c r="C55" s="312"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43134,10 +43135,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="311" t="s">
+      <c r="B56" s="313" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="311"/>
+      <c r="C56" s="313"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43151,10 +43152,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="311" t="s">
+      <c r="B57" s="313" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="311"/>
+      <c r="C57" s="313"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43168,10 +43169,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="311" t="s">
+      <c r="B58" s="313" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="311"/>
+      <c r="C58" s="313"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43181,14 +43182,14 @@
       </c>
       <c r="G58" s="90"/>
     </row>
-    <row r="59" spans="1:7" ht="26.25" thickBot="1">
+    <row r="59" spans="1:7" ht="26.65" thickBot="1">
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="311" t="s">
+      <c r="B59" s="313" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="311"/>
+      <c r="C59" s="313"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43202,10 +43203,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="311" t="s">
+      <c r="B60" s="313" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="311"/>
+      <c r="C60" s="313"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43219,10 +43220,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="311" t="s">
+      <c r="B61" s="313" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="311"/>
+      <c r="C61" s="313"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43235,11 +43236,11 @@
     <row r="62" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A62" s="89"/>
     </row>
-    <row r="63" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A63" s="286" t="s">
+    <row r="63" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A63" s="271" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="287"/>
+      <c r="B63" s="272"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43258,10 +43259,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="311" t="s">
+      <c r="B64" s="313" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="311"/>
+      <c r="C64" s="313"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43275,10 +43276,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="311" t="s">
+      <c r="B65" s="313" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="311"/>
+      <c r="C65" s="313"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43291,11 +43292,11 @@
     <row r="66" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A66" s="89"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A67" s="286" t="s">
+    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
+      <c r="A67" s="271" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="287"/>
+      <c r="B67" s="272"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43314,10 +43315,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="311" t="s">
+      <c r="B68" s="313" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="311"/>
+      <c r="C68" s="313"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43329,6 +43330,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="A63:B63"/>
@@ -43345,48 +43388,6 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44157,7 +44158,7 @@
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.75">
+    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.4">
       <c r="A1" s="133" t="s">
         <v>427</v>
       </c>
@@ -44330,21 +44331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44561,24 +44547,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44595,4 +44579,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GAM550 Game Engine Rubric.xlsx
+++ b/GAM550 Game Engine Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramzi\Desktop\DigiPen\Fall 2019\Gam550\cant_escape_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_2017_Projects\GAM550\cant_escape_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A5F3E-0F12-49D0-BCF2-C5BA18C7FC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD1133-383B-4114-A728-52CE18EE1126}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team &amp; Grade" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="519">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -2577,13 +2577,7 @@
     <t>We have halo light effect, a halo light effect  convey the intensity of the light sources in a more realistic scene</t>
   </si>
   <si>
-    <t>We have GPU based particle system that uses the geometry shader to manage the lifetime of the particles.</t>
-  </si>
-  <si>
     <t>We are using Dynamic Aabb tree to subdivide the space and consider collision only of the objects that are near to each other. We also using GJK and EPA algorithm  to detect collision of convex polygons. We a re usising constraints to simuilate Normal force and friction</t>
-  </si>
-  <si>
-    <t>Input thread &amp; Resources Loading Thread &amp; Main Thread</t>
   </si>
   <si>
     <t>Level Editor</t>
@@ -2604,6 +2598,89 @@
   <si>
     <t>We have keyframe animation working, and the animation can also work from scripts
 Blending and state machine</t>
+  </si>
+  <si>
+    <t>Document at least header files</t>
+  </si>
+  <si>
+    <t>describe it</t>
+  </si>
+  <si>
+    <t>describe what's extra</t>
+  </si>
+  <si>
+    <t>undocumented CRs
+by end of semester put in place a formal CR mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe your processes.  If you don't have a process, come up with one. </t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>mention your blending options</t>
+  </si>
+  <si>
+    <t>verges on great b/c of blending</t>
+  </si>
+  <si>
+    <t>Add bounding spheres for more credit</t>
+  </si>
+  <si>
+    <t>Scripting using Lua and sol. Fully scripted components (no cpp class required), fully serializable scripted components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =+ some credit for the space partitioning</t>
+  </si>
+  <si>
+    <t>We have three separate build configurations, DEBUG and RELEASE are used as usual, but with an additional build called DEVELOPER which runs as release but includes all debug tools and editing features in the engine.
+Runs in 64 bti</t>
+  </si>
+  <si>
+    <t>Input thread &amp; Resources Loading Thread &amp; Main Thread
+Memory allocations that use memory pools by type, and aligned based on that class type as well. 
+Event Manager uses smart pointers for subscribed function callbacks.
+We also override memory allocation for stl containers with our stack allocator, we never used it</t>
+  </si>
+  <si>
+    <t>All major features are tested in all builds (debug/developer/release) and we also test it on multiple machines. We have debugging tools such as memory profiler, graphics setting, physics setting and debug draw.  If there any features that may affect performance, we try to sample them and find the balancing frame rate.</t>
+  </si>
+  <si>
+    <t>We have GPU based particle system that uses the geometry shader to manage the lifetime of the particles. For blending we only allow additive blending for now</t>
+  </si>
+  <si>
+    <t>Cant Escape Games</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>GAM 5xx</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Ramzi Mourtada</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Albert Harley Hady</t>
+  </si>
+  <si>
+    <t>Aleksey Perfilev</t>
+  </si>
+  <si>
+    <t>Jose Rosenbluth</t>
+  </si>
+  <si>
+    <t>Arnold George</t>
   </si>
 </sst>
 </file>
@@ -4761,161 +4838,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -4925,113 +4855,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5142,11 +4965,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5169,39 +5022,235 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5257,19 +5306,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="9" borderId="4" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5293,11 +5360,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="58" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="59" xfId="653" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5337,19 +5430,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5361,24 +5442,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -31066,8 +31143,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.1" customHeight="1"/>
@@ -31090,38 +31167,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="230"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="146"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="228" t="s">
+      <c r="E1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="230"/>
+      <c r="F1" s="146"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="225" t="s">
+      <c r="H1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="227"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
       <c r="M1" s="23"/>
-      <c r="N1" s="222" t="s">
+      <c r="N1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="224"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="233"/>
+      <c r="A2" s="147" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="238"/>
+      <c r="E2" s="153" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" s="154"/>
       <c r="G2" s="22"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -31132,21 +31213,21 @@
       <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
       <c r="H3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="253" t="s">
+      <c r="J3" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="254"/>
+      <c r="K3" s="170"/>
       <c r="L3" s="10">
         <v>0.65</v>
       </c>
@@ -31164,43 +31245,43 @@
       <c r="H4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="247"/>
-      <c r="J4" s="248"/>
-      <c r="K4" s="249"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="6">
         <f>IF(LEFT(I4,6)="Normal",0,IF(LEFT(I4,6)="Fairly",0.02,IF(LEFT(I4,4)="Very",0.05,IF(LEFT(I4,5)="Truly",0.1,0))))</f>
         <v>0</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="N4" s="157" t="s">
+      <c r="N4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="159"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="173"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="246"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="22"/>
       <c r="H5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="241"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="243"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A6" s="105" t="s">
@@ -31225,31 +31306,41 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="250"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="252"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="168"/>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="23"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="176"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="103"/>
+      <c r="A7" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>511</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>512</v>
+      </c>
       <c r="F7" s="104"/>
       <c r="G7" s="5">
         <f>IF(OR($A7="NONE",$F7="(exempt)"),0,IF(OR($A7="OTHER",$A7="CG 3xx",$C7="CONTRACTOR",$D7="CONTRACTOR",$F7="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
@@ -31258,39 +31349,57 @@
         <v>0.65</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
     </row>
     <row r="8" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="103"/>
+      <c r="A8" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>513</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>515</v>
+      </c>
       <c r="F8" s="104"/>
       <c r="G8" s="5">
         <f t="shared" ref="G8:G22" si="0">IF(OR($A8="NONE",$F8="(exempt)"),0,IF(OR($A8="OTHER",$A8="CG 3xx",$C8="CONTRACTOR",$D8="CONTRACTOR",$F8="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="155" t="s">
+      <c r="L8" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="23"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="179"/>
     </row>
     <row r="9" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="123"/>
+      <c r="A9" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>514</v>
+      </c>
       <c r="D9" s="123"/>
-      <c r="E9" s="103"/>
+      <c r="E9" s="103" t="s">
+        <v>516</v>
+      </c>
       <c r="F9" s="104"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
@@ -31299,16 +31408,24 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="L9" s="257"/>
+      <c r="L9" s="183"/>
       <c r="M9" s="23"/>
       <c r="N9" s="121"/>
     </row>
     <row r="10" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="123"/>
+      <c r="A10" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>514</v>
+      </c>
       <c r="D10" s="123"/>
-      <c r="E10" s="103"/>
+      <c r="E10" s="103" t="s">
+        <v>517</v>
+      </c>
       <c r="F10" s="104"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
@@ -31336,11 +31453,19 @@
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="123"/>
+      <c r="A11" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="123" t="s">
+        <v>514</v>
+      </c>
       <c r="D11" s="123"/>
-      <c r="E11" s="103"/>
+      <c r="E11" s="103" t="s">
+        <v>518</v>
+      </c>
       <c r="F11" s="104"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
@@ -31361,11 +31486,11 @@
         <v>10</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="135" t="s">
+      <c r="N11" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="225"/>
     </row>
     <row r="12" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A12" s="102"/>
@@ -31393,9 +31518,9 @@
         <v>10</v>
       </c>
       <c r="M12" s="36"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="140"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="228"/>
     </row>
     <row r="13" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="102"/>
@@ -31423,9 +31548,9 @@
         <v>10</v>
       </c>
       <c r="M13" s="36"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="140"/>
+      <c r="N13" s="226"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="228"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A14" s="102"/>
@@ -31453,9 +31578,9 @@
         <v>10</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="140"/>
+      <c r="N14" s="226"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="228"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="102"/>
@@ -31483,9 +31608,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="140"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="102"/>
@@ -31513,9 +31638,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="140"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="228"/>
     </row>
     <row r="17" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A17" s="102"/>
@@ -31543,9 +31668,9 @@
         <v>10</v>
       </c>
       <c r="M17" s="42"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="140"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="228"/>
     </row>
     <row r="18" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="102"/>
@@ -31573,9 +31698,9 @@
         <v>10</v>
       </c>
       <c r="M18" s="43"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="140"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="228"/>
     </row>
     <row r="19" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="102"/>
@@ -31603,9 +31728,9 @@
         <v>10</v>
       </c>
       <c r="M19" s="43"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="140"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="228"/>
     </row>
     <row r="20" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A20" s="102"/>
@@ -31627,15 +31752,15 @@
       <c r="J20" s="41"/>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="43"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="140"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="228"/>
     </row>
     <row r="21" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A21" s="102"/>
@@ -31661,9 +31786,9 @@
         <v>10</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="143"/>
+      <c r="N21" s="229"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="231"/>
     </row>
     <row r="22" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="102"/>
@@ -31676,11 +31801,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H22" s="199" t="s">
+      <c r="H22" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
@@ -31689,11 +31814,11 @@
         <v>0.65</v>
       </c>
       <c r="M22" s="44"/>
-      <c r="N22" s="153" t="s">
+      <c r="N22" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
     </row>
     <row r="23" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
@@ -31706,17 +31831,17 @@
         <f>IF(OR($A23="NONE",$F23="(exempt)"),0,IF(OR($A23="OTHER",$A23="CG 3xx",$C23="CONTRACTOR",$D23="CONTRACTOR",$F23="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155" t="s">
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
     </row>
     <row r="24" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A24" s="102"/>
@@ -31732,8 +31857,8 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
       <c r="M24" s="23"/>
       <c r="N24" s="47"/>
     </row>
@@ -31760,11 +31885,11 @@
         <v>46</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="135" t="s">
+      <c r="N25" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="225"/>
       <c r="S25" s="111"/>
     </row>
     <row r="26" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
@@ -31784,7 +31909,7 @@
       <c r="I26" s="51"/>
       <c r="J26" s="112">
         <f>SUM(J27:J31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="15">
         <f>SUM(K27:K30)</f>
@@ -31795,9 +31920,9 @@
         <v>0.65</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="140"/>
+      <c r="N26" s="226"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="228"/>
     </row>
     <row r="27" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A27" s="102"/>
@@ -31826,9 +31951,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="140"/>
+      <c r="N27" s="226"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="228"/>
     </row>
     <row r="28" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="102"/>
@@ -31857,9 +31982,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="140"/>
+      <c r="N28" s="226"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="228"/>
     </row>
     <row r="29" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A29" s="102"/>
@@ -31888,9 +32013,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="140"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="228"/>
     </row>
     <row r="30" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A30" s="102"/>
@@ -31909,7 +32034,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="116">
         <f>IF(SUM(K$11:K$20)=0,0,(K$14+K$15+(K$16*0.5)+(K$17*0.5)+K18+K20)/SUM(K$11:K$20))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="19">
         <v>1</v>
@@ -31919,9 +32044,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="140"/>
+      <c r="N30" s="226"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="228"/>
     </row>
     <row r="31" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="102"/>
@@ -31945,9 +32070,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="143"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="231"/>
     </row>
     <row r="32" spans="1:19" ht="14.1" customHeight="1" thickBot="1">
       <c r="A32" s="102"/>
@@ -31960,10 +32085,10 @@
         <f>IF(OR($A32="NONE",$F32="(exempt)"),0,IF(OR($A32="OTHER",$A32="CG 3xx",$C32="CONTRACTOR",$D32="CONTRACTOR",$F32="(partial)"),1,2))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="168" t="s">
+      <c r="H32" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="168"/>
+      <c r="I32" s="245"/>
       <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
@@ -31976,20 +32101,22 @@
       <c r="N32" s="121"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A33" s="200" t="s">
+      <c r="A33" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212">
+        <v>4253658279</v>
+      </c>
+      <c r="F33" s="213"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="246"/>
       <c r="J33" s="55"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="155" t="s">
+      <c r="L33" s="182" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23"/>
@@ -32006,19 +32133,19 @@
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="156"/>
+      <c r="L34" s="207"/>
       <c r="M34" s="23"/>
       <c r="N34" s="121"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A35" s="205" t="s">
+      <c r="A35" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="216"/>
       <c r="H35" s="27" t="s">
         <v>56</v>
       </c>
@@ -32034,21 +32161,21 @@
         <v>0.65</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="157" t="s">
+      <c r="N35" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="158"/>
-      <c r="P35" s="159"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="173"/>
     </row>
     <row r="36" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A36" s="258" t="s">
+      <c r="A36" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="260"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
       <c r="H36" s="40" t="s">
         <v>59</v>
       </c>
@@ -32062,17 +32189,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="162"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="176"/>
     </row>
     <row r="37" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A37" s="261"/>
-      <c r="B37" s="262"/>
-      <c r="C37" s="262"/>
-      <c r="D37" s="262"/>
-      <c r="E37" s="262"/>
-      <c r="F37" s="263"/>
+      <c r="A37" s="187"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="189"/>
       <c r="H37" s="40" t="s">
         <v>60</v>
       </c>
@@ -32086,19 +32213,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="162"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="176"/>
     </row>
-    <row r="38" spans="1:16" ht="16.149999999999999" thickBot="1">
-      <c r="A38" s="187" t="s">
+    <row r="38" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A38" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="189"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="140"/>
       <c r="H38" s="32" t="s">
         <v>62</v>
       </c>
@@ -32112,74 +32239,74 @@
         <v>0</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="160"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="162"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="176"/>
     </row>
     <row r="39" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="189"/>
-      <c r="H39" s="179" t="s">
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="140"/>
+      <c r="H39" s="256" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="179"/>
-      <c r="J39" s="166" t="s">
+      <c r="I39" s="256"/>
+      <c r="J39" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="166"/>
+      <c r="K39" s="243"/>
       <c r="L39" s="4">
         <f>SUM(L35:L38)</f>
         <v>0.65</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="165"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="179"/>
     </row>
     <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="189"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="140"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="244"/>
+      <c r="K40" s="244"/>
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="189"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="140"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A42" s="187" t="s">
+      <c r="A42" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="189"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="140"/>
       <c r="H42" s="27" t="s">
         <v>69</v>
       </c>
@@ -32193,19 +32320,19 @@
       <c r="L42" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="170" t="s">
+      <c r="N42" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="181"/>
-      <c r="P42" s="182"/>
+      <c r="O42" s="258"/>
+      <c r="P42" s="259"/>
     </row>
     <row r="43" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A43" s="190"/>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="192"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="203"/>
       <c r="H43" s="32" t="s">
         <v>72</v>
       </c>
@@ -32219,94 +32346,94 @@
         <f>IF(K43&gt;0,0%,100%)</f>
         <v>1</v>
       </c>
-      <c r="N43" s="183"/>
-      <c r="O43" s="184"/>
-      <c r="P43" s="185"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="261"/>
+      <c r="P43" s="262"/>
     </row>
     <row r="44" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="L44" s="155" t="s">
+      <c r="L44" s="182" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="216" t="s">
+      <c r="A45" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="217"/>
-      <c r="C45" s="217"/>
-      <c r="D45" s="217"/>
-      <c r="E45" s="217"/>
-      <c r="F45" s="218"/>
-      <c r="L45" s="156"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="194"/>
+      <c r="L45" s="207"/>
     </row>
     <row r="46" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A46" s="193" t="s">
+      <c r="A46" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="194"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="195"/>
-      <c r="H46" s="144" t="s">
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="197"/>
+      <c r="H46" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="145"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="208">
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="217">
         <f>(MAX(0,MIN(1,IF($L39 &lt;= 0.95, ROUND($L39,2), FLOOR((0.95+($L39-0.95)/5),0.01)))))*L43</f>
         <v>0.65</v>
       </c>
-      <c r="L46" s="209"/>
-      <c r="N46" s="170" t="s">
+      <c r="L46" s="218"/>
+      <c r="N46" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="171"/>
-      <c r="P46" s="172"/>
+      <c r="O46" s="248"/>
+      <c r="P46" s="249"/>
     </row>
     <row r="47" spans="1:16" ht="14.1" customHeight="1">
-      <c r="A47" s="196"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="198"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="210"/>
-      <c r="L47" s="211"/>
-      <c r="N47" s="173"/>
-      <c r="O47" s="174"/>
-      <c r="P47" s="175"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="206"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="236"/>
+      <c r="J47" s="237"/>
+      <c r="K47" s="219"/>
+      <c r="L47" s="220"/>
+      <c r="N47" s="250"/>
+      <c r="O47" s="251"/>
+      <c r="P47" s="252"/>
     </row>
     <row r="48" spans="1:16" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="194"/>
-      <c r="C48" s="194"/>
-      <c r="D48" s="194"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="195"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="212"/>
-      <c r="L48" s="213"/>
-      <c r="N48" s="176"/>
-      <c r="O48" s="177"/>
-      <c r="P48" s="178"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="197"/>
+      <c r="H48" s="238"/>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="221"/>
+      <c r="L48" s="222"/>
+      <c r="N48" s="253"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="255"/>
     </row>
     <row r="49" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A49" s="193" t="s">
+      <c r="A49" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="194"/>
-      <c r="C49" s="194"/>
-      <c r="D49" s="194"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="195"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="197"/>
       <c r="H49" s="122"/>
       <c r="I49" s="122"/>
       <c r="J49" s="122"/>
@@ -32314,14 +32441,14 @@
       <c r="L49" s="122"/>
     </row>
     <row r="50" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A50" s="193" t="s">
+      <c r="A50" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="194"/>
-      <c r="C50" s="194"/>
-      <c r="D50" s="194"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="195"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="197"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -32329,14 +32456,14 @@
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="221"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="200"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -32344,14 +32471,14 @@
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" ht="27" customHeight="1">
-      <c r="A52" s="214" t="s">
+      <c r="A52" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="214"/>
-      <c r="C52" s="214"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="214"/>
-      <c r="F52" s="214"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
       <c r="J52" s="61"/>
@@ -32359,12 +32486,12 @@
       <c r="L52" s="63"/>
     </row>
     <row r="53" spans="1:12" ht="14.1" customHeight="1">
-      <c r="A53" s="215"/>
-      <c r="B53" s="215"/>
-      <c r="C53" s="215"/>
-      <c r="D53" s="215"/>
-      <c r="E53" s="215"/>
-      <c r="F53" s="215"/>
+      <c r="A53" s="191"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
       <c r="J53" s="61"/>
@@ -32383,6 +32510,37 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="N11:P21"/>
+    <mergeCell ref="H46:J48"/>
+    <mergeCell ref="N22:P23"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="N35:P39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="N46:P48"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="N25:P31"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A46:F47"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="K46:L48"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="H1:L1"/>
@@ -32399,37 +32557,6 @@
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A46:F47"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="K46:L48"/>
-    <mergeCell ref="N11:P21"/>
-    <mergeCell ref="H46:J48"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="N35:P39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="N46:P48"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N42:P43"/>
-    <mergeCell ref="N25:P31"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -32479,12 +32606,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -32501,11 +32628,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -32514,14 +32641,14 @@
         <f>COUNTIF($G$9:$G$117,D2)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -32530,12 +32657,12 @@
         <f>COUNTIF($G$9:$G$117,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -32544,12 +32671,12 @@
         <f>COUNTIF($G$9:$G$117,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="281"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -32558,12 +32685,12 @@
         <f>COUNTIF($G$9:$G$117,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="279"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="281"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="272"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -32572,18 +32699,18 @@
         <f>COUNTIF($G$9:$G$117,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="283"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="285"/>
+      <c r="A7" s="276"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="275"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="268"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -32594,11 +32721,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="271" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="286" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -32614,17 +32741,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -32633,10 +32760,10 @@
       <c r="A12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="110" t="s">
         <v>100</v>
@@ -32650,10 +32777,10 @@
       <c r="A13" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -32667,10 +32794,10 @@
       <c r="A14" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -32680,17 +32807,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="265"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -32699,10 +32826,10 @@
       <c r="A17" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -32716,10 +32843,10 @@
       <c r="A18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="267"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -32733,10 +32860,10 @@
       <c r="A19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -32746,17 +32873,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="265"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -32765,10 +32892,10 @@
       <c r="A22" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="264" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="267"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -32782,10 +32909,10 @@
       <c r="A23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="267"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -32799,10 +32926,10 @@
       <c r="A24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -32812,17 +32939,17 @@
       </c>
       <c r="G24" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="19.5" thickBot="1">
       <c r="A26" s="108" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="107"/>
       <c r="D26" s="107"/>
-      <c r="E26" s="264" t="s">
+      <c r="E26" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="265"/>
+      <c r="F26" s="280"/>
       <c r="G26" s="109" t="s">
         <v>85</v>
       </c>
@@ -32831,10 +32958,10 @@
       <c r="A27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="266" t="s">
+      <c r="B27" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="267"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -32848,10 +32975,10 @@
       <c r="A28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -32865,10 +32992,10 @@
       <c r="A29" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -32878,17 +33005,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="264" t="s">
+      <c r="E31" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="265"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -32897,10 +33024,10 @@
       <c r="A32" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -32914,10 +33041,10 @@
       <c r="A33" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -32931,10 +33058,10 @@
       <c r="A34" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="267"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="70"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -32948,10 +33075,10 @@
       <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -32961,17 +33088,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="265"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -32980,10 +33107,10 @@
       <c r="A38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="264" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -32997,10 +33124,10 @@
       <c r="A39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="264" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="267"/>
+      <c r="C39" s="265"/>
       <c r="D39" s="70"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -33010,17 +33137,17 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="41" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="41" spans="1:7" ht="19.5" thickBot="1">
       <c r="A41" s="108" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
       <c r="D41" s="107"/>
-      <c r="E41" s="264" t="s">
+      <c r="E41" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="265"/>
+      <c r="F41" s="280"/>
       <c r="G41" s="109" t="s">
         <v>85</v>
       </c>
@@ -33029,10 +33156,10 @@
       <c r="A42" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="264" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="267"/>
+      <c r="C42" s="265"/>
       <c r="D42" s="70"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -33046,10 +33173,10 @@
       <c r="A43" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="266" t="s">
+      <c r="B43" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="267"/>
+      <c r="C43" s="265"/>
       <c r="D43" s="70"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -33063,10 +33190,10 @@
       <c r="A44" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="266" t="s">
+      <c r="B44" s="264" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="267"/>
+      <c r="C44" s="265"/>
       <c r="D44" s="70"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -33080,10 +33207,10 @@
       <c r="A45" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="266" t="s">
+      <c r="B45" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="267"/>
+      <c r="C45" s="265"/>
       <c r="D45" s="70"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -33095,14 +33222,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="B18:C18"/>
@@ -33114,21 +33248,14 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="A46:A118">
     <cfRule type="beginsWith" dxfId="1932" priority="3226" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -34990,12 +35117,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -35012,11 +35139,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -35025,14 +35152,14 @@
         <f>COUNTIF($G$11:$G$115,D2)</f>
         <v>8</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -35041,12 +35168,12 @@
         <f>COUNTIF($G$11:$G$115,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="280"/>
-      <c r="C4" s="281"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -35055,12 +35182,12 @@
         <f>COUNTIF($G$11:$G$115,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="280"/>
-      <c r="C5" s="281"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -35069,12 +35196,12 @@
         <f>COUNTIF($G$11:$G$115,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="279"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="281"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="272"/>
+      <c r="B6" s="273"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -35083,18 +35210,18 @@
         <f>COUNTIF($G$11:$G$115,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="293"/>
-      <c r="B7" s="294"/>
-      <c r="C7" s="295"/>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="290"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="292"/>
       <c r="D7" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="288"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="295"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -35105,12 +35232,12 @@
       <c r="F8" s="118"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="271" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="286" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="292"/>
-      <c r="C9" s="272"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="287"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -35124,17 +35251,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>152</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -35143,10 +35270,10 @@
       <c r="A12" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -35156,17 +35283,17 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="14" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1">
       <c r="A14" s="108" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
-      <c r="E14" s="264" t="s">
+      <c r="E14" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="265"/>
+      <c r="F14" s="280"/>
       <c r="G14" s="109" t="s">
         <v>85</v>
       </c>
@@ -35175,10 +35302,10 @@
       <c r="A15" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="264" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="267"/>
+      <c r="C15" s="265"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -35192,10 +35319,10 @@
       <c r="A16" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="291" t="s">
+      <c r="B16" s="288" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="267"/>
+      <c r="C16" s="265"/>
       <c r="D16" s="70"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -35209,10 +35336,10 @@
       <c r="A17" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="291" t="s">
+      <c r="B17" s="288" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -35222,17 +35349,17 @@
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="19" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1">
       <c r="A19" s="108" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="107"/>
-      <c r="E19" s="264" t="s">
+      <c r="E19" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="265"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="109" t="s">
         <v>85</v>
       </c>
@@ -35241,10 +35368,10 @@
       <c r="A20" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="291" t="s">
+      <c r="B20" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="267"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -35258,10 +35385,10 @@
       <c r="A21" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="267"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -35271,17 +35398,17 @@
       </c>
       <c r="G21" s="70"/>
     </row>
-    <row r="23" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="19.5" thickBot="1">
       <c r="A23" s="108" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
       <c r="D23" s="107"/>
-      <c r="E23" s="264" t="s">
+      <c r="E23" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="265"/>
+      <c r="F23" s="280"/>
       <c r="G23" s="109" t="s">
         <v>85</v>
       </c>
@@ -35290,10 +35417,10 @@
       <c r="A24" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="291" t="s">
+      <c r="B24" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -35307,10 +35434,10 @@
       <c r="A25" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="291" t="s">
+      <c r="B25" s="288" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -35320,17 +35447,17 @@
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="265"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -35339,10 +35466,10 @@
       <c r="A28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="291" t="s">
+      <c r="B28" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -35356,10 +35483,10 @@
       <c r="A29" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="291" t="s">
+      <c r="B29" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -35369,17 +35496,17 @@
       </c>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="108" t="s">
         <v>176</v>
       </c>
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="107"/>
-      <c r="E31" s="264" t="s">
+      <c r="E31" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="265"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="109" t="s">
         <v>85</v>
       </c>
@@ -35388,10 +35515,10 @@
       <c r="A32" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="288" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -35401,17 +35528,17 @@
       </c>
       <c r="G32" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="264" t="s">
+      <c r="E34" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="265"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -35420,10 +35547,10 @@
       <c r="A35" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="291" t="s">
+      <c r="B35" s="288" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -35433,17 +35560,17 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="37" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
       <c r="A37" s="108" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
       <c r="D37" s="107"/>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="265"/>
+      <c r="F37" s="280"/>
       <c r="G37" s="109" t="s">
         <v>85</v>
       </c>
@@ -35452,10 +35579,10 @@
       <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="264" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -35738,12 +35865,16 @@
     <row r="155" s="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B17:C17"/>
@@ -35754,16 +35885,12 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="E41:F280">
     <cfRule type="beginsWith" dxfId="1384" priority="2521" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -37176,12 +37303,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -37198,11 +37325,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -37211,14 +37338,14 @@
         <f>COUNTIF($G$9:$G$128,D2)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -37227,12 +37354,12 @@
         <f>COUNTIF($G$9:$G$128,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -37241,12 +37368,12 @@
         <f>COUNTIF($G$9:$G$128,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="281"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -37255,12 +37382,12 @@
         <f>COUNTIF($G$9:$G$128,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="279"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="281"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="272"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -37269,18 +37396,18 @@
         <f>COUNTIF($G$9:$G$128,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="274"/>
+      <c r="G6" s="267"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="285"/>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="276"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
       <c r="D7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="275"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="268"/>
     </row>
     <row r="8" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -37292,11 +37419,11 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="292"/>
-      <c r="C9" s="272"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="287"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
       </c>
@@ -37311,17 +37438,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -37330,10 +37457,10 @@
       <c r="A12" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -37347,10 +37474,10 @@
       <c r="A13" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -37364,10 +37491,10 @@
       <c r="A14" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -37378,17 +37505,17 @@
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="108" t="s">
         <v>191</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="265"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -37397,10 +37524,10 @@
       <c r="A17" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -37414,10 +37541,10 @@
       <c r="A18" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="264" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="267"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -37431,10 +37558,10 @@
       <c r="A19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -37445,17 +37572,17 @@
       <c r="G19" s="70"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="21" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="108" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="265"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -37464,10 +37591,10 @@
       <c r="A22" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="264" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="267"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -37481,10 +37608,10 @@
       <c r="A23" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="264" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="267"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -37498,10 +37625,10 @@
       <c r="A24" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="264" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="267"/>
+      <c r="C24" s="265"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -37515,10 +37642,10 @@
       <c r="A25" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="266" t="s">
+      <c r="B25" s="264" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -37529,17 +37656,17 @@
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="108" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="265"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="109" t="s">
         <v>85</v>
       </c>
@@ -37548,10 +37675,10 @@
       <c r="A28" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="264" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -37562,17 +37689,17 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="264" t="s">
+      <c r="E30" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="265"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -37581,10 +37708,10 @@
       <c r="A31" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="264" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="267"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -37598,10 +37725,10 @@
       <c r="A32" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -37612,17 +37739,17 @@
       <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1"/>
-    <row r="34" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="108" t="s">
         <v>215</v>
       </c>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="107"/>
-      <c r="E34" s="264" t="s">
+      <c r="E34" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="265"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="109" t="s">
         <v>85</v>
       </c>
@@ -37631,10 +37758,10 @@
       <c r="A35" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="264" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -37663,6 +37790,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B22:C22"/>
@@ -37673,22 +37816,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A99">
     <cfRule type="beginsWith" dxfId="974" priority="681" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -38624,8 +38751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7796A703-CB01-B546-96F6-2FF8CF6BC92E}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -38639,12 +38766,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -38654,18 +38781,18 @@
       </c>
       <c r="F1" s="76" t="str">
         <f>""&amp;COUNTIF(F$9:F$122,"Untested")&amp;" Untested"</f>
-        <v>35 Untested</v>
+        <v>10 Untested</v>
       </c>
       <c r="G1" s="68" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="302" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="300"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="304"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -38674,14 +38801,14 @@
         <f>COUNTIF($G$9:$G$122,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="301"/>
-      <c r="B3" s="302"/>
-      <c r="C3" s="303"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="305"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="307"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -38690,12 +38817,12 @@
         <f>COUNTIF($G$9:$G$122,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="301"/>
-      <c r="B4" s="302"/>
-      <c r="C4" s="303"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="307"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -38704,12 +38831,12 @@
         <f>COUNTIF($G$9:$G$122,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="301"/>
-      <c r="B5" s="302"/>
-      <c r="C5" s="303"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="305"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="307"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -38718,12 +38845,12 @@
         <f>COUNTIF($G$9:$G$122,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="304"/>
-      <c r="B6" s="305"/>
-      <c r="C6" s="306"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="308"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="310"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -38732,17 +38859,17 @@
         <f>COUNTIF($G$9:$G$122,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="275"/>
+      <c r="G6" s="268"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="129"/>
       <c r="B7" s="129"/>
       <c r="C7" s="129"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -38754,11 +38881,11 @@
       <c r="F8" s="73"/>
       <c r="G8" s="71"/>
     </row>
-    <row r="9" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A9" s="271" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A9" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -38773,17 +38900,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -38792,10 +38919,10 @@
       <c r="A12" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70" t="s">
         <v>478</v>
       </c>
@@ -38803,18 +38930,20 @@
         <v>453</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="70"/>
+        <v>452</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="104.1" customHeight="1" thickBot="1">
       <c r="A13" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70" t="s">
         <v>479</v>
       </c>
@@ -38822,7 +38951,7 @@
         <v>453</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G13" s="70"/>
     </row>
@@ -38830,10 +38959,10 @@
       <c r="A14" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70" t="s">
         <v>480</v>
       </c>
@@ -38841,7 +38970,7 @@
         <v>453</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G14" s="70"/>
     </row>
@@ -38849,65 +38978,69 @@
       <c r="A15" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="267"/>
+      <c r="C15" s="265"/>
       <c r="D15" s="70"/>
       <c r="E15" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G15" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="115.5" thickBot="1">
       <c r="A16" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="264" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="267"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="70" t="s">
+        <v>504</v>
+      </c>
       <c r="E16" s="68" t="s">
         <v>454</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="70"/>
+      <c r="G16" s="70" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="71.099999999999994" customHeight="1" thickBot="1">
       <c r="A17" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G17" s="70"/>
     </row>
-    <row r="18" spans="1:7" ht="88.15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="166.5" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="266" t="s">
+      <c r="B18" s="264" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="267"/>
+      <c r="C18" s="265"/>
       <c r="D18" s="70" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>454</v>
@@ -38915,22 +39048,24 @@
       <c r="F18" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="70"/>
+      <c r="G18" s="70" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="39" customHeight="1" thickBot="1">
       <c r="A19" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G19" s="70"/>
     </row>
@@ -38938,16 +39073,16 @@
       <c r="A20" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="264" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="267"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G20" s="70"/>
     </row>
@@ -38955,10 +39090,10 @@
       <c r="A21" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="309" t="s">
+      <c r="B21" s="300" t="s">
         <v>447</v>
       </c>
-      <c r="C21" s="310"/>
+      <c r="C21" s="301"/>
       <c r="D21" s="134" t="s">
         <v>390</v>
       </c>
@@ -38968,107 +39103,119 @@
       <c r="F21" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="130"/>
+      <c r="G21" s="130" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="36" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="46.5" customHeight="1" thickBot="1">
       <c r="A22" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="266" t="s">
+      <c r="B22" s="264" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="267"/>
+      <c r="C22" s="265"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>451</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="70"/>
+        <v>431</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="61.15" customHeight="1" thickBot="1">
       <c r="A23" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B23" s="266" t="s">
+      <c r="B23" s="264" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="267"/>
+      <c r="C23" s="265"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G23" s="70"/>
     </row>
-    <row r="24" spans="1:7" ht="51" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="103.5" customHeight="1" thickBot="1">
       <c r="A24" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="266" t="s">
+      <c r="B24" s="264" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="267"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="70" t="s">
+        <v>506</v>
+      </c>
       <c r="E24" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="70"/>
+        <v>452</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="51" customHeight="1" thickBot="1">
       <c r="A25" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="266" t="s">
+      <c r="B25" s="264" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="267"/>
+      <c r="C25" s="265"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G25" s="70"/>
     </row>
-    <row r="26" spans="1:7" ht="51" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" ht="51.75" thickBot="1">
       <c r="A26" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="266" t="s">
+      <c r="B26" s="264" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="267"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="70" t="s">
+        <v>502</v>
+      </c>
       <c r="E26" s="68" t="s">
         <v>454</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="70"/>
+      <c r="G26" s="70" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="51" customHeight="1" thickBot="1">
       <c r="A27" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="266" t="s">
+      <c r="B27" s="264" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="267"/>
+      <c r="C27" s="265"/>
       <c r="D27" s="70"/>
       <c r="E27" s="68" t="s">
         <v>429</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="G27" s="70"/>
     </row>
@@ -39076,32 +39223,32 @@
       <c r="A28" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="264" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="267"/>
+      <c r="C28" s="265"/>
       <c r="D28" s="70" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E28" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G28" s="70"/>
     </row>
-    <row r="30" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="108" t="s">
         <v>397</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="107"/>
-      <c r="E30" s="264" t="s">
+      <c r="E30" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="265"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="109" t="s">
         <v>85</v>
       </c>
@@ -39110,16 +39257,16 @@
       <c r="A31" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="307" t="s">
+      <c r="B31" s="298" t="s">
         <v>448</v>
       </c>
-      <c r="C31" s="308"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G31" s="70"/>
     </row>
@@ -39127,10 +39274,10 @@
       <c r="A32" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70" t="s">
         <v>484</v>
       </c>
@@ -39138,7 +39285,7 @@
         <v>454</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="G32" s="70"/>
     </row>
@@ -39146,10 +39293,10 @@
       <c r="A33" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="264" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70" t="s">
         <v>481</v>
       </c>
@@ -39157,7 +39304,7 @@
         <v>454</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="G33" s="70"/>
     </row>
@@ -39165,10 +39312,10 @@
       <c r="A34" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="264" t="s">
         <v>476</v>
       </c>
-      <c r="C34" s="267"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="70" t="s">
         <v>482</v>
       </c>
@@ -39176,7 +39323,7 @@
         <v>454</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="G34" s="70"/>
     </row>
@@ -39184,29 +39331,31 @@
       <c r="A35" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="264" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="70" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="E35" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="70"/>
+        <v>456</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="96.75" customHeight="1" thickBot="1">
       <c r="A36" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="266" t="s">
+      <c r="B36" s="264" t="s">
         <v>474</v>
       </c>
-      <c r="C36" s="267"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="70" t="s">
         <v>483</v>
       </c>
@@ -39214,7 +39363,7 @@
         <v>454</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="G36" s="70"/>
     </row>
@@ -39222,29 +39371,31 @@
       <c r="A37" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="264" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="267"/>
+      <c r="C37" s="265"/>
       <c r="D37" s="70" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E37" s="68" t="s">
         <v>453</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="70"/>
+        <v>456</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="59.1" customHeight="1" thickBot="1">
       <c r="A38" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="264" t="s">
         <v>472</v>
       </c>
-      <c r="C38" s="267"/>
+      <c r="C38" s="265"/>
       <c r="D38" s="70" t="s">
         <v>485</v>
       </c>
@@ -39252,41 +39403,41 @@
         <v>454</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="40" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="19.5" thickBot="1">
       <c r="A40" s="108" t="s">
         <v>445</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
       <c r="D40" s="107"/>
-      <c r="E40" s="264" t="s">
+      <c r="E40" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="265"/>
+      <c r="F40" s="280"/>
       <c r="G40" s="109" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="41" spans="1:7" ht="77.25" thickBot="1">
       <c r="A41" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="307" t="s">
+      <c r="B41" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="308"/>
+      <c r="C41" s="299"/>
       <c r="D41" s="70" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E41" s="68" t="s">
         <v>454</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="G41" s="70"/>
     </row>
@@ -39294,70 +39445,74 @@
       <c r="A42" s="74" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="307" t="s">
+      <c r="B42" s="298" t="s">
         <v>470</v>
       </c>
-      <c r="C42" s="308"/>
+      <c r="C42" s="299"/>
       <c r="D42" s="70" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E42" s="68" t="s">
         <v>454</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="70"/>
+        <v>433</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A43" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="307" t="s">
+      <c r="B43" s="298" t="s">
         <v>469</v>
       </c>
-      <c r="C43" s="308"/>
+      <c r="C43" s="299"/>
       <c r="D43" s="70" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E43" s="68" t="s">
         <v>454</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="1:7" ht="118.5" thickBot="1">
+    <row r="44" spans="1:7" ht="115.5" thickBot="1">
       <c r="A44" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="307" t="s">
+      <c r="B44" s="298" t="s">
         <v>410</v>
       </c>
-      <c r="C44" s="308"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E44" s="68" t="s">
         <v>454</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="70"/>
+        <v>433</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="19.5" thickBot="1">
       <c r="A46" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
       <c r="D46" s="107"/>
-      <c r="E46" s="264" t="s">
+      <c r="E46" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="265"/>
+      <c r="F46" s="280"/>
       <c r="G46" s="109" t="s">
         <v>85</v>
       </c>
@@ -39366,10 +39521,10 @@
       <c r="A47" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="266" t="s">
+      <c r="B47" s="264" t="s">
         <v>468</v>
       </c>
-      <c r="C47" s="267"/>
+      <c r="C47" s="265"/>
       <c r="D47" s="70"/>
       <c r="E47" s="68" t="s">
         <v>100</v>
@@ -39383,10 +39538,10 @@
       <c r="A48" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="266" t="s">
+      <c r="B48" s="264" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="267"/>
+      <c r="C48" s="265"/>
       <c r="D48" s="70"/>
       <c r="E48" s="68" t="s">
         <v>100</v>
@@ -39400,10 +39555,10 @@
       <c r="A49" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="266" t="s">
+      <c r="B49" s="264" t="s">
         <v>466</v>
       </c>
-      <c r="C49" s="267"/>
+      <c r="C49" s="265"/>
       <c r="D49" s="70"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -39417,10 +39572,10 @@
       <c r="A50" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="266" t="s">
+      <c r="B50" s="264" t="s">
         <v>464</v>
       </c>
-      <c r="C50" s="267"/>
+      <c r="C50" s="265"/>
       <c r="D50" s="70"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -39434,10 +39589,10 @@
       <c r="A51" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="266" t="s">
+      <c r="B51" s="264" t="s">
         <v>463</v>
       </c>
-      <c r="C51" s="267"/>
+      <c r="C51" s="265"/>
       <c r="D51" s="70"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -39447,17 +39602,17 @@
       </c>
       <c r="G51" s="70"/>
     </row>
-    <row r="53" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="53" spans="1:7" ht="19.5" thickBot="1">
       <c r="A53" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B53" s="107"/>
       <c r="C53" s="107"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="264" t="s">
+      <c r="E53" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="265"/>
+      <c r="F53" s="280"/>
       <c r="G53" s="109" t="s">
         <v>85</v>
       </c>
@@ -39466,10 +39621,10 @@
       <c r="A54" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="266" t="s">
+      <c r="B54" s="264" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="267"/>
+      <c r="C54" s="265"/>
       <c r="D54" s="70"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -39482,19 +39637,22 @@
     <row r="55" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
@@ -39511,22 +39669,19 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A94">
     <cfRule type="beginsWith" dxfId="773" priority="384" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -40527,12 +40682,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>83</v>
       </c>
@@ -40549,11 +40704,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>85</v>
       </c>
@@ -40562,14 +40717,14 @@
         <f>COUNTIF($G$9:$G$104,D2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>87</v>
       </c>
@@ -40578,12 +40733,12 @@
         <f>COUNTIF($G$9:$G$104,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>88</v>
       </c>
@@ -40592,12 +40747,12 @@
         <f>COUNTIF($G$9:$G$104,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="281"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="272"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="77" t="s">
         <v>89</v>
       </c>
@@ -40606,12 +40761,12 @@
         <f>COUNTIF($G$9:$G$104,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="274"/>
+      <c r="G5" s="267"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A6" s="276"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="278"/>
       <c r="D6" s="77" t="s">
         <v>90</v>
       </c>
@@ -40620,17 +40775,17 @@
         <f>COUNTIF($G$9:$G$104,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="275"/>
+      <c r="G6" s="268"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
       <c r="D7" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="282"/>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -40643,10 +40798,10 @@
       <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="287"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68" t="s">
         <v>93</v>
@@ -40661,17 +40816,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="108" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
-      <c r="E11" s="264" t="s">
+      <c r="E11" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="265"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="109" t="s">
         <v>85</v>
       </c>
@@ -40680,10 +40835,10 @@
       <c r="A12" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -40697,10 +40852,10 @@
       <c r="A13" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -40714,10 +40869,10 @@
       <c r="A14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -40727,17 +40882,17 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16" s="108" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
-      <c r="E16" s="264" t="s">
+      <c r="E16" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="265"/>
+      <c r="F16" s="280"/>
       <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
@@ -40746,10 +40901,10 @@
       <c r="A17" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="266" t="s">
+      <c r="B17" s="264" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="267"/>
+      <c r="C17" s="265"/>
       <c r="D17" s="70"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -40763,10 +40918,10 @@
       <c r="A18" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="307" t="s">
+      <c r="B18" s="298" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="308"/>
+      <c r="C18" s="299"/>
       <c r="D18" s="70"/>
       <c r="E18" s="68" t="s">
         <v>100</v>
@@ -40780,10 +40935,10 @@
       <c r="A19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="266" t="s">
+      <c r="B19" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="267"/>
+      <c r="C19" s="265"/>
       <c r="D19" s="70"/>
       <c r="E19" s="68" t="s">
         <v>100</v>
@@ -40793,17 +40948,17 @@
       </c>
       <c r="G19" s="70"/>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:7" ht="18.75">
       <c r="A21" s="108" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="265"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="109" t="s">
         <v>85</v>
       </c>
@@ -40812,10 +40967,10 @@
       <c r="A22" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="307" t="s">
+      <c r="B22" s="298" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="308"/>
+      <c r="C22" s="299"/>
       <c r="D22" s="70"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -40829,10 +40984,10 @@
       <c r="A23" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="307" t="s">
+      <c r="B23" s="298" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="308"/>
+      <c r="C23" s="299"/>
       <c r="D23" s="70"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -40846,10 +41001,10 @@
       <c r="A24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="307" t="s">
+      <c r="B24" s="298" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="308"/>
+      <c r="C24" s="299"/>
       <c r="D24" s="70"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -40863,10 +41018,10 @@
       <c r="A25" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="307" t="s">
+      <c r="B25" s="298" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="308"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="70"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -40880,10 +41035,10 @@
       <c r="A26" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="298" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="308"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="70"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -40893,17 +41048,17 @@
       </c>
       <c r="G26" s="70"/>
     </row>
-    <row r="28" spans="1:7" ht="18">
+    <row r="28" spans="1:7" ht="18.75">
       <c r="A28" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="107"/>
       <c r="D28" s="107"/>
-      <c r="E28" s="264" t="s">
+      <c r="E28" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="265"/>
+      <c r="F28" s="280"/>
       <c r="G28" s="109" t="s">
         <v>85</v>
       </c>
@@ -40912,10 +41067,10 @@
       <c r="A29" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="264" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="265"/>
       <c r="D29" s="70"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -40929,10 +41084,10 @@
       <c r="A30" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="266" t="s">
+      <c r="B30" s="264" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="267"/>
+      <c r="C30" s="265"/>
       <c r="D30" s="70"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -40946,10 +41101,10 @@
       <c r="A31" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="264" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="267"/>
+      <c r="C31" s="265"/>
       <c r="D31" s="70"/>
       <c r="E31" s="68" t="s">
         <v>100</v>
@@ -40963,10 +41118,10 @@
       <c r="A32" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="264" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="70"/>
       <c r="E32" s="68" t="s">
         <v>100</v>
@@ -40980,10 +41135,10 @@
       <c r="A33" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="264" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="70"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -40993,17 +41148,17 @@
       </c>
       <c r="G33" s="70"/>
     </row>
-    <row r="35" spans="1:7" ht="18.399999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="108" t="s">
         <v>257</v>
       </c>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="107"/>
-      <c r="E35" s="264" t="s">
+      <c r="E35" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="265"/>
+      <c r="F35" s="280"/>
       <c r="G35" s="109" t="s">
         <v>85</v>
       </c>
@@ -41012,10 +41167,10 @@
       <c r="A36" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="266" t="s">
+      <c r="B36" s="264" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="267"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="70"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -41028,6 +41183,20 @@
     <row r="37" spans="1:7" ht="72" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E21:F21"/>
@@ -41041,20 +41210,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A37:A76">
     <cfRule type="beginsWith" dxfId="495" priority="237" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -41715,12 +41870,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -41737,11 +41892,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>261</v>
       </c>
@@ -41753,14 +41908,14 @@
         <f>COUNTIF($F$5:$F$32,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="284"/>
-      <c r="C3" s="285"/>
+      <c r="A3" s="276"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="278"/>
       <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
@@ -41772,7 +41927,7 @@
         <f>COUNTIF($F$5:$F$32,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="275"/>
+      <c r="G3" s="268"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A4" s="94"/>
@@ -41783,7 +41938,7 @@
       <c r="F4" s="95"/>
       <c r="G4" s="97"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
       <c r="A5" s="124" t="s">
         <v>264</v>
       </c>
@@ -41804,8 +41959,8 @@
     </row>
     <row r="6" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A6" s="82"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="267"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="265"/>
       <c r="D6" s="70"/>
       <c r="E6" s="68" t="s">
         <v>100</v>
@@ -41817,8 +41972,8 @@
     </row>
     <row r="7" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="267"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="265"/>
       <c r="D7" s="70"/>
       <c r="E7" s="68" t="s">
         <v>100</v>
@@ -41830,8 +41985,8 @@
     </row>
     <row r="8" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="267"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -41843,8 +41998,8 @@
     </row>
     <row r="9" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="267"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="265"/>
       <c r="D9" s="70"/>
       <c r="E9" s="68" t="s">
         <v>100</v>
@@ -41856,8 +42011,8 @@
     </row>
     <row r="10" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="265"/>
       <c r="D10" s="70"/>
       <c r="E10" s="68" t="s">
         <v>100</v>
@@ -41869,8 +42024,8 @@
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="267"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="265"/>
       <c r="D11" s="70"/>
       <c r="E11" s="68" t="s">
         <v>100</v>
@@ -42230,12 +42385,12 @@
     <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A1" s="283" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="285"/>
       <c r="D1" s="75" t="s">
         <v>260</v>
       </c>
@@ -42252,11 +42407,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="269" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="77" t="s">
         <v>266</v>
       </c>
@@ -42268,14 +42423,14 @@
         <f>COUNTIF($F$7:$F$98,"Missing")+COUNTIF($F$7:$F$98,"Incomplete")</f>
         <v>0</v>
       </c>
-      <c r="G2" s="273" t="s">
+      <c r="G2" s="266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="279"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="272"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="274"/>
       <c r="D3" s="77" t="s">
         <v>268</v>
       </c>
@@ -42287,12 +42442,12 @@
         <f>COUNTIF($F$7:$F$98,"Mostly Complete")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="274"/>
+      <c r="G3" s="267"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="282"/>
-      <c r="C4" s="281"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A4" s="272"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="274"/>
       <c r="D4" s="77" t="s">
         <v>269</v>
       </c>
@@ -42304,12 +42459,12 @@
         <f>COUNTIF($F$7:$F$98,"Complete")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="274"/>
+      <c r="G4" s="267"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A5" s="283"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="285"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A5" s="276"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="278"/>
       <c r="D5" s="79" t="s">
         <v>270</v>
       </c>
@@ -42321,7 +42476,7 @@
         <f>F2*(-0.1)+F3*(-0.02)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="275"/>
+      <c r="G5" s="268"/>
     </row>
     <row r="6" spans="1:7" ht="8.1" customHeight="1" thickBot="1">
       <c r="A6" s="71"/>
@@ -42332,11 +42487,11 @@
       <c r="F6" s="73"/>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A7" s="271" t="s">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A7" s="286" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="272"/>
+      <c r="B7" s="287"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
         <v>93</v>
@@ -42355,10 +42510,10 @@
       <c r="A8" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="264" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="267"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="70"/>
       <c r="E8" s="68" t="s">
         <v>100</v>
@@ -42394,7 +42549,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1">
       <c r="A11" s="100" t="s">
         <v>276</v>
       </c>
@@ -42417,10 +42572,10 @@
       <c r="A12" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="264" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="267"/>
+      <c r="C12" s="265"/>
       <c r="D12" s="70"/>
       <c r="E12" s="68" t="s">
         <v>100</v>
@@ -42434,10 +42589,10 @@
       <c r="A13" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="264" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="267"/>
+      <c r="C13" s="265"/>
       <c r="D13" s="70"/>
       <c r="E13" s="68" t="s">
         <v>100</v>
@@ -42451,10 +42606,10 @@
       <c r="A14" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="264" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="267"/>
+      <c r="C14" s="265"/>
       <c r="D14" s="70"/>
       <c r="E14" s="68" t="s">
         <v>100</v>
@@ -42468,10 +42623,10 @@
       <c r="A15" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="314" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="317"/>
+      <c r="C15" s="315"/>
       <c r="D15" s="126"/>
       <c r="E15" s="68" t="s">
         <v>100</v>
@@ -42485,10 +42640,10 @@
       <c r="A16" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="316" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="315"/>
+      <c r="C16" s="316"/>
       <c r="D16" s="86"/>
       <c r="E16" s="68" t="s">
         <v>100</v>
@@ -42502,10 +42657,10 @@
       <c r="A17" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="316" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="315"/>
+      <c r="C17" s="316"/>
       <c r="D17" s="86"/>
       <c r="E17" s="68" t="s">
         <v>100</v>
@@ -42524,11 +42679,11 @@
       <c r="F18" s="73"/>
       <c r="G18" s="71"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A19" s="271" t="s">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A19" s="286" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="272"/>
+      <c r="B19" s="287"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
         <v>93</v>
@@ -42547,10 +42702,10 @@
       <c r="A20" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="264" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="267"/>
+      <c r="C20" s="265"/>
       <c r="D20" s="70"/>
       <c r="E20" s="68" t="s">
         <v>100</v>
@@ -42564,10 +42719,10 @@
       <c r="A21" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="264" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="267"/>
+      <c r="C21" s="265"/>
       <c r="D21" s="70"/>
       <c r="E21" s="68" t="s">
         <v>100</v>
@@ -42581,10 +42736,10 @@
       <c r="A22" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="316" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="315"/>
+      <c r="C22" s="316"/>
       <c r="D22" s="86"/>
       <c r="E22" s="68" t="s">
         <v>100</v>
@@ -42598,10 +42753,10 @@
       <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="316" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="315"/>
+      <c r="C23" s="316"/>
       <c r="D23" s="86"/>
       <c r="E23" s="68" t="s">
         <v>100</v>
@@ -42615,10 +42770,10 @@
       <c r="A24" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="315"/>
+      <c r="C24" s="316"/>
       <c r="D24" s="86"/>
       <c r="E24" s="68" t="s">
         <v>100</v>
@@ -42632,10 +42787,10 @@
       <c r="A25" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="316" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="315"/>
+      <c r="C25" s="316"/>
       <c r="D25" s="86"/>
       <c r="E25" s="68" t="s">
         <v>100</v>
@@ -42645,14 +42800,14 @@
       </c>
       <c r="G25" s="86"/>
     </row>
-    <row r="26" spans="1:7" ht="39.75" thickBot="1">
+    <row r="26" spans="1:7" ht="39" thickBot="1">
       <c r="A26" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="315" t="s">
+      <c r="B26" s="316" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="315"/>
+      <c r="C26" s="316"/>
       <c r="D26" s="86"/>
       <c r="E26" s="68" t="s">
         <v>100</v>
@@ -42666,10 +42821,10 @@
       <c r="A27" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="316" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="315"/>
+      <c r="C27" s="316"/>
       <c r="D27" s="86"/>
       <c r="E27" s="68" t="s">
         <v>100</v>
@@ -42683,10 +42838,10 @@
       <c r="A28" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="315"/>
+      <c r="C28" s="316"/>
       <c r="D28" s="86"/>
       <c r="E28" s="68" t="s">
         <v>100</v>
@@ -42696,14 +42851,14 @@
       </c>
       <c r="G28" s="86"/>
     </row>
-    <row r="29" spans="1:7" ht="39.75" thickBot="1">
+    <row r="29" spans="1:7" ht="39" thickBot="1">
       <c r="A29" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="316" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="315"/>
+      <c r="C29" s="316"/>
       <c r="D29" s="86"/>
       <c r="E29" s="68" t="s">
         <v>100</v>
@@ -42717,10 +42872,10 @@
       <c r="A30" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="315" t="s">
+      <c r="B30" s="316" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="315"/>
+      <c r="C30" s="316"/>
       <c r="D30" s="86"/>
       <c r="E30" s="68" t="s">
         <v>100</v>
@@ -42733,11 +42888,11 @@
     <row r="31" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A31" s="89"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A32" s="271" t="s">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A32" s="286" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="272"/>
+      <c r="B32" s="287"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68" t="s">
         <v>93</v>
@@ -42756,10 +42911,10 @@
       <c r="A33" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="313" t="s">
+      <c r="B33" s="311" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="313"/>
+      <c r="C33" s="311"/>
       <c r="D33" s="90"/>
       <c r="E33" s="68" t="s">
         <v>100</v>
@@ -42773,10 +42928,10 @@
       <c r="A34" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="B34" s="314" t="s">
+      <c r="B34" s="317" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="314"/>
+      <c r="C34" s="317"/>
       <c r="D34" s="90"/>
       <c r="E34" s="68" t="s">
         <v>100</v>
@@ -42790,10 +42945,10 @@
       <c r="A35" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B35" s="313" t="s">
+      <c r="B35" s="311" t="s">
         <v>317</v>
       </c>
-      <c r="C35" s="313"/>
+      <c r="C35" s="311"/>
       <c r="D35" s="90"/>
       <c r="E35" s="68" t="s">
         <v>100</v>
@@ -42807,10 +42962,10 @@
       <c r="A36" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="313" t="s">
+      <c r="B36" s="311" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="313"/>
+      <c r="C36" s="311"/>
       <c r="D36" s="90"/>
       <c r="E36" s="68" t="s">
         <v>100</v>
@@ -42824,10 +42979,10 @@
       <c r="A37" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="313" t="s">
+      <c r="B37" s="311" t="s">
         <v>321</v>
       </c>
-      <c r="C37" s="313"/>
+      <c r="C37" s="311"/>
       <c r="D37" s="90"/>
       <c r="E37" s="68" t="s">
         <v>100</v>
@@ -42841,10 +42996,10 @@
       <c r="A38" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="311" t="s">
+      <c r="B38" s="312" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="312"/>
+      <c r="C38" s="313"/>
       <c r="D38" s="90"/>
       <c r="E38" s="68" t="s">
         <v>100</v>
@@ -42858,10 +43013,10 @@
       <c r="A39" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="313" t="s">
+      <c r="B39" s="311" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="313"/>
+      <c r="C39" s="311"/>
       <c r="D39" s="90"/>
       <c r="E39" s="68" t="s">
         <v>100</v>
@@ -42875,10 +43030,10 @@
       <c r="A40" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="311" t="s">
+      <c r="B40" s="312" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="312"/>
+      <c r="C40" s="313"/>
       <c r="D40" s="90"/>
       <c r="E40" s="68" t="s">
         <v>100</v>
@@ -42892,10 +43047,10 @@
       <c r="A41" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="313" t="s">
+      <c r="B41" s="311" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="313"/>
+      <c r="C41" s="311"/>
       <c r="D41" s="90"/>
       <c r="E41" s="68" t="s">
         <v>100</v>
@@ -42909,10 +43064,10 @@
       <c r="A42" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="313" t="s">
+      <c r="B42" s="311" t="s">
         <v>331</v>
       </c>
-      <c r="C42" s="313"/>
+      <c r="C42" s="311"/>
       <c r="D42" s="90"/>
       <c r="E42" s="68" t="s">
         <v>100</v>
@@ -42926,10 +43081,10 @@
       <c r="A43" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="313" t="s">
+      <c r="B43" s="311" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="313"/>
+      <c r="C43" s="311"/>
       <c r="D43" s="90"/>
       <c r="E43" s="68" t="s">
         <v>100</v>
@@ -42943,10 +43098,10 @@
       <c r="A44" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="313" t="s">
+      <c r="B44" s="311" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="313"/>
+      <c r="C44" s="311"/>
       <c r="D44" s="90"/>
       <c r="E44" s="68" t="s">
         <v>100</v>
@@ -42960,10 +43115,10 @@
       <c r="A45" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="313" t="s">
+      <c r="B45" s="311" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="313"/>
+      <c r="C45" s="311"/>
       <c r="D45" s="90"/>
       <c r="E45" s="68" t="s">
         <v>100</v>
@@ -42977,10 +43132,10 @@
       <c r="A46" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="311" t="s">
+      <c r="B46" s="312" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="312"/>
+      <c r="C46" s="313"/>
       <c r="D46" s="90"/>
       <c r="E46" s="68" t="s">
         <v>100</v>
@@ -42993,11 +43148,11 @@
     <row r="47" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A47" s="89"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A48" s="271" t="s">
+    <row r="48" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A48" s="286" t="s">
         <v>340</v>
       </c>
-      <c r="B48" s="272"/>
+      <c r="B48" s="287"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68" t="s">
         <v>93</v>
@@ -43016,10 +43171,10 @@
       <c r="A49" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B49" s="313" t="s">
+      <c r="B49" s="311" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="313"/>
+      <c r="C49" s="311"/>
       <c r="D49" s="90"/>
       <c r="E49" s="68" t="s">
         <v>100</v>
@@ -43033,10 +43188,10 @@
       <c r="A50" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="313" t="s">
+      <c r="B50" s="311" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="313"/>
+      <c r="C50" s="311"/>
       <c r="D50" s="90"/>
       <c r="E50" s="68" t="s">
         <v>100</v>
@@ -43050,10 +43205,10 @@
       <c r="A51" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B51" s="313" t="s">
+      <c r="B51" s="311" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="313"/>
+      <c r="C51" s="311"/>
       <c r="D51" s="90"/>
       <c r="E51" s="68" t="s">
         <v>100</v>
@@ -43067,10 +43222,10 @@
       <c r="A52" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="312" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="312"/>
+      <c r="C52" s="313"/>
       <c r="D52" s="90"/>
       <c r="E52" s="68" t="s">
         <v>100</v>
@@ -43084,10 +43239,10 @@
       <c r="A53" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="311" t="s">
+      <c r="B53" s="312" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="312"/>
+      <c r="C53" s="313"/>
       <c r="D53" s="90"/>
       <c r="E53" s="68" t="s">
         <v>100</v>
@@ -43101,10 +43256,10 @@
       <c r="A54" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="311" t="s">
+      <c r="B54" s="312" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="312"/>
+      <c r="C54" s="313"/>
       <c r="D54" s="90"/>
       <c r="E54" s="68" t="s">
         <v>100</v>
@@ -43118,10 +43273,10 @@
       <c r="A55" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="312" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="312"/>
+      <c r="C55" s="313"/>
       <c r="D55" s="90"/>
       <c r="E55" s="68" t="s">
         <v>100</v>
@@ -43135,10 +43290,10 @@
       <c r="A56" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="313" t="s">
+      <c r="B56" s="311" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="313"/>
+      <c r="C56" s="311"/>
       <c r="D56" s="90"/>
       <c r="E56" s="68" t="s">
         <v>100</v>
@@ -43152,10 +43307,10 @@
       <c r="A57" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="313" t="s">
+      <c r="B57" s="311" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="313"/>
+      <c r="C57" s="311"/>
       <c r="D57" s="90"/>
       <c r="E57" s="68" t="s">
         <v>100</v>
@@ -43169,10 +43324,10 @@
       <c r="A58" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B58" s="313" t="s">
+      <c r="B58" s="311" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="313"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="90"/>
       <c r="E58" s="68" t="s">
         <v>100</v>
@@ -43182,14 +43337,14 @@
       </c>
       <c r="G58" s="90"/>
     </row>
-    <row r="59" spans="1:7" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" ht="26.25" thickBot="1">
       <c r="A59" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B59" s="313" t="s">
+      <c r="B59" s="311" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="313"/>
+      <c r="C59" s="311"/>
       <c r="D59" s="90"/>
       <c r="E59" s="68" t="s">
         <v>100</v>
@@ -43203,10 +43358,10 @@
       <c r="A60" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="313" t="s">
+      <c r="B60" s="311" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="313"/>
+      <c r="C60" s="311"/>
       <c r="D60" s="90"/>
       <c r="E60" s="68" t="s">
         <v>100</v>
@@ -43220,10 +43375,10 @@
       <c r="A61" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B61" s="313" t="s">
+      <c r="B61" s="311" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="313"/>
+      <c r="C61" s="311"/>
       <c r="D61" s="90"/>
       <c r="E61" s="68" t="s">
         <v>100</v>
@@ -43236,11 +43391,11 @@
     <row r="62" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A62" s="89"/>
     </row>
-    <row r="63" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A63" s="271" t="s">
+    <row r="63" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A63" s="286" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="272"/>
+      <c r="B63" s="287"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68" t="s">
         <v>93</v>
@@ -43259,10 +43414,10 @@
       <c r="A64" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="313" t="s">
+      <c r="B64" s="311" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="313"/>
+      <c r="C64" s="311"/>
       <c r="D64" s="90"/>
       <c r="E64" s="68" t="s">
         <v>100</v>
@@ -43276,10 +43431,10 @@
       <c r="A65" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="313" t="s">
+      <c r="B65" s="311" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="313"/>
+      <c r="C65" s="311"/>
       <c r="D65" s="90"/>
       <c r="E65" s="68" t="s">
         <v>100</v>
@@ -43292,11 +43447,11 @@
     <row r="66" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A66" s="89"/>
     </row>
-    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
-      <c r="A67" s="271" t="s">
+    <row r="67" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A67" s="286" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="272"/>
+      <c r="B67" s="287"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68" t="s">
         <v>93</v>
@@ -43315,10 +43470,10 @@
       <c r="A68" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="313" t="s">
+      <c r="B68" s="311" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="313"/>
+      <c r="C68" s="311"/>
       <c r="D68" s="90"/>
       <c r="E68" s="68" t="s">
         <v>100</v>
@@ -43330,6 +43485,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="B68:C68"/>
@@ -43346,48 +43543,6 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:F31 E69:F99">
     <cfRule type="beginsWith" dxfId="225" priority="650" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
@@ -44158,7 +44313,7 @@
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.4">
+    <row r="1" spans="1:5" s="133" customFormat="1" ht="33.75">
       <c r="A1" s="133" t="s">
         <v>427</v>
       </c>
@@ -44331,6 +44486,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B80422270038E41BFD2D2012DBEC4D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bacbea2c98f3547ad6e571988d78df4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="de65e86b-0f7f-4b92-a9bd-18bee373006c" xmlns:ns4="1528dd05-61d3-4f6f-8f4b-07c6ec116598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3e6db65c09f030fac333c6f433b1bd0" ns3:_="" ns4:_="">
     <xsd:import namespace="de65e86b-0f7f-4b92-a9bd-18bee373006c"/>
@@ -44547,22 +44717,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA0FF5F-F2AC-414B-B377-06516C09209C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44579,21 +44751,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D233A4-2DCC-4B98-AE00-0D278B17E066}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F51AB6-4F4A-4993-A4C1-F432D850217F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>